--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy Chien\git\Concurrent-SkipList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAA2BD-B0E0-4154-8852-8C589CF0D738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{04EDD2DB-43BE-4905-AC96-1917C4B13A10}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,7 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,7 +302,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -342,6 +341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -482,7 +482,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -593,7 +593,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -704,7 +704,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -815,7 +815,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -830,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1106113583"/>
-        <c:axId val="1103152335"/>
+        <c:axId val="777122192"/>
+        <c:axId val="777120560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1106113583"/>
+        <c:axId val="777122192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103152335"/>
+        <c:crossAx val="777120560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1103152335"/>
+        <c:axId val="777120560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106113583"/>
+        <c:crossAx val="777122192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,6 +950,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -981,14 +982,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1024,7 +1025,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1063,6 +1064,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,7 +1205,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1314,7 +1316,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1425,7 +1427,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1536,7 +1538,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1551,11 +1553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1106115183"/>
-        <c:axId val="1103172719"/>
+        <c:axId val="777124368"/>
+        <c:axId val="777122736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1106115183"/>
+        <c:axId val="777124368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103172719"/>
+        <c:crossAx val="777122736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1103172719"/>
+        <c:axId val="777122736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106115183"/>
+        <c:crossAx val="777124368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,6 +1673,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1702,14 +1705,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1745,7 +1748,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1784,6 +1787,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1924,7 +1928,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2035,7 +2039,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2146,7 +2150,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2257,7 +2261,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2272,11 +2276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1447843759"/>
-        <c:axId val="1103149423"/>
+        <c:axId val="777121104"/>
+        <c:axId val="777128176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1447843759"/>
+        <c:axId val="777121104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103149423"/>
+        <c:crossAx val="777128176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1103149423"/>
+        <c:axId val="777128176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447843759"/>
+        <c:crossAx val="777121104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2392,6 +2396,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2423,14 +2428,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4153,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4194,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4225,7 +4230,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4542,40 +4547,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95749963-4A7F-4474-B4BF-FB178766C3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4609,160 +4614,160 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A5" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A6" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A7" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A8" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A10" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A11" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4779,8 +4784,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4795,8 +4800,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4811,8 +4816,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4829,8 +4834,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4845,8 +4850,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4861,8 +4866,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4879,8 +4884,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4895,8 +4900,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4911,8 +4916,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4929,8 +4934,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4945,8 +4950,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4961,8 +4966,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4979,8 +4984,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4995,8 +5000,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -5011,8 +5016,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5029,8 +5034,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -5045,8 +5050,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5061,8 +5066,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5079,8 +5084,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5095,8 +5100,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5111,8 +5116,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5129,8 +5134,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5145,8 +5150,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5161,8 +5166,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5179,8 +5184,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5195,8 +5200,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="12"/>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5211,28 +5216,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5266,8 +5271,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5276,56 +5281,56 @@
       <c r="C43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A44" s="11"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A45" s="11"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="9">
         <v>1</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A46" s="11" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -5334,54 +5339,54 @@
       <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A47" s="11"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="9">
         <v>2</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A48" s="11"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="9">
         <v>2</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A49" s="11" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -5390,60 +5395,60 @@
       <c r="C49" s="4">
         <v>5</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A50" s="11"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="9">
         <v>4</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A51" s="11"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="9">
         <v>3</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A52" s="11" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="9">
         <v>12</v>
       </c>
       <c r="D52" s="4">
@@ -5452,34 +5457,34 @@
       <c r="E52" s="4">
         <v>16</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="9">
         <v>29</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="9">
         <v>17</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="9">
         <v>34</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="9">
         <v>30</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="9">
         <v>28</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="9">
         <v>32</v>
       </c>
       <c r="L52" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="12"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="9">
         <v>6</v>
       </c>
       <c r="D53" s="4">
@@ -5488,66 +5493,66 @@
       <c r="E53" s="4">
         <v>17</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="9">
         <v>18</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="9">
         <v>17</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="9">
         <v>27</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="9">
         <v>32</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="9">
         <v>35</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="9">
         <v>33</v>
       </c>
       <c r="L53" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="12"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="9">
         <v>11</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="9">
         <v>17</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="9">
         <v>21</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="9">
         <v>16</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="9">
         <v>28</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="9">
         <v>16</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="9">
         <v>27</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="9">
         <v>21</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="9">
         <v>36</v>
       </c>
       <c r="L54" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5562,34 +5567,34 @@
       <c r="E55" s="4">
         <v>2</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="9">
         <v>1</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="9">
         <v>3</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="9">
         <v>11</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="9">
         <v>5</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="9">
         <v>11</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="9">
         <v>20</v>
       </c>
       <c r="L55" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="12"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="9">
         <v>3</v>
       </c>
       <c r="D56" s="4">
@@ -5598,66 +5603,66 @@
       <c r="E56" s="4">
         <v>2</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="9">
         <v>3</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="9">
         <v>2</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="9">
         <v>5</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="9">
         <v>6</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="9">
         <v>13</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="9">
         <v>23</v>
       </c>
       <c r="L56" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="9">
         <v>3</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="9">
         <v>2</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="9">
         <v>1</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="9">
         <v>2</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="9">
         <v>2</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="9">
         <v>5</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="9">
         <v>6</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="9">
         <v>14</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="9">
         <v>21</v>
       </c>
       <c r="L57" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -5672,30 +5677,30 @@
       <c r="E58" s="4">
         <v>5</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="9">
         <v>9</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="9">
         <v>4</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="9">
         <v>5</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="9">
         <v>11</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="9">
         <v>17</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="9">
         <v>26</v>
       </c>
       <c r="L58" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A59" s="11"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="12"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -5708,176 +5713,176 @@
       <c r="E59" s="4">
         <v>5</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="9">
         <v>7</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="9">
         <v>5</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="9">
         <v>5</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="9">
         <v>8</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="9">
         <v>13</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="9">
         <v>22</v>
       </c>
       <c r="L59" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="9">
         <v>7</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="9">
         <v>6</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="9">
         <v>4</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="9">
         <v>9</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="9">
         <v>4</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="9">
         <v>4</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="9">
         <v>9</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="9">
         <v>17</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="9">
         <v>22</v>
       </c>
       <c r="L60" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="9">
         <v>5</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="9">
         <v>6</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="9">
         <v>10</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="9">
         <v>5</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="9">
         <v>5</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="9">
         <v>6</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="9">
         <v>8</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="9">
         <v>12</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="9">
         <v>23</v>
       </c>
       <c r="L61" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="9">
         <v>6</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="9">
         <v>6</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="9">
         <v>8</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="9">
         <v>4</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="9">
         <v>5</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="9">
         <v>6</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="9">
         <v>8</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="9">
         <v>18</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="9">
         <v>25</v>
       </c>
       <c r="L62" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="9">
         <v>6</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="9">
         <v>5</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="9">
         <v>9</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="9">
         <v>4</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="9">
         <v>5</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H63" s="9">
         <v>6</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="9">
         <v>11</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="9">
         <v>14</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="9">
         <v>22</v>
       </c>
       <c r="L63" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5892,102 +5897,102 @@
       <c r="E64" s="4">
         <v>5</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="9">
         <v>4</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="9">
         <v>15</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="9">
         <v>7</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="9">
         <v>13</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="9">
         <v>16</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="9">
         <v>26</v>
       </c>
       <c r="L64" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="9">
         <v>6</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="9">
         <v>7</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="9">
         <v>6</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="9">
         <v>7</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="9">
         <v>9</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H65" s="9">
         <v>7</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="9">
         <v>12</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="9">
         <v>16</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="9">
         <v>24</v>
       </c>
       <c r="L65" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="9">
         <v>6</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="9">
         <v>6</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="9">
         <v>6</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="9">
         <v>7</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="9">
         <v>12</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="9">
         <v>7</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="9">
         <v>10</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="9">
         <v>14</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="9">
         <v>25</v>
       </c>
       <c r="L66" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -6002,30 +6007,30 @@
       <c r="E67" s="4">
         <v>1</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="9">
         <v>4</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="9">
         <v>4</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="9">
         <v>3</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="9">
         <v>7</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="9">
         <v>9</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="9">
         <v>17</v>
       </c>
       <c r="L67" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="12"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -6038,176 +6043,176 @@
       <c r="E68" s="4">
         <v>2</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="9">
         <v>2</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="9">
         <v>2</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="9">
         <v>5</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="9">
         <v>7</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="9">
         <v>11</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="9">
         <v>18</v>
       </c>
       <c r="L68" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="9">
         <v>4</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="9">
         <v>3</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="9">
         <v>5</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="9">
         <v>5</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="9">
         <v>6</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="9">
         <v>4</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="9">
         <v>6</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="9">
         <v>10</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="9">
         <v>22</v>
       </c>
       <c r="L69" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="9">
         <v>4</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="9">
         <v>7</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="9">
         <v>8</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="9">
         <v>8</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="9">
         <v>14</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="9">
         <v>9</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="9">
         <v>11</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="9">
         <v>19</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="9">
         <v>24</v>
       </c>
       <c r="L70" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="12"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="9">
         <v>3</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="9">
         <v>8</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="9">
         <v>7</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="9">
         <v>8</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="9">
         <v>11</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="9">
         <v>9</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="9">
         <v>10</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="9">
         <v>19</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="9">
         <v>28</v>
       </c>
       <c r="L71" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="12"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="9">
         <v>3</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="9">
         <v>9</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="9">
         <v>9</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="9">
         <v>9</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="9">
         <v>12</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="9">
         <v>9</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="9">
         <v>13</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="9">
         <v>17</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="9">
         <v>27</v>
       </c>
       <c r="L72" s="5">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -6222,102 +6227,102 @@
       <c r="E73" s="4">
         <v>1</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="9">
         <v>1</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="9">
         <v>1</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="9">
         <v>2</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="9">
         <v>5</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="9">
         <v>9</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="9">
         <v>16</v>
       </c>
       <c r="L73" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="9">
         <v>2</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="9">
         <v>1</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="9">
         <v>1</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="9">
         <v>2</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="9">
         <v>2</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="9">
         <v>6</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="9">
         <v>4</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="9">
         <v>11</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="9">
         <v>20</v>
       </c>
       <c r="L74" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="9">
         <v>1</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="9">
         <v>1</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="9">
         <v>1</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="9">
         <v>1</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="9">
         <v>3</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="9">
         <v>5</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="9">
         <v>9</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="9">
         <v>17</v>
       </c>
       <c r="L75" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -6332,30 +6337,30 @@
       <c r="E76" s="4">
         <v>7</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="9">
         <v>6</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="9">
         <v>6</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="9">
         <v>8</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="9">
         <v>8</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="9">
         <v>12</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="9">
         <v>23</v>
       </c>
       <c r="L76" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -6368,30 +6373,30 @@
       <c r="E77" s="4">
         <v>5</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="9">
         <v>6</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="9">
         <v>5</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H77" s="9">
         <v>6</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="9">
         <v>10</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="9">
         <v>16</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="9">
         <v>23</v>
       </c>
       <c r="L77" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A78" s="12"/>
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
@@ -6426,28 +6431,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="10"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6481,630 +6486,1188 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="4">
+        <v>198</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A84" s="11"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="15"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="12"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="14"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A85" s="11"/>
+      <c r="C84" s="4">
+        <v>253</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="15"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="14"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A86" s="11" t="s">
+      <c r="C85" s="9">
+        <v>313</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="15"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A87" s="11"/>
+      <c r="C86" s="4">
+        <v>183</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="15"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="14"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A88" s="11"/>
+      <c r="C87" s="4">
+        <v>187</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="15"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A89" s="11" t="s">
+      <c r="C88" s="4">
+        <v>213</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="15"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="14"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A90" s="11"/>
+      <c r="C89" s="9">
+        <v>792</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A91" s="11"/>
+      <c r="C90" s="9">
+        <v>885</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="15"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="14"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A92" s="11" t="s">
+      <c r="C91" s="9">
+        <v>781</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A93" s="11"/>
+      <c r="C92" s="9">
+        <v>881</v>
+      </c>
+      <c r="D92" s="4">
+        <v>638</v>
+      </c>
+      <c r="E92" s="4">
+        <v>518</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1355</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1429</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1488</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1459</v>
+      </c>
+      <c r="J92" s="9">
+        <v>1631</v>
+      </c>
+      <c r="K92" s="9">
+        <v>1679</v>
+      </c>
+      <c r="L92" s="5">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A94" s="11"/>
+      <c r="C93" s="9">
+        <v>1479</v>
+      </c>
+      <c r="D93" s="4">
+        <v>677</v>
+      </c>
+      <c r="E93" s="4">
+        <v>524</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1277</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1510</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1508</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1529</v>
+      </c>
+      <c r="J93" s="9">
+        <v>1667</v>
+      </c>
+      <c r="K93" s="9">
+        <v>1394</v>
+      </c>
+      <c r="L93" s="5">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A95" s="11" t="s">
+      <c r="C94" s="9">
+        <v>877</v>
+      </c>
+      <c r="D94" s="9">
+        <v>693</v>
+      </c>
+      <c r="E94" s="9">
+        <v>548</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1421</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1478</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1362</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1326</v>
+      </c>
+      <c r="J94" s="9">
+        <v>1530</v>
+      </c>
+      <c r="K94" s="9">
+        <v>1319</v>
+      </c>
+      <c r="L94" s="5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A96" s="11"/>
+      <c r="C95" s="4">
+        <v>613</v>
+      </c>
+      <c r="D95" s="4">
+        <v>262</v>
+      </c>
+      <c r="E95" s="4">
+        <v>183</v>
+      </c>
+      <c r="F95" s="9">
+        <v>151</v>
+      </c>
+      <c r="G95" s="9">
+        <v>296</v>
+      </c>
+      <c r="H95" s="9">
+        <v>161</v>
+      </c>
+      <c r="I95" s="9">
+        <v>158</v>
+      </c>
+      <c r="J95" s="9">
+        <v>172</v>
+      </c>
+      <c r="K95" s="9">
+        <v>333</v>
+      </c>
+      <c r="L95" s="5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A97" s="11"/>
+      <c r="C96" s="9">
+        <v>515</v>
+      </c>
+      <c r="D96" s="9">
+        <v>242</v>
+      </c>
+      <c r="E96" s="9">
+        <v>198</v>
+      </c>
+      <c r="F96" s="9">
+        <v>157</v>
+      </c>
+      <c r="G96" s="9">
+        <v>195</v>
+      </c>
+      <c r="H96" s="9">
+        <v>154</v>
+      </c>
+      <c r="I96" s="9">
+        <v>146</v>
+      </c>
+      <c r="J96" s="9">
+        <v>180</v>
+      </c>
+      <c r="K96" s="9">
+        <v>214</v>
+      </c>
+      <c r="L96" s="5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A98" s="11" t="s">
+      <c r="C97" s="9">
+        <v>415</v>
+      </c>
+      <c r="D97" s="9">
+        <v>290</v>
+      </c>
+      <c r="E97" s="9">
+        <v>200</v>
+      </c>
+      <c r="F97" s="9">
+        <v>148</v>
+      </c>
+      <c r="G97" s="9">
+        <v>151</v>
+      </c>
+      <c r="H97" s="9">
+        <v>164</v>
+      </c>
+      <c r="I97" s="9">
+        <v>178</v>
+      </c>
+      <c r="J97" s="9">
+        <v>158</v>
+      </c>
+      <c r="K97" s="9">
+        <v>321</v>
+      </c>
+      <c r="L97" s="5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A99" s="11"/>
+      <c r="C98" s="4">
+        <v>1203</v>
+      </c>
+      <c r="D98" s="4">
+        <v>819</v>
+      </c>
+      <c r="E98" s="4">
+        <v>714</v>
+      </c>
+      <c r="F98" s="9">
+        <v>771</v>
+      </c>
+      <c r="G98" s="9">
+        <v>714</v>
+      </c>
+      <c r="H98" s="9">
+        <v>682</v>
+      </c>
+      <c r="I98" s="9">
+        <v>791</v>
+      </c>
+      <c r="J98" s="9">
+        <v>759</v>
+      </c>
+      <c r="K98" s="9">
+        <v>781</v>
+      </c>
+      <c r="L98" s="5">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A100" s="11"/>
+      <c r="C99" s="9">
+        <v>1110</v>
+      </c>
+      <c r="D99" s="9">
+        <v>835</v>
+      </c>
+      <c r="E99" s="9">
+        <v>734</v>
+      </c>
+      <c r="F99" s="9">
+        <v>737</v>
+      </c>
+      <c r="G99" s="9">
+        <v>709</v>
+      </c>
+      <c r="H99" s="9">
+        <v>727</v>
+      </c>
+      <c r="I99" s="9">
+        <v>701</v>
+      </c>
+      <c r="J99" s="9">
+        <v>1030</v>
+      </c>
+      <c r="K99" s="9">
+        <v>732</v>
+      </c>
+      <c r="L99" s="5">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="12"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A101" s="11" t="s">
+      <c r="C100" s="9">
+        <v>1031</v>
+      </c>
+      <c r="D100" s="9">
+        <v>813</v>
+      </c>
+      <c r="E100" s="9">
+        <v>764</v>
+      </c>
+      <c r="F100" s="9">
+        <v>813</v>
+      </c>
+      <c r="G100" s="9">
+        <v>818</v>
+      </c>
+      <c r="H100" s="9">
+        <v>826</v>
+      </c>
+      <c r="I100" s="9">
+        <v>682</v>
+      </c>
+      <c r="J100" s="9">
+        <v>806</v>
+      </c>
+      <c r="K100" s="9">
+        <v>803</v>
+      </c>
+      <c r="L100" s="5">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A102" s="11"/>
+      <c r="C101" s="9">
+        <v>864</v>
+      </c>
+      <c r="D101" s="9">
+        <v>484</v>
+      </c>
+      <c r="E101" s="9">
+        <v>527</v>
+      </c>
+      <c r="F101" s="9">
+        <v>507</v>
+      </c>
+      <c r="G101" s="9">
+        <v>671</v>
+      </c>
+      <c r="H101" s="9">
+        <v>855</v>
+      </c>
+      <c r="I101" s="9">
+        <v>691</v>
+      </c>
+      <c r="J101" s="9">
+        <v>549</v>
+      </c>
+      <c r="K101" s="9">
+        <v>909</v>
+      </c>
+      <c r="L101" s="5">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A103" s="11"/>
+      <c r="C102" s="9">
+        <v>582</v>
+      </c>
+      <c r="D102" s="9">
+        <v>618</v>
+      </c>
+      <c r="E102" s="9">
+        <v>719</v>
+      </c>
+      <c r="F102" s="9">
+        <v>579</v>
+      </c>
+      <c r="G102" s="9">
+        <v>910</v>
+      </c>
+      <c r="H102" s="9">
+        <v>776</v>
+      </c>
+      <c r="I102" s="9">
+        <v>828</v>
+      </c>
+      <c r="J102" s="9">
+        <v>674</v>
+      </c>
+      <c r="K102" s="9">
+        <v>1098</v>
+      </c>
+      <c r="L102" s="5">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A104" s="11" t="s">
+      <c r="C103" s="9">
+        <v>561</v>
+      </c>
+      <c r="D103" s="9">
+        <v>824</v>
+      </c>
+      <c r="E103" s="9">
+        <v>679</v>
+      </c>
+      <c r="F103" s="9">
+        <v>494</v>
+      </c>
+      <c r="G103" s="9">
+        <v>553</v>
+      </c>
+      <c r="H103" s="9">
+        <v>907</v>
+      </c>
+      <c r="I103" s="9">
+        <v>804</v>
+      </c>
+      <c r="J103" s="9">
+        <v>946</v>
+      </c>
+      <c r="K103" s="9">
+        <v>851</v>
+      </c>
+      <c r="L103" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A105" s="11"/>
+      <c r="C104" s="9">
+        <v>578</v>
+      </c>
+      <c r="D104" s="9">
+        <v>410</v>
+      </c>
+      <c r="E104">
+        <v>306</v>
+      </c>
+      <c r="F104" s="9">
+        <v>239</v>
+      </c>
+      <c r="G104" s="9">
+        <v>271</v>
+      </c>
+      <c r="H104" s="9">
+        <v>319</v>
+      </c>
+      <c r="I104" s="9">
+        <v>269</v>
+      </c>
+      <c r="J104" s="9">
+        <v>276</v>
+      </c>
+      <c r="K104" s="9">
+        <v>332</v>
+      </c>
+      <c r="L104" s="5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="5"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A106" s="11"/>
+      <c r="C105" s="9">
+        <v>724</v>
+      </c>
+      <c r="D105" s="9">
+        <v>319</v>
+      </c>
+      <c r="E105" s="9">
+        <v>262</v>
+      </c>
+      <c r="F105" s="9">
+        <v>261</v>
+      </c>
+      <c r="G105" s="9">
+        <v>218</v>
+      </c>
+      <c r="H105" s="9">
+        <v>238</v>
+      </c>
+      <c r="I105" s="9">
+        <v>290</v>
+      </c>
+      <c r="J105" s="9">
+        <v>306</v>
+      </c>
+      <c r="K105" s="9">
+        <v>280</v>
+      </c>
+      <c r="L105" s="5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A107" s="11" t="s">
+      <c r="C106" s="9">
+        <v>712</v>
+      </c>
+      <c r="D106" s="9">
+        <v>337</v>
+      </c>
+      <c r="E106" s="9">
+        <v>273</v>
+      </c>
+      <c r="F106" s="9">
+        <v>245</v>
+      </c>
+      <c r="G106" s="9">
+        <v>250</v>
+      </c>
+      <c r="H106" s="9">
+        <v>280</v>
+      </c>
+      <c r="I106" s="9">
+        <v>314</v>
+      </c>
+      <c r="J106" s="9">
+        <v>297</v>
+      </c>
+      <c r="K106" s="9">
+        <v>280</v>
+      </c>
+      <c r="L106" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A108" s="11"/>
+      <c r="C107" s="4">
+        <v>526</v>
+      </c>
+      <c r="D107" s="4">
+        <v>327</v>
+      </c>
+      <c r="E107" s="4">
+        <v>566</v>
+      </c>
+      <c r="F107" s="9">
+        <v>523</v>
+      </c>
+      <c r="G107" s="9">
+        <v>370</v>
+      </c>
+      <c r="H107" s="9">
+        <v>353</v>
+      </c>
+      <c r="I107" s="9">
+        <v>275</v>
+      </c>
+      <c r="J107" s="9">
+        <v>391</v>
+      </c>
+      <c r="K107" s="9">
+        <v>457</v>
+      </c>
+      <c r="L107" s="5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A109" s="11"/>
+      <c r="C108" s="9">
+        <v>450</v>
+      </c>
+      <c r="D108" s="4">
+        <v>320</v>
+      </c>
+      <c r="E108" s="4">
+        <v>440</v>
+      </c>
+      <c r="F108" s="9">
+        <v>465</v>
+      </c>
+      <c r="G108" s="9">
+        <v>379</v>
+      </c>
+      <c r="H108" s="9">
+        <v>387</v>
+      </c>
+      <c r="I108" s="9">
+        <v>298</v>
+      </c>
+      <c r="J108" s="9">
+        <v>428</v>
+      </c>
+      <c r="K108" s="9">
+        <v>432</v>
+      </c>
+      <c r="L108" s="5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A110" s="11" t="s">
+      <c r="C109" s="9">
+        <v>507</v>
+      </c>
+      <c r="D109" s="9">
+        <v>698</v>
+      </c>
+      <c r="E109" s="9">
+        <v>409</v>
+      </c>
+      <c r="F109" s="9">
+        <v>484</v>
+      </c>
+      <c r="G109" s="9">
+        <v>319</v>
+      </c>
+      <c r="H109" s="9">
+        <v>273</v>
+      </c>
+      <c r="I109" s="9">
+        <v>313</v>
+      </c>
+      <c r="J109" s="9">
+        <v>394</v>
+      </c>
+      <c r="K109" s="9">
+        <v>370</v>
+      </c>
+      <c r="L109" s="5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A111" s="11"/>
+      <c r="C110" s="9">
+        <v>510</v>
+      </c>
+      <c r="D110" s="9">
+        <v>442</v>
+      </c>
+      <c r="E110" s="9">
+        <v>428</v>
+      </c>
+      <c r="F110" s="9">
+        <v>450</v>
+      </c>
+      <c r="G110" s="9">
+        <v>633</v>
+      </c>
+      <c r="H110" s="9">
+        <v>478</v>
+      </c>
+      <c r="I110" s="9">
+        <v>577</v>
+      </c>
+      <c r="J110" s="9">
+        <v>558</v>
+      </c>
+      <c r="K110" s="9">
+        <v>428</v>
+      </c>
+      <c r="L110" s="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A112" s="11"/>
+      <c r="C111" s="9">
+        <v>516</v>
+      </c>
+      <c r="D111" s="9">
+        <v>510</v>
+      </c>
+      <c r="E111" s="9">
+        <v>592</v>
+      </c>
+      <c r="F111" s="9">
+        <v>720</v>
+      </c>
+      <c r="G111" s="9">
+        <v>546</v>
+      </c>
+      <c r="H111" s="9">
+        <v>607</v>
+      </c>
+      <c r="I111" s="9">
+        <v>450</v>
+      </c>
+      <c r="J111" s="9">
+        <v>589</v>
+      </c>
+      <c r="K111" s="9">
+        <v>386</v>
+      </c>
+      <c r="L111" s="5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A113" s="11" t="s">
+      <c r="C112" s="9">
+        <v>537</v>
+      </c>
+      <c r="D112" s="9">
+        <v>426</v>
+      </c>
+      <c r="E112" s="9">
+        <v>512</v>
+      </c>
+      <c r="F112" s="9">
+        <v>462</v>
+      </c>
+      <c r="G112" s="9">
+        <v>416</v>
+      </c>
+      <c r="H112" s="9">
+        <v>514</v>
+      </c>
+      <c r="I112" s="9">
+        <v>429</v>
+      </c>
+      <c r="J112" s="9">
+        <v>556</v>
+      </c>
+      <c r="K112" s="9">
+        <v>681</v>
+      </c>
+      <c r="L112" s="5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A114" s="11"/>
+      <c r="C113" s="9">
+        <v>232</v>
+      </c>
+      <c r="D113" s="9">
+        <v>106</v>
+      </c>
+      <c r="E113" s="9">
+        <v>77</v>
+      </c>
+      <c r="F113" s="9">
+        <v>79</v>
+      </c>
+      <c r="G113" s="9">
+        <v>161</v>
+      </c>
+      <c r="H113" s="9">
+        <v>80</v>
+      </c>
+      <c r="I113" s="9">
+        <v>72</v>
+      </c>
+      <c r="J113" s="9">
+        <v>120</v>
+      </c>
+      <c r="K113" s="9">
+        <v>167</v>
+      </c>
+      <c r="L113" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A115" s="11"/>
+      <c r="C114" s="9">
+        <v>148</v>
+      </c>
+      <c r="D114" s="9">
+        <v>102</v>
+      </c>
+      <c r="E114" s="9">
+        <v>82</v>
+      </c>
+      <c r="F114" s="9">
+        <v>167</v>
+      </c>
+      <c r="G114" s="9">
+        <v>92</v>
+      </c>
+      <c r="H114" s="9">
+        <v>72</v>
+      </c>
+      <c r="I114" s="9">
+        <v>101</v>
+      </c>
+      <c r="J114" s="9">
+        <v>90</v>
+      </c>
+      <c r="K114" s="9">
+        <v>193</v>
+      </c>
+      <c r="L114" s="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A116" s="11" t="s">
+      <c r="C115" s="9">
+        <v>149</v>
+      </c>
+      <c r="D115" s="9">
+        <v>104</v>
+      </c>
+      <c r="E115" s="9">
+        <v>80</v>
+      </c>
+      <c r="F115" s="9">
+        <v>86</v>
+      </c>
+      <c r="G115" s="9">
+        <v>164</v>
+      </c>
+      <c r="H115" s="9">
+        <v>75</v>
+      </c>
+      <c r="I115" s="9">
+        <v>84</v>
+      </c>
+      <c r="J115" s="9">
+        <v>92</v>
+      </c>
+      <c r="K115" s="9">
+        <v>101</v>
+      </c>
+      <c r="L115" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A117" s="11"/>
+      <c r="C116" s="4">
+        <v>373</v>
+      </c>
+      <c r="D116" s="4">
+        <v>309</v>
+      </c>
+      <c r="E116" s="4">
+        <v>258</v>
+      </c>
+      <c r="F116" s="9">
+        <v>339</v>
+      </c>
+      <c r="G116" s="9">
+        <v>238</v>
+      </c>
+      <c r="H116" s="9">
+        <v>259</v>
+      </c>
+      <c r="I116" s="9">
+        <v>330</v>
+      </c>
+      <c r="J116" s="9">
+        <v>356</v>
+      </c>
+      <c r="K116" s="9">
+        <v>294</v>
+      </c>
+      <c r="L116" s="5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A118" s="12"/>
+      <c r="C117" s="9">
+        <v>308</v>
+      </c>
+      <c r="D117" s="4">
+        <v>376</v>
+      </c>
+      <c r="E117" s="4">
+        <v>224</v>
+      </c>
+      <c r="F117" s="9">
+        <v>233</v>
+      </c>
+      <c r="G117" s="9">
+        <v>352</v>
+      </c>
+      <c r="H117" s="9">
+        <v>257</v>
+      </c>
+      <c r="I117" s="9">
+        <v>318</v>
+      </c>
+      <c r="J117" s="9">
+        <v>266</v>
+      </c>
+      <c r="K117" s="9">
+        <v>241</v>
+      </c>
+      <c r="L117" s="5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="C118" s="7">
+        <v>284</v>
+      </c>
+      <c r="D118" s="7">
+        <v>305</v>
+      </c>
+      <c r="E118" s="7">
+        <v>317</v>
+      </c>
+      <c r="F118" s="7">
+        <v>304</v>
+      </c>
+      <c r="G118" s="7">
+        <v>275</v>
+      </c>
+      <c r="H118" s="7">
+        <v>271</v>
+      </c>
+      <c r="I118" s="7">
+        <v>214</v>
+      </c>
+      <c r="J118" s="7">
+        <v>321</v>
+      </c>
+      <c r="K118" s="7">
+        <v>254</v>
+      </c>
+      <c r="L118" s="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="10"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7138,160 +7701,160 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A123" s="11" t="s">
+    <row r="123" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="14"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A124" s="11"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="15"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="14"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A125" s="11"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="15"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="14"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A126" s="11" t="s">
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="15"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="14"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A127" s="11"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="15"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="14"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A128" s="11"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="15"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="14"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A129" s="11" t="s">
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="15"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="4"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="14"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A130" s="11"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="15"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="4"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="14"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A131" s="11"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="15"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="12"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="4"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="14"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A132" s="11" t="s">
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="15"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7308,8 +7871,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="12"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7324,8 +7887,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A134" s="11"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="12"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7340,8 +7903,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7358,8 +7921,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A136" s="11"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="12"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7374,8 +7937,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A137" s="11"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="12"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7390,8 +7953,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7408,8 +7971,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A139" s="11"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="12"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7424,8 +7987,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A140" s="11"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="12"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7440,8 +8003,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7458,8 +8021,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A142" s="11"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="12"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7474,8 +8037,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A143" s="11"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="12"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7490,8 +8053,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -7508,8 +8071,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A145" s="11"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="12"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -7524,8 +8087,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A146" s="11"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="12"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -7540,8 +8103,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -7558,8 +8121,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A148" s="11"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="12"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -7574,8 +8137,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A149" s="11"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -7590,8 +8153,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -7608,8 +8171,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A151" s="11"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="12"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -7624,8 +8187,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A152" s="11"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="12"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -7640,8 +8203,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -7658,8 +8221,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A154" s="11"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="12"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -7674,8 +8237,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A155" s="11"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -7690,8 +8253,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -7708,8 +8271,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A157" s="11"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -7724,8 +8287,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A158" s="12"/>
+    <row r="158" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="13"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -7740,28 +8303,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="10"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="11"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -7795,160 +8358,160 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="14"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A164" s="11"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="15"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" s="12"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="14"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A165" s="11"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="15"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" s="12"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="14"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A166" s="11" t="s">
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="15"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="4"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="14"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A167" s="11"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="15"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" s="12"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="13"/>
-      <c r="L167" s="14"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A168" s="11"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="15"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" s="12"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="14"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A169" s="11" t="s">
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="L168" s="15"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C169" s="4"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="14"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A170" s="11"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14"/>
+      <c r="L169" s="15"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" s="12"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="4"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="14"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A171" s="11"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="14"/>
+      <c r="L170" s="15"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" s="12"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="14"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A172" s="11" t="s">
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14"/>
+      <c r="L171" s="15"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -7965,8 +8528,8 @@
       <c r="K172" s="4"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A173" s="11"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" s="12"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -7981,8 +8544,8 @@
       <c r="K173" s="4"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A174" s="11"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" s="12"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -7997,8 +8560,8 @@
       <c r="K174" s="4"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A175" s="11" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8015,8 +8578,8 @@
       <c r="K175" s="4"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A176" s="11"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" s="12"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8031,8 +8594,8 @@
       <c r="K176" s="4"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A177" s="11"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" s="12"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8047,8 +8610,8 @@
       <c r="K177" s="4"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A178" s="11" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8065,8 +8628,8 @@
       <c r="K178" s="4"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A179" s="11"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" s="12"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8081,8 +8644,8 @@
       <c r="K179" s="4"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A180" s="11"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" s="12"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8097,8 +8660,8 @@
       <c r="K180" s="4"/>
       <c r="L180" s="5"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A181" s="11" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8115,8 +8678,8 @@
       <c r="K181" s="4"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A182" s="11"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8131,8 +8694,8 @@
       <c r="K182" s="4"/>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A183" s="11"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8147,8 +8710,8 @@
       <c r="K183" s="4"/>
       <c r="L183" s="5"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A184" s="11" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8165,8 +8728,8 @@
       <c r="K184" s="4"/>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A185" s="11"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8181,8 +8744,8 @@
       <c r="K185" s="4"/>
       <c r="L185" s="5"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A186" s="11"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -8197,8 +8760,8 @@
       <c r="K186" s="4"/>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A187" s="11" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -8215,8 +8778,8 @@
       <c r="K187" s="4"/>
       <c r="L187" s="5"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A188" s="11"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -8231,8 +8794,8 @@
       <c r="K188" s="4"/>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A189" s="11"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -8247,8 +8810,8 @@
       <c r="K189" s="4"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A190" s="11" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -8265,8 +8828,8 @@
       <c r="K190" s="4"/>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A191" s="11"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -8281,8 +8844,8 @@
       <c r="K191" s="4"/>
       <c r="L191" s="5"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A192" s="11"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" s="12"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -8297,8 +8860,8 @@
       <c r="K192" s="4"/>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A193" s="11" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -8315,8 +8878,8 @@
       <c r="K193" s="4"/>
       <c r="L193" s="5"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A194" s="11"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" s="12"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -8331,8 +8894,8 @@
       <c r="K194" s="4"/>
       <c r="L194" s="5"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A195" s="11"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" s="12"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -8347,8 +8910,8 @@
       <c r="K195" s="4"/>
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A196" s="11" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -8365,8 +8928,8 @@
       <c r="K196" s="4"/>
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A197" s="11"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -8381,8 +8944,8 @@
       <c r="K197" s="4"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A198" s="12"/>
+    <row r="198" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="13"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -8397,28 +8960,28 @@
       <c r="K198" s="7"/>
       <c r="L198" s="8"/>
     </row>
-    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
-      <c r="L201" s="10"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="11"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -8452,160 +9015,160 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A203" s="11" t="s">
+    <row r="203" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="13" t="s">
+      <c r="D203" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="13"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="13"/>
-      <c r="K203" s="13"/>
-      <c r="L203" s="14"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A204" s="11"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="14"/>
+      <c r="L203" s="15"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" s="12"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="4"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="13"/>
-      <c r="L204" s="14"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A205" s="11"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="14"/>
+      <c r="L204" s="15"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" s="12"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="4"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-      <c r="L205" s="14"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A206" s="11" t="s">
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="15"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C206" s="4"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
-      <c r="L206" s="14"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A207" s="11"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="14"/>
+      <c r="J206" s="14"/>
+      <c r="K206" s="14"/>
+      <c r="L206" s="15"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" s="12"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C207" s="4"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
-      <c r="L207" s="14"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A208" s="11"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="14"/>
+      <c r="J207" s="14"/>
+      <c r="K207" s="14"/>
+      <c r="L207" s="15"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" s="12"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C208" s="4"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
-      <c r="L208" s="14"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A209" s="11" t="s">
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="14"/>
+      <c r="L208" s="15"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
-      <c r="L209" s="14"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A210" s="11"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="14"/>
+      <c r="L209" s="15"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A210" s="12"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C210" s="4"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="14"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A211" s="11"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
+      <c r="L210" s="15"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" s="12"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="4"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="14"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A212" s="11" t="s">
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="14"/>
+      <c r="J211" s="14"/>
+      <c r="K211" s="14"/>
+      <c r="L211" s="15"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -8622,8 +9185,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A213" s="11"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" s="12"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -8638,8 +9201,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A214" s="11"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A214" s="12"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -8654,8 +9217,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A215" s="11" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -8672,8 +9235,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A216" s="11"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A216" s="12"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -8688,8 +9251,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A217" s="11"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A217" s="12"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -8704,8 +9267,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A218" s="11" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A218" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -8722,8 +9285,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A219" s="11"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" s="12"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -8738,8 +9301,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A220" s="11"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" s="12"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -8754,8 +9317,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A221" s="11" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -8772,8 +9335,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A222" s="11"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A222" s="12"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -8788,8 +9351,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A223" s="11"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -8804,8 +9367,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A224" s="11" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -8822,8 +9385,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A225" s="11"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A225" s="12"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -8838,8 +9401,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A226" s="11"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226" s="12"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -8854,8 +9417,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A227" s="11" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -8872,8 +9435,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A228" s="11"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228" s="12"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -8888,8 +9451,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A229" s="11"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" s="12"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -8904,8 +9467,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A230" s="11" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -8922,8 +9485,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A231" s="11"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" s="12"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -8938,8 +9501,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A232" s="11"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" s="12"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -8954,8 +9517,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A233" s="11" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A233" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -8972,8 +9535,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A234" s="11"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" s="12"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -8988,8 +9551,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A235" s="11"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" s="12"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -9004,8 +9567,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A236" s="11" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A236" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -9022,8 +9585,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A237" s="11"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -9038,8 +9601,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A238" s="12"/>
+    <row r="238" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="13"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -9054,28 +9617,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-      <c r="L241" s="10"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="11"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -9109,160 +9672,160 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A243" s="11" t="s">
+    <row r="243" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C243" s="4"/>
-      <c r="D243" s="13" t="s">
+      <c r="D243" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="13"/>
-      <c r="H243" s="13"/>
-      <c r="I243" s="13"/>
-      <c r="J243" s="13"/>
-      <c r="K243" s="13"/>
-      <c r="L243" s="14"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A244" s="11"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="15"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A244" s="12"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
-      <c r="F244" s="13"/>
-      <c r="G244" s="13"/>
-      <c r="H244" s="13"/>
-      <c r="I244" s="13"/>
-      <c r="J244" s="13"/>
-      <c r="K244" s="13"/>
-      <c r="L244" s="14"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A245" s="11"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="15"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A245" s="12"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="13"/>
-      <c r="G245" s="13"/>
-      <c r="H245" s="13"/>
-      <c r="I245" s="13"/>
-      <c r="J245" s="13"/>
-      <c r="K245" s="13"/>
-      <c r="L245" s="14"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A246" s="11" t="s">
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="15"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A246" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C246" s="4"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="13"/>
-      <c r="H246" s="13"/>
-      <c r="I246" s="13"/>
-      <c r="J246" s="13"/>
-      <c r="K246" s="13"/>
-      <c r="L246" s="14"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A247" s="11"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="15"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A247" s="12"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="4"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="13"/>
-      <c r="G247" s="13"/>
-      <c r="H247" s="13"/>
-      <c r="I247" s="13"/>
-      <c r="J247" s="13"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="14"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A248" s="11"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="15"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A248" s="12"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C248" s="4"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="13"/>
-      <c r="H248" s="13"/>
-      <c r="I248" s="13"/>
-      <c r="J248" s="13"/>
-      <c r="K248" s="13"/>
-      <c r="L248" s="14"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A249" s="11" t="s">
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="15"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A249" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C249" s="4"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
-      <c r="I249" s="13"/>
-      <c r="J249" s="13"/>
-      <c r="K249" s="13"/>
-      <c r="L249" s="14"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A250" s="11"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="15"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A250" s="12"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C250" s="4"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="13"/>
-      <c r="H250" s="13"/>
-      <c r="I250" s="13"/>
-      <c r="J250" s="13"/>
-      <c r="K250" s="13"/>
-      <c r="L250" s="14"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A251" s="11"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="15"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" s="12"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="13"/>
-      <c r="H251" s="13"/>
-      <c r="I251" s="13"/>
-      <c r="J251" s="13"/>
-      <c r="K251" s="13"/>
-      <c r="L251" s="14"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A252" s="11" t="s">
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="15"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -9279,8 +9842,8 @@
       <c r="K252" s="4"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A253" s="11"/>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A253" s="12"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -9295,8 +9858,8 @@
       <c r="K253" s="4"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A254" s="11"/>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A254" s="12"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -9311,8 +9874,8 @@
       <c r="K254" s="4"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A255" s="11" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -9329,8 +9892,8 @@
       <c r="K255" s="4"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A256" s="11"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A256" s="12"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -9345,8 +9908,8 @@
       <c r="K256" s="4"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A257" s="11"/>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" s="12"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -9361,8 +9924,8 @@
       <c r="K257" s="4"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A258" s="11" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -9379,8 +9942,8 @@
       <c r="K258" s="4"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A259" s="11"/>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" s="12"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -9395,8 +9958,8 @@
       <c r="K259" s="4"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A260" s="11"/>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" s="12"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -9411,8 +9974,8 @@
       <c r="K260" s="4"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A261" s="11" t="s">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -9429,8 +9992,8 @@
       <c r="K261" s="4"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A262" s="11"/>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" s="12"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -9445,8 +10008,8 @@
       <c r="K262" s="4"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A263" s="11"/>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" s="12"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -9461,8 +10024,8 @@
       <c r="K263" s="4"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A264" s="11" t="s">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -9479,8 +10042,8 @@
       <c r="K264" s="4"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A265" s="11"/>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" s="12"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -9495,8 +10058,8 @@
       <c r="K265" s="4"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A266" s="11"/>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" s="12"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -9511,8 +10074,8 @@
       <c r="K266" s="4"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A267" s="11" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -9529,8 +10092,8 @@
       <c r="K267" s="4"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A268" s="11"/>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" s="12"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -9545,8 +10108,8 @@
       <c r="K268" s="4"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A269" s="11"/>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -9561,8 +10124,8 @@
       <c r="K269" s="4"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A270" s="11" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A270" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -9579,8 +10142,8 @@
       <c r="K270" s="4"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A271" s="11"/>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A271" s="12"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -9595,8 +10158,8 @@
       <c r="K271" s="4"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A272" s="11"/>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A272" s="12"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -9611,8 +10174,8 @@
       <c r="K272" s="4"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A273" s="11" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -9629,8 +10192,8 @@
       <c r="K273" s="4"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A274" s="11"/>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" s="12"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -9645,8 +10208,8 @@
       <c r="K274" s="4"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A275" s="11"/>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" s="12"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -9661,8 +10224,8 @@
       <c r="K275" s="4"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A276" s="11" t="s">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -9679,8 +10242,8 @@
       <c r="K276" s="4"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A277" s="11"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -9695,8 +10258,8 @@
       <c r="K277" s="4"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A278" s="12"/>
+    <row r="278" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="13"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -9817,34 +10380,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE8A5D-EC9F-49D1-93D6-692A0373E2FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -9877,7 +10440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -9922,7 +10485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -9967,7 +10530,7 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -10012,7 +10575,7 @@
         <v>42.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -10057,23 +10620,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -10106,7 +10669,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -10151,7 +10714,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -10196,7 +10759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -10241,7 +10804,7 @@
         <v>44.666666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -10286,23 +10849,23 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -10335,7 +10898,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -10380,7 +10943,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -10425,7 +10988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -10470,7 +11033,7 @@
         <v>42.333333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -10530,34 +11093,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A3086F-6D31-4140-A80B-CD3120FB8FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10590,203 +11153,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
+        <v>819.33333333333337</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C89:C91))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+        <v>819.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C98:C100))/3</f>
-        <v>0</v>
+        <v>1114.6666666666667</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D98:D100))/3</f>
-        <v>0</v>
+        <v>822.33333333333337</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E98:E100))/3</f>
-        <v>0</v>
+        <v>737.33333333333337</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F98:F100))/3</f>
-        <v>0</v>
+        <v>773.66666666666663</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G98:G100))/3</f>
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H98:H100))/3</f>
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I98:I100))/3</f>
-        <v>0</v>
+        <v>724.66666666666663</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J98:J100))/3</f>
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K98:K100))/3</f>
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L98:L100))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+        <v>918.66666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C107:C109))/3</f>
-        <v>0</v>
+        <v>494.33333333333331</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D107:D109))/3</f>
-        <v>0</v>
+        <v>448.33333333333331</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E107:E109))/3</f>
-        <v>0</v>
+        <v>471.66666666666669</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F107:F109))/3</f>
-        <v>0</v>
+        <v>490.66666666666669</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G107:G109))/3</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H107:H109))/3</f>
-        <v>0</v>
+        <v>337.66666666666669</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I107:I109))/3</f>
-        <v>0</v>
+        <v>295.33333333333331</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J107:J109))/3</f>
-        <v>0</v>
+        <v>404.33333333333331</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K107:K109))/3</f>
-        <v>0</v>
+        <v>419.66666666666669</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L107:L109))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>419.33333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C116:C118))/3</f>
-        <v>0</v>
+        <v>321.66666666666669</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D116:D118))/3</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E116:E118))/3</f>
-        <v>0</v>
+        <v>266.33333333333331</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F116:F118))/3</f>
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G116:G118))/3</f>
-        <v>0</v>
+        <v>288.33333333333331</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H116:H118))/3</f>
-        <v>0</v>
+        <v>262.33333333333331</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I116:I118))/3</f>
-        <v>0</v>
+        <v>287.33333333333331</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J116:J118))/3</f>
-        <v>0</v>
+        <v>314.33333333333331</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K116:K118))/3</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L116:L118))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+        <v>407.33333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -10819,203 +11382,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
+        <v>254.66666666666666</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C83:C85))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+        <v>254.66666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C92:C94))/3</f>
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D92:D94))/3</f>
-        <v>0</v>
+        <v>669.33333333333337</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E92:E94))/3</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F92:F94))/3</f>
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G92:G94))/3</f>
-        <v>0</v>
+        <v>1472.3333333333333</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H92:H94))/3</f>
-        <v>0</v>
+        <v>1452.6666666666667</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I92:I94))/3</f>
-        <v>0</v>
+        <v>1438</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J92:J94))/3</f>
-        <v>0</v>
+        <v>1609.3333333333333</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K92:K94))/3</f>
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L92:L94))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+        <v>2595.6666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
-        <f>(SUM(DataEntry!C101:C103))/3</f>
-        <v>0</v>
+        <f>(SUM(DataEntry!C104:C106))/3</f>
+        <v>671.33333333333337</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D101:D103))/3</f>
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E101:E103))/3</f>
-        <v>0</v>
+        <v>641.66666666666663</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F101:F103))/3</f>
-        <v>0</v>
+        <v>526.66666666666663</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G101:G103))/3</f>
-        <v>0</v>
+        <v>711.33333333333337</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H101:H103))/3</f>
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I101:I103))/3</f>
-        <v>0</v>
+        <v>774.33333333333337</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J101:J103))/3</f>
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K101:K103))/3</f>
-        <v>0</v>
+        <v>952.66666666666663</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L101:L103))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>844.66666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C110:C112))/3</f>
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D110:D112))/3</f>
-        <v>0</v>
+        <v>459.33333333333331</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E110:E112))/3</f>
-        <v>0</v>
+        <v>510.66666666666669</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F110:F112))/3</f>
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G110:G112))/3</f>
-        <v>0</v>
+        <v>531.66666666666663</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H110:H112))/3</f>
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I110:I112))/3</f>
-        <v>0</v>
+        <v>485.33333333333331</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J110:J112))/3</f>
-        <v>0</v>
+        <v>567.66666666666663</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K110:K112))/3</f>
-        <v>0</v>
+        <v>498.33333333333331</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L110:L112))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+        <v>598.33333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11048,184 +11611,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
+        <v>194.33333333333334</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C86:C88))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+        <v>194.33333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C95:C97))/3</f>
-        <v>0</v>
+        <v>514.33333333333337</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D95:D97))/3</f>
-        <v>0</v>
+        <v>264.66666666666669</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E95:E97))/3</f>
-        <v>0</v>
+        <v>193.66666666666666</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F95:F97))/3</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G95:G97))/3</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H95:H97))/3</f>
-        <v>0</v>
+        <v>159.66666666666666</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I95:I97))/3</f>
-        <v>0</v>
+        <v>160.66666666666666</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J95:J97))/3</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K95:K97))/3</f>
-        <v>0</v>
+        <v>289.33333333333331</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L95:L97))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+        <v>398.33333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
-        <f>(SUM(DataEntry!C104:C106))/3</f>
-        <v>0</v>
+        <f>(SUM(DataEntry!C101:C103))/3</f>
+        <v>669</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D104:D106))/3</f>
-        <v>0</v>
+        <v>355.33333333333331</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E104:E106))/3</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <f>(SUM(DataEntry!F104:F106))/3</f>
-        <v>0</v>
+        <v>280.33333333333331</v>
+      </c>
+      <c r="E19" s="4" t="e">
+        <f>(SUM(DataEntry!#REF!))/3</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G104:G106))/3</f>
-        <v>0</v>
+        <v>246.33333333333334</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H104:H106))/3</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I104:I106))/3</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J104:J106))/3</f>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K104:K106))/3</f>
-        <v>0</v>
+        <v>297.33333333333331</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L104:L106))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+        <v>367.66666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C113:C115))/3</f>
-        <v>0</v>
+        <v>176.33333333333334</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D113:D115))/3</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E113:E115))/3</f>
-        <v>0</v>
+        <v>79.666666666666671</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F113:F115))/3</f>
-        <v>0</v>
+        <v>110.66666666666667</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G113:G115))/3</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H113:H115))/3</f>
-        <v>0</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I113:I115))/3</f>
-        <v>0</v>
+        <v>85.666666666666671</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J113:J115))/3</f>
-        <v>0</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K113:K115))/3</f>
-        <v>0</v>
+        <v>153.66666666666666</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L113:L115))/3</f>
-        <v>0</v>
+        <v>215.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -11239,34 +11802,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE374E4-83C6-4B8A-971F-45CAFDE24CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11299,7 +11862,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11344,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11389,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11434,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11479,23 +12042,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11528,7 +12091,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -11573,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -11618,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -11663,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -11708,23 +12271,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11757,7 +12320,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -11802,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -11847,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -11892,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -11948,34 +12511,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEEBC84-7A4E-4140-B4FF-C305E45973B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12008,7 +12571,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12053,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12098,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12143,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12188,23 +12751,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12237,7 +12800,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12282,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12372,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12417,23 +12980,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12466,7 +13029,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12511,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12556,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12601,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12657,34 +13220,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21713241-37CD-4B09-8373-DAA8B671B657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12717,7 +13280,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12762,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12807,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12852,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12897,23 +13460,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12946,7 +13509,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12991,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13081,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13126,23 +13689,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13175,7 +13738,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13220,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13265,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13310,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13366,34 +13929,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30F642D-681E-4A45-8DDF-12B41E716C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13426,7 +13989,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13471,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13516,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13561,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13606,23 +14169,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13655,7 +14218,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13700,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13745,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13790,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13835,23 +14398,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13884,7 +14447,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13929,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13974,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14019,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy Chien\git\Concurrent-SkipList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0277940-1518-497A-8977-778DCE732427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="4800" yWindow="2970" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,17 +264,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -302,7 +303,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -341,7 +342,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -449,40 +449,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -560,40 +560,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>535.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -671,40 +671,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.333333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -782,40 +782,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -950,7 +950,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -982,14 +981,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1025,7 +1024,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1064,7 +1063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1172,40 +1170,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1283,40 +1281,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>804.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1394,40 +1392,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1505,40 +1503,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.333333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1673,7 +1671,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1705,14 +1702,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1748,7 +1745,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1787,7 +1784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,40 +1891,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2006,40 +2002,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>1009.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3333333333333339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2117,40 +2113,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2228,40 +2224,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2396,7 +2392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2428,14 +2423,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4158,7 +4153,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4189,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4225,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,40 +4542,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4614,8 +4609,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4634,8 +4629,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4650,8 +4645,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4666,8 +4661,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4684,8 +4679,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4700,8 +4695,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4716,8 +4711,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4734,8 +4729,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4750,8 +4745,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4766,8 +4761,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4784,8 +4779,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4800,8 +4795,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4816,8 +4811,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4834,8 +4829,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4850,8 +4845,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4866,8 +4861,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4884,8 +4879,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4900,8 +4895,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4916,8 +4911,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4934,8 +4929,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4950,8 +4945,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4966,8 +4961,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4984,8 +4979,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -5000,8 +4995,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -5016,8 +5011,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5034,8 +5029,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -5050,8 +5045,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5066,8 +5061,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5084,8 +5079,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5100,8 +5095,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5116,8 +5111,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5134,8 +5129,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5150,8 +5145,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5166,8 +5161,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5184,8 +5179,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5200,8 +5195,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5216,28 +5211,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5271,15 +5266,15 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>31</v>
@@ -5293,13 +5288,13 @@
       <c r="K43" s="14"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -5311,13 +5306,13 @@
       <c r="K44" s="14"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -5329,15 +5324,15 @@
       <c r="K45" s="14"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -5349,13 +5344,13 @@
       <c r="K46" s="14"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A47" s="10"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="9">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -5367,13 +5362,13 @@
       <c r="K47" s="14"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="9">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -5385,15 +5380,15 @@
       <c r="K48" s="14"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="4">
-        <v>5</v>
+        <v>910</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -5405,13 +5400,13 @@
       <c r="K49" s="14"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="9">
-        <v>4</v>
+        <v>1013</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -5423,13 +5418,13 @@
       <c r="K50" s="14"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A51" s="10"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9">
-        <v>3</v>
+        <v>904</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -5441,1018 +5436,496 @@
       <c r="K51" s="14"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="9">
-        <v>12</v>
-      </c>
-      <c r="D52" s="4">
-        <v>14</v>
-      </c>
-      <c r="E52" s="4">
-        <v>16</v>
-      </c>
-      <c r="F52" s="9">
-        <v>29</v>
-      </c>
-      <c r="G52" s="9">
-        <v>17</v>
-      </c>
-      <c r="H52" s="9">
-        <v>34</v>
-      </c>
-      <c r="I52" s="9">
-        <v>30</v>
-      </c>
-      <c r="J52" s="9">
-        <v>28</v>
-      </c>
-      <c r="K52" s="9">
-        <v>32</v>
-      </c>
-      <c r="L52" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
+        <v>645</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A53" s="10"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="9">
-        <v>6</v>
-      </c>
-      <c r="D53" s="4">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9">
-        <v>18</v>
-      </c>
-      <c r="G53" s="9">
-        <v>17</v>
-      </c>
-      <c r="H53" s="9">
-        <v>27</v>
-      </c>
-      <c r="I53" s="9">
-        <v>32</v>
-      </c>
-      <c r="J53" s="9">
-        <v>35</v>
-      </c>
-      <c r="K53" s="9">
-        <v>33</v>
-      </c>
-      <c r="L53" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
+        <v>814</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A54" s="10"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="9">
-        <v>11</v>
-      </c>
-      <c r="D54" s="9">
-        <v>17</v>
-      </c>
-      <c r="E54" s="9">
-        <v>21</v>
-      </c>
-      <c r="F54" s="9">
-        <v>16</v>
-      </c>
-      <c r="G54" s="9">
-        <v>28</v>
-      </c>
-      <c r="H54" s="9">
-        <v>16</v>
-      </c>
-      <c r="I54" s="9">
-        <v>27</v>
-      </c>
-      <c r="J54" s="9">
-        <v>21</v>
-      </c>
-      <c r="K54" s="9">
-        <v>36</v>
-      </c>
-      <c r="L54" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9">
-        <v>3</v>
-      </c>
-      <c r="H55" s="9">
-        <v>11</v>
-      </c>
-      <c r="I55" s="9">
-        <v>5</v>
-      </c>
-      <c r="J55" s="9">
-        <v>11</v>
-      </c>
-      <c r="K55" s="9">
-        <v>20</v>
-      </c>
-      <c r="L55" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
+      <c r="C55" s="9">
+        <v>501</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="9">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9">
-        <v>3</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2</v>
-      </c>
-      <c r="H56" s="9">
-        <v>5</v>
-      </c>
-      <c r="I56" s="9">
-        <v>6</v>
-      </c>
-      <c r="J56" s="9">
-        <v>13</v>
-      </c>
-      <c r="K56" s="9">
-        <v>23</v>
-      </c>
-      <c r="L56" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
+        <v>592</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A57" s="10"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="9">
-        <v>3</v>
-      </c>
-      <c r="D57" s="9">
-        <v>2</v>
-      </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9">
-        <v>2</v>
-      </c>
-      <c r="G57" s="9">
-        <v>2</v>
-      </c>
-      <c r="H57" s="9">
-        <v>5</v>
-      </c>
-      <c r="I57" s="9">
-        <v>6</v>
-      </c>
-      <c r="J57" s="9">
-        <v>14</v>
-      </c>
-      <c r="K57" s="9">
-        <v>21</v>
-      </c>
-      <c r="L57" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="4">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4">
-        <v>6</v>
-      </c>
-      <c r="E58" s="4">
-        <v>5</v>
-      </c>
-      <c r="F58" s="9">
-        <v>9</v>
-      </c>
-      <c r="G58" s="9">
-        <v>4</v>
-      </c>
-      <c r="H58" s="9">
-        <v>5</v>
-      </c>
-      <c r="I58" s="9">
-        <v>11</v>
-      </c>
-      <c r="J58" s="9">
-        <v>17</v>
-      </c>
-      <c r="K58" s="9">
-        <v>26</v>
-      </c>
-      <c r="L58" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
+        <v>956</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4">
-        <v>5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>5</v>
-      </c>
-      <c r="F59" s="9">
-        <v>7</v>
-      </c>
-      <c r="G59" s="9">
-        <v>5</v>
-      </c>
-      <c r="H59" s="9">
-        <v>5</v>
-      </c>
-      <c r="I59" s="9">
-        <v>8</v>
-      </c>
-      <c r="J59" s="9">
-        <v>13</v>
-      </c>
-      <c r="K59" s="9">
-        <v>22</v>
-      </c>
-      <c r="L59" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
+        <v>1001</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A60" s="10"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="9">
-        <v>7</v>
-      </c>
-      <c r="D60" s="9">
-        <v>6</v>
-      </c>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9">
-        <v>9</v>
-      </c>
-      <c r="G60" s="9">
-        <v>4</v>
-      </c>
-      <c r="H60" s="9">
-        <v>4</v>
-      </c>
-      <c r="I60" s="9">
-        <v>9</v>
-      </c>
-      <c r="J60" s="9">
-        <v>17</v>
-      </c>
-      <c r="K60" s="9">
-        <v>22</v>
-      </c>
-      <c r="L60" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="9">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9">
-        <v>6</v>
-      </c>
-      <c r="E61" s="9">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9">
-        <v>5</v>
-      </c>
-      <c r="G61" s="9">
-        <v>5</v>
-      </c>
-      <c r="H61" s="9">
-        <v>6</v>
-      </c>
-      <c r="I61" s="9">
-        <v>8</v>
-      </c>
-      <c r="J61" s="9">
-        <v>12</v>
-      </c>
-      <c r="K61" s="9">
-        <v>23</v>
-      </c>
-      <c r="L61" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A62" s="10"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="9">
-        <v>6</v>
-      </c>
-      <c r="D62" s="9">
-        <v>6</v>
-      </c>
-      <c r="E62" s="9">
-        <v>8</v>
-      </c>
-      <c r="F62" s="9">
-        <v>4</v>
-      </c>
-      <c r="G62" s="9">
-        <v>5</v>
-      </c>
-      <c r="H62" s="9">
-        <v>6</v>
-      </c>
-      <c r="I62" s="9">
-        <v>8</v>
-      </c>
-      <c r="J62" s="9">
-        <v>18</v>
-      </c>
-      <c r="K62" s="9">
-        <v>25</v>
-      </c>
-      <c r="L62" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="9">
-        <v>6</v>
-      </c>
-      <c r="D63" s="9">
-        <v>5</v>
-      </c>
-      <c r="E63" s="9">
-        <v>9</v>
-      </c>
-      <c r="F63" s="9">
-        <v>4</v>
-      </c>
-      <c r="G63" s="9">
-        <v>5</v>
-      </c>
-      <c r="H63" s="9">
-        <v>6</v>
-      </c>
-      <c r="I63" s="9">
-        <v>11</v>
-      </c>
-      <c r="J63" s="9">
-        <v>14</v>
-      </c>
-      <c r="K63" s="9">
-        <v>22</v>
-      </c>
-      <c r="L63" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="4">
-        <v>6</v>
-      </c>
-      <c r="D64" s="4">
-        <v>7</v>
-      </c>
-      <c r="E64" s="4">
-        <v>5</v>
-      </c>
-      <c r="F64" s="9">
-        <v>4</v>
-      </c>
-      <c r="G64" s="9">
-        <v>15</v>
-      </c>
-      <c r="H64" s="9">
-        <v>7</v>
-      </c>
-      <c r="I64" s="9">
-        <v>13</v>
-      </c>
-      <c r="J64" s="9">
-        <v>16</v>
-      </c>
-      <c r="K64" s="9">
-        <v>26</v>
-      </c>
-      <c r="L64" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A65" s="10"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="9">
-        <v>6</v>
-      </c>
-      <c r="D65" s="9">
-        <v>7</v>
-      </c>
-      <c r="E65" s="9">
-        <v>6</v>
-      </c>
-      <c r="F65" s="9">
-        <v>7</v>
-      </c>
-      <c r="G65" s="9">
-        <v>9</v>
-      </c>
-      <c r="H65" s="9">
-        <v>7</v>
-      </c>
-      <c r="I65" s="9">
-        <v>12</v>
-      </c>
-      <c r="J65" s="9">
-        <v>16</v>
-      </c>
-      <c r="K65" s="9">
-        <v>24</v>
-      </c>
-      <c r="L65" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A66" s="10"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="9">
-        <v>6</v>
-      </c>
-      <c r="D66" s="9">
-        <v>6</v>
-      </c>
-      <c r="E66" s="9">
-        <v>6</v>
-      </c>
-      <c r="F66" s="9">
-        <v>7</v>
-      </c>
-      <c r="G66" s="9">
-        <v>12</v>
-      </c>
-      <c r="H66" s="9">
-        <v>7</v>
-      </c>
-      <c r="I66" s="9">
-        <v>10</v>
-      </c>
-      <c r="J66" s="9">
-        <v>14</v>
-      </c>
-      <c r="K66" s="9">
-        <v>25</v>
-      </c>
-      <c r="L66" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="4">
-        <v>3</v>
-      </c>
-      <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="9">
-        <v>4</v>
-      </c>
-      <c r="G67" s="9">
-        <v>4</v>
-      </c>
-      <c r="H67" s="9">
-        <v>3</v>
-      </c>
-      <c r="I67" s="9">
-        <v>7</v>
-      </c>
-      <c r="J67" s="9">
-        <v>9</v>
-      </c>
-      <c r="K67" s="9">
-        <v>17</v>
-      </c>
-      <c r="L67" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A68" s="10"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4">
-        <v>3</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9">
-        <v>2</v>
-      </c>
-      <c r="G68" s="9">
-        <v>2</v>
-      </c>
-      <c r="H68" s="9">
-        <v>5</v>
-      </c>
-      <c r="I68" s="9">
-        <v>7</v>
-      </c>
-      <c r="J68" s="9">
-        <v>11</v>
-      </c>
-      <c r="K68" s="9">
-        <v>18</v>
-      </c>
-      <c r="L68" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A69" s="10"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="9">
-        <v>4</v>
-      </c>
-      <c r="D69" s="9">
-        <v>3</v>
-      </c>
-      <c r="E69" s="9">
-        <v>5</v>
-      </c>
-      <c r="F69" s="9">
-        <v>5</v>
-      </c>
-      <c r="G69" s="9">
-        <v>6</v>
-      </c>
-      <c r="H69" s="9">
-        <v>4</v>
-      </c>
-      <c r="I69" s="9">
-        <v>6</v>
-      </c>
-      <c r="J69" s="9">
-        <v>10</v>
-      </c>
-      <c r="K69" s="9">
-        <v>22</v>
-      </c>
-      <c r="L69" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="9">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9">
-        <v>7</v>
-      </c>
-      <c r="E70" s="9">
-        <v>8</v>
-      </c>
-      <c r="F70" s="9">
-        <v>8</v>
-      </c>
-      <c r="G70" s="9">
-        <v>14</v>
-      </c>
-      <c r="H70" s="9">
-        <v>9</v>
-      </c>
-      <c r="I70" s="9">
-        <v>11</v>
-      </c>
-      <c r="J70" s="9">
-        <v>19</v>
-      </c>
-      <c r="K70" s="9">
-        <v>24</v>
-      </c>
-      <c r="L70" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A71" s="10"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="9">
-        <v>3</v>
-      </c>
-      <c r="D71" s="9">
-        <v>8</v>
-      </c>
-      <c r="E71" s="9">
-        <v>7</v>
-      </c>
-      <c r="F71" s="9">
-        <v>8</v>
-      </c>
-      <c r="G71" s="9">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9">
-        <v>9</v>
-      </c>
-      <c r="I71" s="9">
-        <v>10</v>
-      </c>
-      <c r="J71" s="9">
-        <v>19</v>
-      </c>
-      <c r="K71" s="9">
-        <v>28</v>
-      </c>
-      <c r="L71" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A72" s="10"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="9">
-        <v>3</v>
-      </c>
-      <c r="D72" s="9">
-        <v>9</v>
-      </c>
-      <c r="E72" s="9">
-        <v>9</v>
-      </c>
-      <c r="F72" s="9">
-        <v>9</v>
-      </c>
-      <c r="G72" s="9">
-        <v>12</v>
-      </c>
-      <c r="H72" s="9">
-        <v>9</v>
-      </c>
-      <c r="I72" s="9">
-        <v>13</v>
-      </c>
-      <c r="J72" s="9">
-        <v>17</v>
-      </c>
-      <c r="K72" s="9">
-        <v>27</v>
-      </c>
-      <c r="L72" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="4">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9">
-        <v>1</v>
-      </c>
-      <c r="H73" s="9">
-        <v>2</v>
-      </c>
-      <c r="I73" s="9">
-        <v>5</v>
-      </c>
-      <c r="J73" s="9">
-        <v>9</v>
-      </c>
-      <c r="K73" s="9">
-        <v>16</v>
-      </c>
-      <c r="L73" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A74" s="10"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="9">
-        <v>2</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2</v>
-      </c>
-      <c r="G74" s="9">
-        <v>2</v>
-      </c>
-      <c r="H74" s="9">
-        <v>6</v>
-      </c>
-      <c r="I74" s="9">
-        <v>4</v>
-      </c>
-      <c r="J74" s="9">
-        <v>11</v>
-      </c>
-      <c r="K74" s="9">
-        <v>20</v>
-      </c>
-      <c r="L74" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A75" s="10"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="9">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="G75" s="9">
-        <v>1</v>
-      </c>
-      <c r="H75" s="9">
-        <v>3</v>
-      </c>
-      <c r="I75" s="9">
-        <v>5</v>
-      </c>
-      <c r="J75" s="9">
-        <v>9</v>
-      </c>
-      <c r="K75" s="9">
-        <v>17</v>
-      </c>
-      <c r="L75" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="4">
-        <v>3</v>
-      </c>
-      <c r="D76" s="4">
-        <v>8</v>
-      </c>
-      <c r="E76" s="4">
-        <v>7</v>
-      </c>
-      <c r="F76" s="9">
-        <v>6</v>
-      </c>
-      <c r="G76" s="9">
-        <v>6</v>
-      </c>
-      <c r="H76" s="9">
-        <v>8</v>
-      </c>
-      <c r="I76" s="9">
-        <v>8</v>
-      </c>
-      <c r="J76" s="9">
-        <v>12</v>
-      </c>
-      <c r="K76" s="9">
-        <v>23</v>
-      </c>
-      <c r="L76" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="4">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5</v>
-      </c>
-      <c r="F77" s="9">
-        <v>6</v>
-      </c>
-      <c r="G77" s="9">
-        <v>5</v>
-      </c>
-      <c r="H77" s="9">
-        <v>6</v>
-      </c>
-      <c r="I77" s="9">
-        <v>10</v>
-      </c>
-      <c r="J77" s="9">
-        <v>16</v>
-      </c>
-      <c r="K77" s="9">
-        <v>23</v>
-      </c>
-      <c r="L77" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="13"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A78" s="11"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="7">
-        <v>4</v>
-      </c>
-      <c r="D78" s="7">
-        <v>9</v>
-      </c>
-      <c r="E78" s="7">
-        <v>6</v>
-      </c>
-      <c r="F78" s="7">
-        <v>5</v>
-      </c>
-      <c r="G78" s="7">
-        <v>6</v>
-      </c>
-      <c r="H78" s="7">
-        <v>6</v>
-      </c>
-      <c r="I78" s="7">
-        <v>9</v>
-      </c>
-      <c r="J78" s="7">
-        <v>16</v>
-      </c>
-      <c r="K78" s="7">
-        <v>25</v>
-      </c>
-      <c r="L78" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6486,8 +5959,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6508,8 +5981,8 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6526,8 +5999,8 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6544,8 +6017,8 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6564,8 +6037,8 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6582,8 +6055,8 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6600,8 +6073,8 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6620,8 +6093,8 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6638,8 +6111,8 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6656,8 +6129,8 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6694,8 +6167,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6730,8 +6203,8 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6766,8 +6239,8 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6804,8 +6277,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A96" s="10"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6840,8 +6313,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A97" s="10"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6876,8 +6349,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6914,8 +6387,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6950,8 +6423,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6986,8 +6459,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -7024,8 +6497,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -7060,8 +6533,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7096,8 +6569,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7134,8 +6607,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A105" s="10"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7170,8 +6643,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A106" s="10"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7206,8 +6679,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7244,8 +6717,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7280,8 +6753,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7316,8 +6789,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A110" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7354,8 +6827,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A111" s="10"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7390,8 +6863,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A112" s="10"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7426,8 +6899,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A113" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7464,8 +6937,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A114" s="12"/>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A114" s="10"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7500,8 +6973,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A115" s="10"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7536,8 +7009,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A116" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7574,8 +7047,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A117" s="10"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7610,8 +7083,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="13"/>
+    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A118" s="11"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7646,28 +7119,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7701,8 +7174,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A123" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7721,8 +7194,8 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7737,8 +7210,8 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="12"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7753,8 +7226,8 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7771,8 +7244,8 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A127" s="10"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7787,8 +7260,8 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A128" s="10"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7803,8 +7276,8 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7821,8 +7294,8 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="12"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A130" s="10"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7837,8 +7310,8 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A131" s="10"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7853,8 +7326,8 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7871,8 +7344,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A133" s="12"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A133" s="10"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7887,8 +7360,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A134" s="12"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A134" s="10"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7903,8 +7376,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7921,8 +7394,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136" s="12"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A136" s="10"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7937,8 +7410,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="12"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A137" s="10"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7953,8 +7426,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A138" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7971,8 +7444,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139" s="12"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7987,8 +7460,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="12"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A140" s="10"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -8003,8 +7476,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -8021,8 +7494,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="12"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A142" s="10"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -8037,8 +7510,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="12"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A143" s="10"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -8053,8 +7526,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8071,8 +7544,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="12"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A145" s="10"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8087,8 +7560,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146" s="12"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A146" s="10"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8103,8 +7576,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8121,8 +7594,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A148" s="12"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8137,8 +7610,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149" s="12"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8153,8 +7626,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A150" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8171,8 +7644,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8187,8 +7660,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="12"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8203,8 +7676,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A153" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8221,8 +7694,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="12"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8237,8 +7710,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8253,8 +7726,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8271,8 +7744,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="12"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A157" s="10"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8287,8 +7760,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="13"/>
+    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A158" s="11"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8303,28 +7776,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="13"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -8358,8 +7831,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A163" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8378,8 +7851,8 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="12"/>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A164" s="10"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8394,8 +7867,8 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="12"/>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A165" s="10"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8410,8 +7883,8 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A166" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8428,8 +7901,8 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="12"/>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A167" s="10"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8444,8 +7917,8 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="12"/>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A168" s="10"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8460,8 +7933,8 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8478,8 +7951,8 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="12"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A170" s="10"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8494,8 +7967,8 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="12"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A171" s="10"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8510,8 +7983,8 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8528,8 +8001,8 @@
       <c r="K172" s="4"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="12"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A173" s="10"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8544,8 +8017,8 @@
       <c r="K173" s="4"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="12"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A174" s="10"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8560,8 +8033,8 @@
       <c r="K174" s="4"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A175" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8578,8 +8051,8 @@
       <c r="K175" s="4"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A176" s="12"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A176" s="10"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8594,8 +8067,8 @@
       <c r="K176" s="4"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A177" s="12"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A177" s="10"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8610,8 +8083,8 @@
       <c r="K177" s="4"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A178" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8628,8 +8101,8 @@
       <c r="K178" s="4"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A179" s="12"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A179" s="10"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8644,8 +8117,8 @@
       <c r="K179" s="4"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A180" s="12"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A180" s="10"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8660,8 +8133,8 @@
       <c r="K180" s="4"/>
       <c r="L180" s="5"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8678,8 +8151,8 @@
       <c r="K181" s="4"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="12"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8694,8 +8167,8 @@
       <c r="K182" s="4"/>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="12"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A183" s="10"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8710,8 +8183,8 @@
       <c r="K183" s="4"/>
       <c r="L183" s="5"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A184" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8728,8 +8201,8 @@
       <c r="K184" s="4"/>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A185" s="12"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8744,8 +8217,8 @@
       <c r="K185" s="4"/>
       <c r="L185" s="5"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="12"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A186" s="10"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -8760,8 +8233,8 @@
       <c r="K186" s="4"/>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -8778,8 +8251,8 @@
       <c r="K187" s="4"/>
       <c r="L187" s="5"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="12"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A188" s="10"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -8794,8 +8267,8 @@
       <c r="K188" s="4"/>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="12"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A189" s="10"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -8810,8 +8283,8 @@
       <c r="K189" s="4"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -8828,8 +8301,8 @@
       <c r="K190" s="4"/>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="12"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A191" s="10"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -8844,8 +8317,8 @@
       <c r="K191" s="4"/>
       <c r="L191" s="5"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="12"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A192" s="10"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -8860,8 +8333,8 @@
       <c r="K192" s="4"/>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A193" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -8878,8 +8351,8 @@
       <c r="K193" s="4"/>
       <c r="L193" s="5"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A194" s="12"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A194" s="10"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -8894,8 +8367,8 @@
       <c r="K194" s="4"/>
       <c r="L194" s="5"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="12"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A195" s="10"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -8910,8 +8383,8 @@
       <c r="K195" s="4"/>
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A196" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -8928,8 +8401,8 @@
       <c r="K196" s="4"/>
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A197" s="12"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A197" s="10"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -8944,8 +8417,8 @@
       <c r="K197" s="4"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="13"/>
+    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A198" s="11"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -8960,28 +8433,28 @@
       <c r="K198" s="7"/>
       <c r="L198" s="8"/>
     </row>
-    <row r="200" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -9015,8 +8488,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A203" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -9035,8 +8508,8 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A204" s="12"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A204" s="10"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -9051,8 +8524,8 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A205" s="12"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A205" s="10"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -9067,8 +8540,8 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A206" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -9085,8 +8558,8 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A207" s="12"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A207" s="10"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -9101,8 +8574,8 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A208" s="12"/>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A208" s="10"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9117,8 +8590,8 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A209" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -9135,8 +8608,8 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A210" s="12"/>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A210" s="10"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -9151,8 +8624,8 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A211" s="12"/>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A211" s="10"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -9167,8 +8640,8 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9185,8 +8658,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A213" s="12"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A213" s="10"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9201,8 +8674,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A214" s="12"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A214" s="10"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9217,8 +8690,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9235,8 +8708,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A216" s="12"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A216" s="10"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9251,8 +8724,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A217" s="12"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A217" s="10"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9267,8 +8740,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A218" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9285,8 +8758,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A219" s="12"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A219" s="10"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9301,8 +8774,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A220" s="12"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A220" s="10"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9317,8 +8790,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -9335,8 +8808,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A222" s="12"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A222" s="10"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -9351,8 +8824,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A223" s="12"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A223" s="10"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -9367,8 +8840,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A224" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -9385,8 +8858,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A225" s="12"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A225" s="10"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -9401,8 +8874,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A226" s="12"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9417,8 +8890,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -9435,8 +8908,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A228" s="12"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A228" s="10"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -9451,8 +8924,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A229" s="12"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A229" s="10"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9467,8 +8940,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A230" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -9485,8 +8958,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A231" s="12"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A231" s="10"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -9501,8 +8974,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A232" s="12"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A232" s="10"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -9517,8 +8990,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A233" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -9535,8 +9008,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A234" s="12"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A234" s="10"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -9551,8 +9024,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A235" s="12"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A235" s="10"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -9567,8 +9040,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A236" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -9585,8 +9058,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A237" s="12"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A237" s="10"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -9601,8 +9074,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="13"/>
+    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A238" s="11"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -9617,28 +9090,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="11"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="13"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -9672,8 +9145,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A243" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -9692,8 +9165,8 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A244" s="12"/>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A244" s="10"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -9708,8 +9181,8 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A245" s="12"/>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A245" s="10"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -9724,8 +9197,8 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A246" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -9742,8 +9215,8 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A247" s="12"/>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A247" s="10"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -9758,8 +9231,8 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A248" s="12"/>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A248" s="10"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -9774,8 +9247,8 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A249" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -9792,8 +9265,8 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A250" s="12"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A250" s="10"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -9808,8 +9281,8 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A251" s="12"/>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A251" s="10"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -9824,8 +9297,8 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A252" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -9842,8 +9315,8 @@
       <c r="K252" s="4"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A253" s="12"/>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A253" s="10"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -9858,8 +9331,8 @@
       <c r="K253" s="4"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A254" s="12"/>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A254" s="10"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -9874,8 +9347,8 @@
       <c r="K254" s="4"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A255" s="12" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -9892,8 +9365,8 @@
       <c r="K255" s="4"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A256" s="12"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A256" s="10"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -9908,8 +9381,8 @@
       <c r="K256" s="4"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A257" s="12"/>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A257" s="10"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -9924,8 +9397,8 @@
       <c r="K257" s="4"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A258" s="12" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A258" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -9942,8 +9415,8 @@
       <c r="K258" s="4"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A259" s="12"/>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A259" s="10"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -9958,8 +9431,8 @@
       <c r="K259" s="4"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A260" s="12"/>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A260" s="10"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -9974,8 +9447,8 @@
       <c r="K260" s="4"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -9992,8 +9465,8 @@
       <c r="K261" s="4"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A262" s="12"/>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A262" s="10"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -10008,8 +9481,8 @@
       <c r="K262" s="4"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A263" s="12"/>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A263" s="10"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -10024,8 +9497,8 @@
       <c r="K263" s="4"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A264" s="12" t="s">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A264" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -10042,8 +9515,8 @@
       <c r="K264" s="4"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A265" s="12"/>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A265" s="10"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -10058,8 +9531,8 @@
       <c r="K265" s="4"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A266" s="12"/>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A266" s="10"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -10074,8 +9547,8 @@
       <c r="K266" s="4"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A267" s="12" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A267" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -10092,8 +9565,8 @@
       <c r="K267" s="4"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A268" s="12"/>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A268" s="10"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -10108,8 +9581,8 @@
       <c r="K268" s="4"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A269" s="12"/>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A269" s="10"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -10124,8 +9597,8 @@
       <c r="K269" s="4"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A270" s="12" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A270" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -10142,8 +9615,8 @@
       <c r="K270" s="4"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A271" s="12"/>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A271" s="10"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -10158,8 +9631,8 @@
       <c r="K271" s="4"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A272" s="12"/>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A272" s="10"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -10174,8 +9647,8 @@
       <c r="K272" s="4"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A273" s="12" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -10192,8 +9665,8 @@
       <c r="K273" s="4"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A274" s="12"/>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A274" s="10"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -10208,8 +9681,8 @@
       <c r="K274" s="4"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A275" s="12"/>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A275" s="10"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -10224,8 +9697,8 @@
       <c r="K275" s="4"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A276" s="12" t="s">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A276" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -10242,8 +9715,8 @@
       <c r="K276" s="4"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A277" s="12"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A277" s="10"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -10258,8 +9731,8 @@
       <c r="K277" s="4"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="13"/>
+    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A278" s="11"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -10276,88 +9749,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -10374,40 +9765,122 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10440,203 +9913,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>942.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C58:C60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>1009.6666666666666</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D58:D60))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E58:E60))/3</f>
-        <v>4.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F58:F60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G58:G60))/3</f>
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H58:H60))/3</f>
-        <v>4.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I58:I60))/3</f>
-        <v>9.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J58:J60))/3</f>
-        <v>15.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K58:K60))/3</f>
-        <v>23.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L58:L60))/3</f>
-        <v>43.333333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C67:C69))/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D67:D69))/3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E67:E69))/3</f>
-        <v>2.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F67:F69))/3</f>
-        <v>3.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G67:G69))/3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H67:H69))/3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I67:I69))/3</f>
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J67:J69))/3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K67:K69))/3</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L67:L69))/3</f>
-        <v>42.666666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C76:C78))/3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D76:D78))/3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E76:E78))/3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F76:F78))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G76:G78))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H76:H78))/3</f>
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I76:I78))/3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J76:J78))/3</f>
-        <v>14.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K76:K78))/3</f>
-        <v>23.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L76:L78))/3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -10669,203 +10142,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C52:C54))/3</f>
-        <v>9.6666666666666661</v>
+        <v>804.33333333333337</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D52:D54))/3</f>
-        <v>12.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E52:E54))/3</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F52:F54))/3</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G52:G54))/3</f>
-        <v>20.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H52:H54))/3</f>
-        <v>25.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I52:I54))/3</f>
-        <v>29.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J52:J54))/3</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K52:K54))/3</f>
-        <v>33.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L52:L54))/3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C61:C63))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D61:D63))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E61:E63))/3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F61:F63))/3</f>
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G61:G63))/3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H61:H63))/3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I61:I63))/3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J61:J63))/3</f>
-        <v>14.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K61:K63))/3</f>
-        <v>23.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L61:L63))/3</f>
-        <v>44.666666666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C70:C72))/3</f>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D70:D72))/3</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E70:E72))/3</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F70:F72))/3</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G70:G72))/3</f>
-        <v>12.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H70:H72))/3</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I70:I72))/3</f>
-        <v>11.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J70:J72))/3</f>
-        <v>18.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K70:K72))/3</f>
-        <v>26.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L70:L72))/3</f>
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -10898,184 +10371,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C55:C57))/3</f>
-        <v>3.3333333333333335</v>
+        <v>535.66666666666663</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D55:D57))/3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E55:E57))/3</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F55:F57))/3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G55:G57))/3</f>
-        <v>2.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H55:H57))/3</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I55:I57))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J55:J57))/3</f>
-        <v>12.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K55:K57))/3</f>
-        <v>21.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L55:L57))/3</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C64:C66))/3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D64:D66))/3</f>
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E64:E66))/3</f>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F64:F66))/3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G64:G66))/3</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H64:H66))/3</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I64:I66))/3</f>
-        <v>11.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J64:J66))/3</f>
-        <v>15.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K64:K66))/3</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L64:L66))/3</f>
-        <v>42.333333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C73:C75))/3</f>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D73:D75))/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E73:E75))/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F73:F75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G73:G75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H73:H75))/3</f>
-        <v>3.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I73:I75))/3</f>
-        <v>4.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J73:J75))/3</f>
-        <v>9.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K73:K75))/3</f>
-        <v>17.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L73:L75))/3</f>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11093,34 +10566,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11153,7 +10626,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11198,7 +10671,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11243,7 +10716,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11288,7 +10761,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11333,23 +10806,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11382,7 +10855,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -11427,7 +10900,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -11472,7 +10945,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -11517,7 +10990,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -11562,23 +11035,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11611,7 +11084,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -11656,7 +11129,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -11701,7 +11174,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -11746,7 +11219,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -11802,34 +11275,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11862,7 +11335,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11907,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11952,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11997,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12042,23 +11515,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12091,7 +11564,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12136,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12181,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12226,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12271,23 +11744,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12320,7 +11793,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12365,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12410,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12455,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12511,34 +11984,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12571,7 +12044,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12616,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12661,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12706,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12751,23 +12224,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12800,7 +12273,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12845,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12890,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12935,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12980,23 +12453,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13029,7 +12502,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13074,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13119,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13164,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13220,34 +12693,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13280,7 +12753,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13325,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13370,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13415,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13460,23 +12933,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13509,7 +12982,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13554,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13599,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13644,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13689,23 +13162,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13738,7 +13211,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13783,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13828,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13873,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13929,34 +13402,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13989,7 +13462,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -14034,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -14079,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -14124,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -14169,23 +13642,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14218,7 +13691,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14263,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14308,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14353,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14398,23 +13871,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14447,7 +13920,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14492,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -14537,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14582,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy Chien\git\Concurrent-SkipList\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,7 +336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -350,26 +344,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -829,12 +803,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="777122192"/>
-        <c:axId val="777120560"/>
+        <c:axId val="103598336"/>
+        <c:axId val="103600128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="777122192"/>
+        <c:axId val="103598336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777120560"/>
+        <c:crossAx val="103600128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777120560"/>
+        <c:axId val="103600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777122192"/>
+        <c:crossAx val="103598336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,7 +925,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1064,7 +1038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1073,26 +1046,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1552,12 +1505,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="777124368"/>
-        <c:axId val="777122736"/>
+        <c:axId val="103965056"/>
+        <c:axId val="103966592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="777124368"/>
+        <c:axId val="103965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777122736"/>
+        <c:crossAx val="103966592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1608,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777122736"/>
+        <c:axId val="103966592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777124368"/>
+        <c:crossAx val="103965056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1673,7 +1627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1787,7 +1740,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1796,26 +1748,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2275,12 +2207,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="777121104"/>
-        <c:axId val="777128176"/>
+        <c:axId val="104024320"/>
+        <c:axId val="104030208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="777121104"/>
+        <c:axId val="104024320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777128176"/>
+        <c:crossAx val="104030208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2331,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777128176"/>
+        <c:axId val="104030208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777121104"/>
+        <c:crossAx val="104024320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2396,7 +2329,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4540,7 +4472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4550,17 +4482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="N192" sqref="N192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4580,7 +4512,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4614,7 +4546,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -4634,7 +4566,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -4650,7 +4582,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -4666,7 +4598,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -4684,7 +4616,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -4700,7 +4632,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -4716,7 +4648,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +4666,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -4750,7 +4682,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -4766,7 +4698,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4716,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -4800,7 +4732,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -4816,7 +4748,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4766,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -4850,7 +4782,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -4866,7 +4798,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
@@ -4884,7 +4816,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -4900,7 +4832,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -4916,7 +4848,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
@@ -4934,7 +4866,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
@@ -4950,7 +4882,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -4966,7 +4898,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +4916,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
@@ -5000,7 +4932,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -5016,7 +4948,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
@@ -5034,7 +4966,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
@@ -5050,7 +4982,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
@@ -5066,7 +4998,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
@@ -5084,7 +5016,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -5100,7 +5032,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -5116,7 +5048,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +5066,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
@@ -5150,7 +5082,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -5166,7 +5098,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -5184,7 +5116,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
@@ -5200,7 +5132,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
@@ -5216,8 +5148,8 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -5237,7 +5169,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="11"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5271,7 +5203,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -5293,7 +5225,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -5311,7 +5243,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
@@ -5329,7 +5261,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5281,7 @@
       <c r="K46" s="14"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -5367,7 +5299,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
@@ -5385,7 +5317,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
@@ -5405,7 +5337,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -5423,7 +5355,7 @@
       <c r="K50" s="14"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
@@ -5441,7 +5373,7 @@
       <c r="K51" s="14"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
@@ -5479,7 +5411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
@@ -5515,7 +5447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
@@ -5551,7 +5483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
@@ -5589,7 +5521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -5625,7 +5557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
@@ -5661,7 +5593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
@@ -5735,7 +5667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
@@ -5771,7 +5703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
@@ -5809,7 +5741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
@@ -5845,7 +5777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
@@ -5881,7 +5813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
@@ -5919,7 +5851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
@@ -5955,7 +5887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
@@ -5991,7 +5923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>14</v>
       </c>
@@ -6029,7 +5961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
@@ -6065,7 +5997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -6101,7 +6033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>15</v>
       </c>
@@ -6139,7 +6071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
@@ -6175,7 +6107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
@@ -6211,7 +6143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>16</v>
       </c>
@@ -6249,7 +6181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
@@ -6285,7 +6217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -6321,7 +6253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>17</v>
       </c>
@@ -6359,7 +6291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
@@ -6395,7 +6327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
@@ -6431,8 +6363,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -6452,7 +6384,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6486,7 +6418,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6440,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
@@ -6526,7 +6458,7 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
@@ -6544,7 +6476,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
@@ -6564,7 +6496,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
@@ -6582,7 +6514,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -6600,7 +6532,7 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>4</v>
       </c>
@@ -6620,7 +6552,7 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
@@ -6638,7 +6570,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
@@ -6656,7 +6588,7 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
@@ -6694,7 +6626,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
@@ -6730,7 +6662,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
@@ -6766,7 +6698,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
@@ -6804,7 +6736,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
@@ -6840,7 +6772,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
@@ -6876,7 +6808,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>10</v>
       </c>
@@ -6914,7 +6846,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
@@ -6950,7 +6882,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
@@ -6986,7 +6918,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>12</v>
       </c>
@@ -7024,7 +6956,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
@@ -7060,7 +6992,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
@@ -7096,7 +7028,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>13</v>
       </c>
@@ -7134,7 +7066,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
@@ -7170,7 +7102,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
@@ -7206,7 +7138,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>14</v>
       </c>
@@ -7244,7 +7176,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
@@ -7280,7 +7212,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
@@ -7316,7 +7248,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>15</v>
       </c>
@@ -7354,7 +7286,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
@@ -7390,7 +7322,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
@@ -7426,7 +7358,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>16</v>
       </c>
@@ -7464,7 +7396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
@@ -7500,7 +7432,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
@@ -7536,7 +7468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>17</v>
       </c>
@@ -7574,7 +7506,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -7610,7 +7542,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
@@ -7646,8 +7578,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="121" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
@@ -7667,7 +7599,7 @@
       <c r="K121" s="10"/>
       <c r="L121" s="11"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7701,7 +7633,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
@@ -7721,7 +7653,7 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -7737,7 +7669,7 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
@@ -7753,7 +7685,7 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>3</v>
       </c>
@@ -7771,7 +7703,7 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -7787,7 +7719,7 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
@@ -7803,7 +7735,7 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>4</v>
       </c>
@@ -7821,7 +7753,7 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -7837,7 +7769,7 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
@@ -7853,7 +7785,7 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
@@ -7871,7 +7803,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
@@ -7887,7 +7819,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
@@ -7903,7 +7835,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>9</v>
       </c>
@@ -7921,7 +7853,7 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
@@ -7937,7 +7869,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
@@ -7953,7 +7885,7 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>10</v>
       </c>
@@ -7971,7 +7903,7 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -7987,7 +7919,7 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
@@ -8003,7 +7935,7 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>12</v>
       </c>
@@ -8021,7 +7953,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
@@ -8037,7 +7969,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
@@ -8053,7 +7985,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>13</v>
       </c>
@@ -8071,7 +8003,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -8087,7 +8019,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
@@ -8103,7 +8035,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>14</v>
       </c>
@@ -8121,7 +8053,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -8137,7 +8069,7 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
@@ -8153,7 +8085,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>15</v>
       </c>
@@ -8171,7 +8103,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
@@ -8187,7 +8119,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
@@ -8203,7 +8135,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>16</v>
       </c>
@@ -8221,7 +8153,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
@@ -8237,7 +8169,7 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
@@ -8253,7 +8185,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>17</v>
       </c>
@@ -8271,7 +8203,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
@@ -8287,7 +8219,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
@@ -8303,8 +8235,8 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -8324,7 +8256,7 @@
       <c r="K161" s="10"/>
       <c r="L161" s="11"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -8358,14 +8290,16 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="4">
+        <v>830</v>
+      </c>
       <c r="D163" s="14" t="s">
         <v>31</v>
       </c>
@@ -8378,12 +8312,14 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="4"/>
+      <c r="C164" s="4">
+        <v>839</v>
+      </c>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
       <c r="F164" s="14"/>
@@ -8394,12 +8330,14 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="9">
+        <v>819</v>
+      </c>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
       <c r="F165" s="14"/>
@@ -8410,14 +8348,16 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="4">
+        <v>2289</v>
+      </c>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
@@ -8428,12 +8368,14 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="4">
+        <v>2308</v>
+      </c>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
       <c r="F167" s="14"/>
@@ -8444,12 +8386,14 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="4"/>
+      <c r="C168" s="4">
+        <v>2209</v>
+      </c>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
       <c r="F168" s="14"/>
@@ -8460,14 +8404,16 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="4"/>
+      <c r="C169" s="9">
+        <v>680</v>
+      </c>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
       <c r="F169" s="14"/>
@@ -8478,12 +8424,14 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C170" s="4"/>
+      <c r="C170" s="9">
+        <v>610</v>
+      </c>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
       <c r="F170" s="14"/>
@@ -8494,12 +8442,14 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="4"/>
+      <c r="C171" s="9">
+        <v>600</v>
+      </c>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
       <c r="F171" s="14"/>
@@ -8510,458 +8460,998 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="5"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C172" s="9">
+        <v>750</v>
+      </c>
+      <c r="D172" s="4">
+        <v>1690</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1509</v>
+      </c>
+      <c r="F172" s="9">
+        <v>550</v>
+      </c>
+      <c r="G172" s="9">
+        <v>500</v>
+      </c>
+      <c r="H172" s="9">
+        <v>639</v>
+      </c>
+      <c r="I172" s="9">
+        <v>430</v>
+      </c>
+      <c r="J172" s="9">
+        <v>500</v>
+      </c>
+      <c r="K172" s="9">
+        <v>999</v>
+      </c>
+      <c r="L172" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="5"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C173" s="9">
+        <v>770</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1649</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1539</v>
+      </c>
+      <c r="F173" s="9">
+        <v>520</v>
+      </c>
+      <c r="G173" s="9">
+        <v>509</v>
+      </c>
+      <c r="H173" s="9">
+        <v>540</v>
+      </c>
+      <c r="I173" s="9">
+        <v>430</v>
+      </c>
+      <c r="J173" s="9">
+        <v>630</v>
+      </c>
+      <c r="K173" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L173" s="5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="5"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C174" s="9">
+        <v>740</v>
+      </c>
+      <c r="D174" s="9">
+        <v>1549</v>
+      </c>
+      <c r="E174" s="9">
+        <v>1549</v>
+      </c>
+      <c r="F174" s="9">
+        <v>949</v>
+      </c>
+      <c r="G174" s="9">
+        <v>519</v>
+      </c>
+      <c r="H174" s="9">
+        <v>489</v>
+      </c>
+      <c r="I174" s="9">
+        <v>410</v>
+      </c>
+      <c r="J174" s="9">
+        <v>490</v>
+      </c>
+      <c r="K174" s="9">
+        <v>720</v>
+      </c>
+      <c r="L174" s="5">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="5"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C175" s="9">
+        <v>350</v>
+      </c>
+      <c r="D175" s="4">
+        <v>210</v>
+      </c>
+      <c r="E175" s="4">
+        <v>139</v>
+      </c>
+      <c r="F175" s="9">
+        <v>140</v>
+      </c>
+      <c r="G175" s="9">
+        <v>160</v>
+      </c>
+      <c r="H175" s="9">
+        <v>240</v>
+      </c>
+      <c r="I175" s="9">
+        <v>150</v>
+      </c>
+      <c r="J175" s="9">
+        <v>140</v>
+      </c>
+      <c r="K175" s="9">
+        <v>230</v>
+      </c>
+      <c r="L175" s="5">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="5"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C176" s="9">
+        <v>330</v>
+      </c>
+      <c r="D176" s="9">
+        <v>190</v>
+      </c>
+      <c r="E176" s="9">
+        <v>129</v>
+      </c>
+      <c r="F176" s="9">
+        <v>149</v>
+      </c>
+      <c r="G176" s="9">
+        <v>150</v>
+      </c>
+      <c r="H176" s="9">
+        <v>149</v>
+      </c>
+      <c r="I176" s="9">
+        <v>260</v>
+      </c>
+      <c r="J176" s="9">
+        <v>140</v>
+      </c>
+      <c r="K176" s="9">
+        <v>250</v>
+      </c>
+      <c r="L176" s="5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="5"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C177" s="9">
+        <v>340</v>
+      </c>
+      <c r="D177" s="9">
+        <v>190</v>
+      </c>
+      <c r="E177" s="9">
+        <v>140</v>
+      </c>
+      <c r="F177" s="9">
+        <v>130</v>
+      </c>
+      <c r="G177" s="9">
+        <v>130</v>
+      </c>
+      <c r="H177" s="9">
+        <v>230</v>
+      </c>
+      <c r="I177" s="9">
+        <v>140</v>
+      </c>
+      <c r="J177" s="9">
+        <v>149</v>
+      </c>
+      <c r="K177" s="9">
+        <v>180</v>
+      </c>
+      <c r="L177" s="5">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="5"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C178" s="4">
+        <v>2629</v>
+      </c>
+      <c r="D178" s="4">
+        <v>2609</v>
+      </c>
+      <c r="E178" s="4">
+        <v>2469</v>
+      </c>
+      <c r="F178" s="9">
+        <v>2459</v>
+      </c>
+      <c r="G178" s="9">
+        <v>2349</v>
+      </c>
+      <c r="H178" s="9">
+        <v>2608</v>
+      </c>
+      <c r="I178" s="9">
+        <v>2259</v>
+      </c>
+      <c r="J178" s="9">
+        <v>3808</v>
+      </c>
+      <c r="K178" s="9">
+        <v>3358</v>
+      </c>
+      <c r="L178" s="5">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="5"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C179" s="9">
+        <v>2759</v>
+      </c>
+      <c r="D179" s="9">
+        <v>2538</v>
+      </c>
+      <c r="E179" s="9">
+        <v>2458</v>
+      </c>
+      <c r="F179" s="9">
+        <v>2409</v>
+      </c>
+      <c r="G179" s="9">
+        <v>2269</v>
+      </c>
+      <c r="H179" s="9">
+        <v>2299</v>
+      </c>
+      <c r="I179" s="9">
+        <v>2459</v>
+      </c>
+      <c r="J179" s="9">
+        <v>3439</v>
+      </c>
+      <c r="K179" s="9">
+        <v>2498</v>
+      </c>
+      <c r="L179" s="5">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="5"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C180" s="9">
+        <v>2699</v>
+      </c>
+      <c r="D180" s="9">
+        <v>2539</v>
+      </c>
+      <c r="E180" s="9">
+        <v>2509</v>
+      </c>
+      <c r="F180" s="9">
+        <v>2439</v>
+      </c>
+      <c r="G180" s="9">
+        <v>2458</v>
+      </c>
+      <c r="H180" s="9">
+        <v>2588</v>
+      </c>
+      <c r="I180" s="9">
+        <v>2399</v>
+      </c>
+      <c r="J180" s="9">
+        <v>3488</v>
+      </c>
+      <c r="K180" s="9">
+        <v>3148</v>
+      </c>
+      <c r="L180" s="5">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="5"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C181" s="9">
+        <v>1286</v>
+      </c>
+      <c r="D181" s="9">
+        <v>362</v>
+      </c>
+      <c r="E181" s="9">
+        <v>302</v>
+      </c>
+      <c r="F181" s="9">
+        <v>256</v>
+      </c>
+      <c r="G181" s="9">
+        <v>309</v>
+      </c>
+      <c r="H181" s="9">
+        <v>256</v>
+      </c>
+      <c r="I181" s="9">
+        <v>379</v>
+      </c>
+      <c r="J181" s="9">
+        <v>308</v>
+      </c>
+      <c r="K181" s="9">
+        <v>246</v>
+      </c>
+      <c r="L181" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="5"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C182" s="9">
+        <v>1148</v>
+      </c>
+      <c r="D182" s="9">
+        <v>377</v>
+      </c>
+      <c r="E182" s="9">
+        <v>241</v>
+      </c>
+      <c r="F182" s="9">
+        <v>266</v>
+      </c>
+      <c r="G182" s="9">
+        <v>328</v>
+      </c>
+      <c r="H182" s="9">
+        <v>240</v>
+      </c>
+      <c r="I182" s="9">
+        <v>236</v>
+      </c>
+      <c r="J182" s="9">
+        <v>244</v>
+      </c>
+      <c r="K182" s="9">
+        <v>241</v>
+      </c>
+      <c r="L182" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="5"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C183" s="9">
+        <v>1132</v>
+      </c>
+      <c r="D183" s="9">
+        <v>350</v>
+      </c>
+      <c r="E183" s="9">
+        <v>240</v>
+      </c>
+      <c r="F183" s="9">
+        <v>318</v>
+      </c>
+      <c r="G183" s="9">
+        <v>332</v>
+      </c>
+      <c r="H183" s="9">
+        <v>241</v>
+      </c>
+      <c r="I183" s="9">
+        <v>218</v>
+      </c>
+      <c r="J183" s="9">
+        <v>280</v>
+      </c>
+      <c r="K183" s="9">
+        <v>233</v>
+      </c>
+      <c r="L183" s="5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="5"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C184" s="9">
+        <v>344</v>
+      </c>
+      <c r="D184" s="9">
+        <v>252</v>
+      </c>
+      <c r="E184" s="9">
+        <v>191</v>
+      </c>
+      <c r="F184" s="9">
+        <v>248</v>
+      </c>
+      <c r="G184" s="9">
+        <v>236</v>
+      </c>
+      <c r="H184" s="9">
+        <v>186</v>
+      </c>
+      <c r="I184" s="9">
+        <v>306</v>
+      </c>
+      <c r="J184" s="9">
+        <v>377</v>
+      </c>
+      <c r="K184" s="9">
+        <v>361</v>
+      </c>
+      <c r="L184" s="5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="5"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C185" s="9">
+        <v>342</v>
+      </c>
+      <c r="D185" s="9">
+        <v>218</v>
+      </c>
+      <c r="E185" s="9">
+        <v>252</v>
+      </c>
+      <c r="F185" s="9">
+        <v>200</v>
+      </c>
+      <c r="G185" s="9">
+        <v>213</v>
+      </c>
+      <c r="H185" s="9">
+        <v>291</v>
+      </c>
+      <c r="I185" s="9">
+        <v>203</v>
+      </c>
+      <c r="J185" s="9">
+        <v>270</v>
+      </c>
+      <c r="K185" s="9">
+        <v>358</v>
+      </c>
+      <c r="L185" s="5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="5"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C186" s="9">
+        <v>426</v>
+      </c>
+      <c r="D186" s="9">
+        <v>228</v>
+      </c>
+      <c r="E186" s="9">
+        <v>191</v>
+      </c>
+      <c r="F186" s="9">
+        <v>204</v>
+      </c>
+      <c r="G186" s="9">
+        <v>270</v>
+      </c>
+      <c r="H186" s="9">
+        <v>195</v>
+      </c>
+      <c r="I186" s="9">
+        <v>204</v>
+      </c>
+      <c r="J186" s="9">
+        <v>268</v>
+      </c>
+      <c r="K186" s="9">
+        <v>349</v>
+      </c>
+      <c r="L186" s="5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="5"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C187" s="4">
+        <v>672</v>
+      </c>
+      <c r="D187" s="4">
+        <v>383</v>
+      </c>
+      <c r="E187" s="4">
+        <v>364</v>
+      </c>
+      <c r="F187" s="9">
+        <v>474</v>
+      </c>
+      <c r="G187" s="9">
+        <v>430</v>
+      </c>
+      <c r="H187" s="9">
+        <v>280</v>
+      </c>
+      <c r="I187" s="9">
+        <v>270</v>
+      </c>
+      <c r="J187" s="9">
+        <v>228</v>
+      </c>
+      <c r="K187" s="9">
+        <v>609</v>
+      </c>
+      <c r="L187" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="5"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C188" s="9">
+        <v>675</v>
+      </c>
+      <c r="D188" s="9">
+        <v>385</v>
+      </c>
+      <c r="E188" s="9">
+        <v>303</v>
+      </c>
+      <c r="F188" s="9">
+        <v>341</v>
+      </c>
+      <c r="G188" s="9">
+        <v>444</v>
+      </c>
+      <c r="H188" s="9">
+        <v>256</v>
+      </c>
+      <c r="I188" s="9">
+        <v>288</v>
+      </c>
+      <c r="J188" s="9">
+        <v>394</v>
+      </c>
+      <c r="K188" s="9">
+        <v>429</v>
+      </c>
+      <c r="L188" s="5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="5"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C189" s="9">
+        <v>606</v>
+      </c>
+      <c r="D189" s="9">
+        <v>405</v>
+      </c>
+      <c r="E189" s="9">
+        <v>336</v>
+      </c>
+      <c r="F189" s="9">
+        <v>458</v>
+      </c>
+      <c r="G189" s="9">
+        <v>336</v>
+      </c>
+      <c r="H189" s="9">
+        <v>354</v>
+      </c>
+      <c r="I189" s="9">
+        <v>415</v>
+      </c>
+      <c r="J189" s="9">
+        <v>296</v>
+      </c>
+      <c r="K189" s="9">
+        <v>340</v>
+      </c>
+      <c r="L189" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="5"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C190" s="9">
+        <v>302</v>
+      </c>
+      <c r="D190" s="9">
+        <v>410</v>
+      </c>
+      <c r="E190" s="9">
+        <v>275</v>
+      </c>
+      <c r="F190" s="9">
+        <v>300</v>
+      </c>
+      <c r="G190" s="9">
+        <v>287</v>
+      </c>
+      <c r="H190" s="9">
+        <v>205</v>
+      </c>
+      <c r="I190" s="9">
+        <v>242</v>
+      </c>
+      <c r="J190" s="9">
+        <v>302</v>
+      </c>
+      <c r="K190" s="9">
+        <v>431</v>
+      </c>
+      <c r="L190" s="5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="5"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C191" s="9">
+        <v>275</v>
+      </c>
+      <c r="D191" s="9">
+        <v>293</v>
+      </c>
+      <c r="E191" s="9">
+        <v>277</v>
+      </c>
+      <c r="F191" s="9">
+        <v>311</v>
+      </c>
+      <c r="G191" s="9">
+        <v>311</v>
+      </c>
+      <c r="H191" s="9">
+        <v>188</v>
+      </c>
+      <c r="I191" s="9">
+        <v>347</v>
+      </c>
+      <c r="J191" s="9">
+        <v>308</v>
+      </c>
+      <c r="K191" s="9">
+        <v>315</v>
+      </c>
+      <c r="L191" s="5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="5"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C192" s="9">
+        <v>243</v>
+      </c>
+      <c r="D192" s="9">
+        <v>276</v>
+      </c>
+      <c r="E192" s="9">
+        <v>256</v>
+      </c>
+      <c r="F192" s="9">
+        <v>249</v>
+      </c>
+      <c r="G192" s="9">
+        <v>263</v>
+      </c>
+      <c r="H192" s="9">
+        <v>261</v>
+      </c>
+      <c r="I192" s="9">
+        <v>248</v>
+      </c>
+      <c r="J192" s="9">
+        <v>286</v>
+      </c>
+      <c r="K192" s="9">
+        <v>340</v>
+      </c>
+      <c r="L192" s="5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="5"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C193" s="9">
+        <v>168</v>
+      </c>
+      <c r="D193" s="9">
+        <v>111</v>
+      </c>
+      <c r="E193" s="9">
+        <v>97</v>
+      </c>
+      <c r="F193" s="9">
+        <v>89</v>
+      </c>
+      <c r="G193" s="9">
+        <v>97</v>
+      </c>
+      <c r="H193" s="9">
+        <v>230</v>
+      </c>
+      <c r="I193" s="9">
+        <v>96</v>
+      </c>
+      <c r="J193" s="9">
+        <v>844</v>
+      </c>
+      <c r="K193" s="9">
+        <v>353</v>
+      </c>
+      <c r="L193" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="5"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C194" s="9">
+        <v>182</v>
+      </c>
+      <c r="D194" s="9">
+        <v>176</v>
+      </c>
+      <c r="E194" s="9">
+        <v>107</v>
+      </c>
+      <c r="F194" s="9">
+        <v>99</v>
+      </c>
+      <c r="G194" s="9">
+        <v>90</v>
+      </c>
+      <c r="H194" s="9">
+        <v>84</v>
+      </c>
+      <c r="I194" s="9">
+        <v>99</v>
+      </c>
+      <c r="J194" s="9">
+        <v>843</v>
+      </c>
+      <c r="K194" s="9">
+        <v>358</v>
+      </c>
+      <c r="L194" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="5"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C195" s="9">
+        <v>178</v>
+      </c>
+      <c r="D195" s="9">
+        <v>147</v>
+      </c>
+      <c r="E195" s="9">
+        <v>105</v>
+      </c>
+      <c r="F195" s="9">
+        <v>131</v>
+      </c>
+      <c r="G195" s="9">
+        <v>93</v>
+      </c>
+      <c r="H195" s="9">
+        <v>82</v>
+      </c>
+      <c r="I195" s="9">
+        <v>174</v>
+      </c>
+      <c r="J195" s="9">
+        <v>884</v>
+      </c>
+      <c r="K195" s="9">
+        <v>214</v>
+      </c>
+      <c r="L195" s="5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="5"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C196" s="4">
+        <v>772</v>
+      </c>
+      <c r="D196" s="4">
+        <v>685</v>
+      </c>
+      <c r="E196" s="4">
+        <v>537</v>
+      </c>
+      <c r="F196" s="9">
+        <v>532</v>
+      </c>
+      <c r="G196" s="9">
+        <v>523</v>
+      </c>
+      <c r="H196" s="9">
+        <v>408</v>
+      </c>
+      <c r="I196" s="9">
+        <v>599</v>
+      </c>
+      <c r="J196" s="9">
+        <v>379</v>
+      </c>
+      <c r="K196" s="9">
+        <v>489</v>
+      </c>
+      <c r="L196" s="5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="5"/>
-    </row>
-    <row r="198" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C197" s="9">
+        <v>698</v>
+      </c>
+      <c r="D197" s="9">
+        <v>554</v>
+      </c>
+      <c r="E197" s="9">
+        <v>582</v>
+      </c>
+      <c r="F197" s="9">
+        <v>493</v>
+      </c>
+      <c r="G197" s="9">
+        <v>496</v>
+      </c>
+      <c r="H197" s="9">
+        <v>379</v>
+      </c>
+      <c r="I197" s="9">
+        <v>615</v>
+      </c>
+      <c r="J197" s="9">
+        <v>382</v>
+      </c>
+      <c r="K197" s="9">
+        <v>491</v>
+      </c>
+      <c r="L197" s="5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
-      <c r="K198" s="7"/>
-      <c r="L198" s="8"/>
-    </row>
-    <row r="200" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C198" s="7">
+        <v>682</v>
+      </c>
+      <c r="D198" s="7">
+        <v>669</v>
+      </c>
+      <c r="E198" s="7">
+        <v>558</v>
+      </c>
+      <c r="F198" s="7">
+        <v>586</v>
+      </c>
+      <c r="G198" s="7">
+        <v>431</v>
+      </c>
+      <c r="H198" s="7">
+        <v>336</v>
+      </c>
+      <c r="I198" s="7">
+        <v>615</v>
+      </c>
+      <c r="J198" s="7">
+        <v>373</v>
+      </c>
+      <c r="K198" s="7">
+        <v>432</v>
+      </c>
+      <c r="L198" s="8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
@@ -8981,7 +9471,7 @@
       <c r="K201" s="10"/>
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -9015,7 +9505,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>2</v>
       </c>
@@ -9035,7 +9525,7 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
@@ -9051,7 +9541,7 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
@@ -9067,7 +9557,7 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
@@ -9085,7 +9575,7 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
@@ -9101,7 +9591,7 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
@@ -9117,7 +9607,7 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>4</v>
       </c>
@@ -9135,7 +9625,7 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
@@ -9151,7 +9641,7 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
@@ -9167,7 +9657,7 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
@@ -9185,7 +9675,7 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
@@ -9201,7 +9691,7 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
@@ -9217,7 +9707,7 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
@@ -9235,7 +9725,7 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
@@ -9251,7 +9741,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
@@ -9267,7 +9757,7 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>10</v>
       </c>
@@ -9285,7 +9775,7 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
@@ -9301,7 +9791,7 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
@@ -9317,7 +9807,7 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>12</v>
       </c>
@@ -9335,7 +9825,7 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
@@ -9351,7 +9841,7 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
@@ -9367,7 +9857,7 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
@@ -9385,7 +9875,7 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
@@ -9401,7 +9891,7 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
@@ -9417,7 +9907,7 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>14</v>
       </c>
@@ -9435,7 +9925,7 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
@@ -9451,7 +9941,7 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
@@ -9467,7 +9957,7 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>15</v>
       </c>
@@ -9485,7 +9975,7 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
@@ -9501,7 +9991,7 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
@@ -9517,7 +10007,7 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>16</v>
       </c>
@@ -9535,7 +10025,7 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
@@ -9551,7 +10041,7 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
@@ -9567,7 +10057,7 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>17</v>
       </c>
@@ -9585,7 +10075,7 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
@@ -9601,7 +10091,7 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
@@ -9617,8 +10107,8 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
@@ -9638,7 +10128,7 @@
       <c r="K241" s="10"/>
       <c r="L241" s="11"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -9672,7 +10162,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>2</v>
       </c>
@@ -9692,7 +10182,7 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
@@ -9708,7 +10198,7 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
@@ -9724,7 +10214,7 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>3</v>
       </c>
@@ -9742,7 +10232,7 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
@@ -9758,7 +10248,7 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
@@ -9774,7 +10264,7 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>4</v>
       </c>
@@ -9792,7 +10282,7 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
@@ -9808,7 +10298,7 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
@@ -9824,7 +10314,7 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
@@ -9842,7 +10332,7 @@
       <c r="K252" s="4"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
@@ -9858,7 +10348,7 @@
       <c r="K253" s="4"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
@@ -9874,7 +10364,7 @@
       <c r="K254" s="4"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>9</v>
       </c>
@@ -9892,7 +10382,7 @@
       <c r="K255" s="4"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
@@ -9908,7 +10398,7 @@
       <c r="K256" s="4"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
@@ -9924,7 +10414,7 @@
       <c r="K257" s="4"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>10</v>
       </c>
@@ -9942,7 +10432,7 @@
       <c r="K258" s="4"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
@@ -9958,7 +10448,7 @@
       <c r="K259" s="4"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
@@ -9974,7 +10464,7 @@
       <c r="K260" s="4"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>12</v>
       </c>
@@ -9992,7 +10482,7 @@
       <c r="K261" s="4"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
@@ -10008,7 +10498,7 @@
       <c r="K262" s="4"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
@@ -10024,7 +10514,7 @@
       <c r="K263" s="4"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>13</v>
       </c>
@@ -10042,7 +10532,7 @@
       <c r="K264" s="4"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
@@ -10058,7 +10548,7 @@
       <c r="K265" s="4"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
@@ -10074,7 +10564,7 @@
       <c r="K266" s="4"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
         <v>14</v>
       </c>
@@ -10092,7 +10582,7 @@
       <c r="K267" s="4"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
@@ -10108,7 +10598,7 @@
       <c r="K268" s="4"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
@@ -10124,7 +10614,7 @@
       <c r="K269" s="4"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>15</v>
       </c>
@@ -10142,7 +10632,7 @@
       <c r="K270" s="4"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
@@ -10158,7 +10648,7 @@
       <c r="K271" s="4"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
@@ -10174,7 +10664,7 @@
       <c r="K272" s="4"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>16</v>
       </c>
@@ -10192,7 +10682,7 @@
       <c r="K273" s="4"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
@@ -10208,7 +10698,7 @@
       <c r="K274" s="4"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
@@ -10224,7 +10714,7 @@
       <c r="K275" s="4"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
@@ -10242,7 +10732,7 @@
       <c r="K276" s="4"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
@@ -10258,7 +10748,7 @@
       <c r="K277" s="4"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
@@ -10387,12 +10877,12 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -10407,7 +10897,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10440,7 +10930,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -10485,7 +10975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10530,7 +11020,7 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -10575,7 +11065,7 @@
         <v>42.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -10620,8 +11110,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -10636,7 +11126,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -10669,7 +11159,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -10714,7 +11204,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -10759,7 +11249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -10804,7 +11294,7 @@
         <v>44.666666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -10849,8 +11339,8 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -10865,7 +11355,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -10898,7 +11388,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -10943,7 +11433,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -10988,7 +11478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -11033,7 +11523,7 @@
         <v>42.333333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -11096,16 +11586,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -11120,7 +11610,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11153,7 +11643,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11198,7 +11688,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11243,7 +11733,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11288,7 +11778,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11333,8 +11823,8 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -11349,7 +11839,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11382,7 +11872,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -11427,7 +11917,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -11472,7 +11962,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -11517,7 +12007,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -11562,8 +12052,8 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -11578,7 +12068,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11611,7 +12101,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -11656,7 +12146,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -11701,7 +12191,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -11746,7 +12236,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -11809,12 +12299,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -11829,7 +12319,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11862,7 +12352,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11907,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11952,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11997,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12042,8 +12532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -12058,7 +12548,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12091,7 +12581,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12136,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12181,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12226,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12271,8 +12761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -12287,7 +12777,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12320,7 +12810,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12365,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12410,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12455,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12514,16 +13004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -12538,7 +13028,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12571,188 +13061,188 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C169:C171))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C178:C180))/3</f>
-        <v>0</v>
+        <v>2695.6666666666665</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D178:D180))/3</f>
-        <v>0</v>
+        <v>2562</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E178:E180))/3</f>
-        <v>0</v>
+        <v>2478.6666666666665</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F178:F180))/3</f>
-        <v>0</v>
+        <v>2435.6666666666665</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G178:G180))/3</f>
-        <v>0</v>
+        <v>2358.6666666666665</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H178:H180))/3</f>
-        <v>0</v>
+        <v>2498.3333333333335</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I178:I180))/3</f>
-        <v>0</v>
+        <v>2372.3333333333335</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J178:J180))/3</f>
-        <v>0</v>
+        <v>3578.3333333333335</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K178:K180))/3</f>
-        <v>0</v>
+        <v>3001.3333333333335</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L178:L180))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C187:C189))/3</f>
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D187:D189))/3</f>
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E187:E189))/3</f>
-        <v>0</v>
+        <v>334.33333333333331</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F187:F189))/3</f>
-        <v>0</v>
+        <v>424.33333333333331</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G187:G189))/3</f>
-        <v>0</v>
+        <v>403.33333333333331</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H187:H189))/3</f>
-        <v>0</v>
+        <v>296.66666666666669</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I187:I189))/3</f>
-        <v>0</v>
+        <v>324.33333333333331</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J187:J189))/3</f>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K187:K189))/3</f>
-        <v>0</v>
+        <v>459.33333333333331</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L187:L189))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>401.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C196:C198))/3</f>
-        <v>0</v>
+        <v>717.33333333333337</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D196:D198))/3</f>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E196:E198))/3</f>
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F196:F198))/3</f>
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G196:G198))/3</f>
-        <v>0</v>
+        <v>483.33333333333331</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H196:H198))/3</f>
-        <v>0</v>
+        <v>374.33333333333331</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I196:I198))/3</f>
-        <v>0</v>
+        <v>609.66666666666663</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J196:J198))/3</f>
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K196:K198))/3</f>
-        <v>0</v>
+        <v>470.66666666666669</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L196:L198))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -12767,7 +13257,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12800,188 +13290,188 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
+        <v>829.33333333333337</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C163:C165))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>829.33333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C172:C174))/3</f>
-        <v>0</v>
+        <v>753.33333333333337</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D172:D174))/3</f>
-        <v>0</v>
+        <v>1629.3333333333333</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E172:E174))/3</f>
-        <v>0</v>
+        <v>1532.3333333333333</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F172:F174))/3</f>
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G172:G174))/3</f>
-        <v>0</v>
+        <v>509.33333333333331</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H172:H174))/3</f>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I172:I174))/3</f>
-        <v>0</v>
+        <v>423.33333333333331</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J172:J174))/3</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K172:K174))/3</f>
-        <v>0</v>
+        <v>906.33333333333337</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L172:L174))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>586.33333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C181:C183))/3</f>
-        <v>0</v>
+        <v>1188.6666666666667</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D181:D183))/3</f>
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E181:E183))/3</f>
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F181:F183))/3</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G181:G183))/3</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H181:H183))/3</f>
-        <v>0</v>
+        <v>245.66666666666666</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I181:I183))/3</f>
-        <v>0</v>
+        <v>277.66666666666669</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J181:J183))/3</f>
-        <v>0</v>
+        <v>277.33333333333331</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K181:K183))/3</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L181:L183))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>457.66666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C190:C192))/3</f>
-        <v>0</v>
+        <v>273.33333333333331</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D190:D192))/3</f>
-        <v>0</v>
+        <v>326.33333333333331</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E190:E192))/3</f>
-        <v>0</v>
+        <v>269.33333333333331</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F190:F192))/3</f>
-        <v>0</v>
+        <v>286.66666666666669</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G190:G192))/3</f>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H190:H192))/3</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I190:I192))/3</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J190:J192))/3</f>
-        <v>0</v>
+        <v>298.66666666666669</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K190:K192))/3</f>
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L190:L192))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>509.33333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -12996,7 +13486,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13029,184 +13519,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
+        <v>2268.6666666666665</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C166:C168))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2268.6666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C175:C177))/3</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D175:D177))/3</f>
-        <v>0</v>
+        <v>196.66666666666666</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E175:E177))/3</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F175:F177))/3</f>
-        <v>0</v>
+        <v>139.66666666666666</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G175:G177))/3</f>
-        <v>0</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H175:H177))/3</f>
-        <v>0</v>
+        <v>206.33333333333334</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I175:I177))/3</f>
-        <v>0</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J175:J177))/3</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K175:K177))/3</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L175:L177))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1165.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C184:C186))/3</f>
-        <v>0</v>
+        <v>370.66666666666669</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D184:D186))/3</f>
-        <v>0</v>
+        <v>232.66666666666666</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E184:E186))/3</f>
-        <v>0</v>
+        <v>211.33333333333334</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F184:F186))/3</f>
-        <v>0</v>
+        <v>217.33333333333334</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G184:G186))/3</f>
-        <v>0</v>
+        <v>239.66666666666666</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H184:H186))/3</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I184:I186))/3</f>
-        <v>0</v>
+        <v>237.66666666666666</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J184:J186))/3</f>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K184:K186))/3</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L184:L186))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C193:C195))/3</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D193:D195))/3</f>
-        <v>0</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E193:E195))/3</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F193:F195))/3</f>
-        <v>0</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G193:G195))/3</f>
-        <v>0</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H193:H195))/3</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I193:I195))/3</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J193:J195))/3</f>
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K193:K195))/3</f>
-        <v>0</v>
+        <v>308.33333333333331</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L193:L195))/3</f>
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -13227,12 +13717,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -13247,7 +13737,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13280,7 +13770,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13325,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13370,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13415,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13460,8 +13950,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -13476,7 +13966,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13509,7 +13999,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13554,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13599,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13644,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13689,8 +14179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -13705,7 +14195,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13738,7 +14228,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13783,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13828,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13873,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13936,12 +14426,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -13956,7 +14446,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13989,7 +14479,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -14034,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -14079,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -14124,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -14169,8 +14659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -14185,7 +14675,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14218,7 +14708,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14263,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14308,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14353,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14398,8 +14888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -14414,7 +14904,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14447,7 +14937,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14492,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -14537,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14582,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118EF603-84F2-4E26-B69C-E8861C0ECA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -258,17 +264,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -278,6 +284,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,7 +309,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -344,6 +356,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -423,40 +455,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -534,40 +566,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>535.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>204.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>850.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>92.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>144.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.666666666666666</c:v>
+                  <c:v>161.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -645,40 +677,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>446.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>307.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>227.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>182.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>193.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.333333333333334</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>177.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.333333333333336</c:v>
+                  <c:v>194.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -756,40 +788,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>609.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>110.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>72.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>41.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>59.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>109.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -803,7 +835,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="103598336"/>
         <c:axId val="103600128"/>
@@ -956,14 +987,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -999,7 +1030,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1046,6 +1077,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1125,40 +1176,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1236,40 +1287,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>804.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>558.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>405.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>292.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.666666666666668</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.666666666666668</c:v>
+                  <c:v>346.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>372.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.666666666666664</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>435.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1347,40 +1398,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>712.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>523.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>551.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>383.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>468.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>503.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>369.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1458,40 +1509,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>224.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>226.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>167.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>200.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.333333333333334</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.333333333333332</c:v>
+                  <c:v>192.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.333333333333332</c:v>
+                  <c:v>197.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1505,7 +1556,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="103965056"/>
         <c:axId val="103966592"/>
@@ -1658,14 +1708,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1701,7 +1751,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1748,6 +1798,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1827,40 +1897,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -1938,40 +2008,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>1009.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>607.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>437.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>430.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3333333333333339</c:v>
+                  <c:v>473.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.666666666666666</c:v>
+                  <c:v>488.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>484.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>461.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2049,40 +2119,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>596.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>272.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>210.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>173.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>131.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>183.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>231.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.666666666666664</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2160,40 +2230,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>256.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>155.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>129.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>86.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>88.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.666666666666668</c:v>
+                  <c:v>111.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2207,7 +2277,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="104024320"/>
         <c:axId val="104030208"/>
@@ -2360,14 +2429,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4090,7 +4159,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,7 +4195,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4231,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,47 +4541,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="N192" sqref="N192"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4546,8 +4615,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4566,8 +4635,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4582,8 +4651,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4598,8 +4667,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4616,8 +4685,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4632,8 +4701,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4648,8 +4717,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4666,8 +4735,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4682,8 +4751,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4698,8 +4767,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4716,8 +4785,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4732,8 +4801,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4748,8 +4817,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4766,8 +4835,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4782,8 +4851,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4798,8 +4867,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4816,8 +4885,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4832,8 +4901,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4848,8 +4917,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4866,8 +4935,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4882,8 +4951,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4898,8 +4967,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4916,8 +4985,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4932,8 +5001,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4948,8 +5017,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4966,8 +5035,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -4982,8 +5051,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4998,8 +5067,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5016,8 +5085,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5032,8 +5101,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5048,8 +5117,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5066,8 +5135,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5082,8 +5151,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5098,8 +5167,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5116,8 +5185,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5132,8 +5201,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5148,28 +5217,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5203,1188 +5272,1188 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A47" s="10"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="9">
-        <v>2</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="4">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+        <v>910</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="9">
-        <v>4</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+        <v>1013</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A51" s="10"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9">
-        <v>3</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="9">
-        <v>12</v>
+        <v>645</v>
       </c>
       <c r="D52" s="4">
-        <v>14</v>
+        <v>575</v>
       </c>
       <c r="E52" s="4">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="F52" s="9">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="G52" s="9">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="H52" s="9">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="I52" s="9">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="J52" s="9">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="K52" s="9">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="L52" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A53" s="10"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="9">
-        <v>6</v>
+        <v>814</v>
       </c>
       <c r="D53" s="4">
-        <v>6</v>
+        <v>568</v>
       </c>
       <c r="E53" s="4">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="F53" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="G53" s="9">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="H53" s="9">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="I53" s="9">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="J53" s="9">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="K53" s="9">
-        <v>33</v>
+        <v>398</v>
       </c>
       <c r="L53" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A54" s="10"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="9">
-        <v>11</v>
+        <v>954</v>
       </c>
       <c r="D54" s="9">
-        <v>17</v>
+        <v>533</v>
       </c>
       <c r="E54" s="9">
-        <v>21</v>
+        <v>470</v>
       </c>
       <c r="F54" s="9">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="G54" s="9">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="H54" s="9">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="I54" s="9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="J54" s="9">
-        <v>21</v>
+        <v>453</v>
       </c>
       <c r="K54" s="9">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="L54" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="F55" s="9">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="G55" s="9">
-        <v>3</v>
+        <v>842</v>
       </c>
       <c r="H55" s="9">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I55" s="9">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="J55" s="9">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="K55" s="9">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="L55" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="9">
-        <v>3</v>
+        <v>592</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="E56" s="4">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="F56" s="9">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>838</v>
       </c>
       <c r="H56" s="9">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J56" s="9">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="K56" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="L56" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A57" s="10"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="9">
-        <v>3</v>
+        <v>514</v>
       </c>
       <c r="D57" s="9">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="E57" s="9">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="F57" s="9">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="G57" s="9">
-        <v>2</v>
+        <v>871</v>
       </c>
       <c r="H57" s="9">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="I57" s="9">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J57" s="9">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="K57" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="L57" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="4">
-        <v>9</v>
+        <v>956</v>
       </c>
       <c r="D58" s="4">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="E58" s="4">
-        <v>5</v>
+        <v>449</v>
       </c>
       <c r="F58" s="9">
-        <v>9</v>
+        <v>459</v>
       </c>
       <c r="G58" s="9">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="H58" s="9">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="I58" s="9">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="J58" s="9">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="K58" s="9">
-        <v>26</v>
+        <v>453</v>
       </c>
       <c r="L58" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4">
-        <v>9</v>
+        <v>1001</v>
       </c>
       <c r="D59" s="4">
-        <v>5</v>
+        <v>590</v>
       </c>
       <c r="E59" s="4">
-        <v>5</v>
+        <v>484</v>
       </c>
       <c r="F59" s="9">
-        <v>7</v>
+        <v>426</v>
       </c>
       <c r="G59" s="9">
-        <v>5</v>
+        <v>449</v>
       </c>
       <c r="H59" s="9">
-        <v>5</v>
+        <v>431</v>
       </c>
       <c r="I59" s="9">
-        <v>8</v>
+        <v>495</v>
       </c>
       <c r="J59" s="9">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="K59" s="9">
-        <v>22</v>
+        <v>526</v>
       </c>
       <c r="L59" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A60" s="10"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="9">
-        <v>7</v>
+        <v>1072</v>
       </c>
       <c r="D60" s="9">
-        <v>6</v>
+        <v>635</v>
       </c>
       <c r="E60" s="9">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="F60" s="9">
-        <v>9</v>
+        <v>428</v>
       </c>
       <c r="G60" s="9">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="H60" s="9">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="I60" s="9">
-        <v>9</v>
+        <v>476</v>
       </c>
       <c r="J60" s="9">
-        <v>17</v>
+        <v>541</v>
       </c>
       <c r="K60" s="9">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="L60" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="9">
-        <v>5</v>
+        <v>689</v>
       </c>
       <c r="D61" s="9">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="E61" s="9">
-        <v>10</v>
+        <v>612</v>
       </c>
       <c r="F61" s="9">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="G61" s="9">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="H61" s="9">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="I61" s="9">
-        <v>8</v>
+        <v>553</v>
       </c>
       <c r="J61" s="9">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="K61" s="9">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="L61" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A62" s="10"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="9">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="D62" s="9">
-        <v>6</v>
+        <v>569</v>
       </c>
       <c r="E62" s="9">
-        <v>8</v>
+        <v>542</v>
       </c>
       <c r="F62" s="9">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="H62" s="9">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="I62" s="9">
-        <v>8</v>
+        <v>587</v>
       </c>
       <c r="J62" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="K62" s="9">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="L62" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="9">
-        <v>6</v>
+        <v>799</v>
       </c>
       <c r="D63" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="E63" s="9">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="F63" s="9">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="G63" s="9">
-        <v>5</v>
+        <v>587</v>
       </c>
       <c r="H63" s="9">
-        <v>6</v>
+        <v>507</v>
       </c>
       <c r="I63" s="9">
-        <v>11</v>
+        <v>699</v>
       </c>
       <c r="J63" s="9">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="K63" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L63" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="4">
-        <v>6</v>
+        <v>430</v>
       </c>
       <c r="D64" s="4">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="E64" s="4">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F64" s="9">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="G64" s="9">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="H64" s="9">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="J64" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="K64" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="L64" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A65" s="10"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="9">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="D65" s="9">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="E65" s="9">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="F65" s="9">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="G65" s="9">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="H65" s="9">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I65" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="J65" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="K65" s="9">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="L65" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A66" s="10"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="9">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="D66" s="9">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="E66" s="9">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="F66" s="9">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="G66" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="H66" s="9">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="I66" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J66" s="9">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K66" s="9">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="L66" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="4">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="D67" s="4">
-        <v>4</v>
+        <v>469</v>
       </c>
       <c r="E67" s="4">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="F67" s="9">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G67" s="9">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="H67" s="9">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="I67" s="9">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="J67" s="9">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="K67" s="9">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="L67" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A68" s="10"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="4">
-        <v>3</v>
+        <v>518</v>
       </c>
       <c r="D68" s="4">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="E68" s="4">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="F68" s="9">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G68" s="9">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="H68" s="9">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="I68" s="9">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="J68" s="9">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="K68" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="L68" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A69" s="10"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="9">
-        <v>4</v>
+        <v>705</v>
       </c>
       <c r="D69" s="9">
-        <v>3</v>
+        <v>746</v>
       </c>
       <c r="E69" s="9">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="F69" s="9">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="G69" s="9">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="H69" s="9">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J69" s="9">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="K69" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="L69" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="9">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D70" s="9">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E70" s="9">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="F70" s="9">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="G70" s="9">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="H70" s="9">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="I70" s="9">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="J70" s="9">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="K70" s="9">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="L70" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A71" s="10"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="9">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="D71" s="9">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="E71" s="9">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="F71" s="9">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G71" s="9">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="H71" s="9">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="I71" s="9">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="J71" s="9">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="K71" s="9">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="L71" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A72" s="10"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="9">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D72" s="9">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="E72" s="9">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F72" s="9">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="G72" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="H72" s="9">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="I72" s="9">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="J72" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="K72" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="L72" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="4">
-        <v>2</v>
+        <v>563</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F73" s="9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G73" s="9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H73" s="9">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="J73" s="9">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K73" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L73" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A74" s="10"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="9">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D74" s="9">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E74" s="9">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F74" s="9">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G74" s="9">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H74" s="9">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J74" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K74" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L74" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A75" s="10"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="9">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="D75" s="9">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="E75" s="9">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F75" s="9">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G75" s="9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H75" s="9">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J75" s="9">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="K75" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="L75" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="4">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="D76" s="4">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E76" s="4">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="F76" s="9">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="H76" s="9">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J76" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K76" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="L76" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="4">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="D77" s="4">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="E77" s="4">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="F77" s="9">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="G77" s="9">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H77" s="9">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="J77" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="K77" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L77" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A78" s="11"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="7">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="D78" s="7">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="E78" s="7">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F78" s="7">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G78" s="7">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="H78" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="I78" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J78" s="7">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="K78" s="7">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="L78" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6418,8 +6487,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6440,8 +6509,8 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6458,8 +6527,8 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6476,8 +6545,8 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6496,8 +6565,8 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6514,8 +6583,8 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6532,8 +6601,8 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6552,8 +6621,8 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6570,8 +6639,8 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6588,8 +6657,8 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6626,8 +6695,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6662,8 +6731,8 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6698,8 +6767,8 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6736,8 +6805,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A96" s="10"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6772,8 +6841,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A97" s="10"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6808,8 +6877,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6846,8 +6915,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6882,8 +6951,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6918,8 +6987,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6956,8 +7025,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -6992,8 +7061,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7028,8 +7097,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7066,8 +7135,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A105" s="10"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7102,8 +7171,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A106" s="10"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7138,8 +7207,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7176,8 +7245,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7212,8 +7281,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7248,8 +7317,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A110" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7286,8 +7355,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A111" s="10"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7322,8 +7391,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A112" s="10"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7358,8 +7427,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A113" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7396,8 +7465,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A114" s="10"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7432,8 +7501,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A115" s="10"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7468,8 +7537,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A116" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7506,8 +7575,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A117" s="10"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7542,8 +7611,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A118" s="11"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7578,28 +7647,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7633,8 +7702,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A123" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7653,8 +7722,8 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7669,8 +7738,8 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7685,8 +7754,8 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7703,8 +7772,8 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A127" s="10"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7719,8 +7788,8 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A128" s="10"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7735,8 +7804,8 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7753,8 +7822,8 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A130" s="10"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7769,8 +7838,8 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A131" s="10"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7785,8 +7854,8 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7803,8 +7872,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A133" s="10"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7819,8 +7888,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A134" s="10"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7835,8 +7904,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7853,8 +7922,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A136" s="10"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7869,8 +7938,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A137" s="10"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7885,8 +7954,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A138" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7903,8 +7972,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7919,8 +7988,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A140" s="10"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7935,8 +8004,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7953,8 +8022,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A142" s="10"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7969,8 +8038,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A143" s="10"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7985,8 +8054,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8003,8 +8072,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A145" s="10"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8019,8 +8088,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A146" s="10"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8035,8 +8104,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8053,8 +8122,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8069,8 +8138,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8085,8 +8154,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A150" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8103,8 +8172,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8119,8 +8188,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8135,8 +8204,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A153" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8153,8 +8222,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8169,8 +8238,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8185,8 +8254,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8203,8 +8272,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A157" s="10"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8219,8 +8288,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
+    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A158" s="11"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8235,28 +8304,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="13"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -8290,8 +8359,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A163" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8312,8 +8381,8 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A164" s="10"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8330,8 +8399,8 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A165" s="10"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8348,8 +8417,8 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A166" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8368,8 +8437,8 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A167" s="10"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8386,8 +8455,8 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A168" s="10"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8404,8 +8473,8 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8424,8 +8493,8 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A170" s="10"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8442,8 +8511,8 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A171" s="10"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8460,8 +8529,8 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8498,8 +8567,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A173" s="10"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8534,8 +8603,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A174" s="10"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8570,8 +8639,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A175" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8608,8 +8677,8 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A176" s="10"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8644,8 +8713,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A177" s="10"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8680,8 +8749,8 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A178" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8718,8 +8787,8 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A179" s="10"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8754,8 +8823,8 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A180" s="10"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8790,8 +8859,8 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8828,8 +8897,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8864,8 +8933,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A183" s="10"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8900,8 +8969,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A184" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8938,8 +9007,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8974,8 +9043,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A186" s="10"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -9010,8 +9079,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9048,8 +9117,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A188" s="10"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -9084,8 +9153,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A189" s="10"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -9120,8 +9189,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9158,8 +9227,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A191" s="10"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -9194,8 +9263,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A192" s="10"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -9230,8 +9299,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A193" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9268,8 +9337,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A194" s="10"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -9304,8 +9373,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A195" s="10"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -9340,8 +9409,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A196" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9378,8 +9447,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A197" s="10"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -9414,8 +9483,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
+    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A198" s="11"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -9450,28 +9519,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -9505,8 +9574,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A203" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -9525,8 +9594,8 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A204" s="10"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -9541,8 +9610,8 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A205" s="10"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -9557,8 +9626,8 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A206" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -9575,8 +9644,8 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A207" s="10"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -9591,8 +9660,8 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A208" s="10"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9607,8 +9676,8 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A209" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -9625,8 +9694,8 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A210" s="10"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -9641,8 +9710,8 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A211" s="10"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -9657,8 +9726,8 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9675,8 +9744,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A213" s="10"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9691,8 +9760,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A214" s="10"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9707,8 +9776,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9725,8 +9794,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A216" s="10"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9741,8 +9810,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A217" s="10"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9757,8 +9826,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A218" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9775,8 +9844,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A219" s="10"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9791,8 +9860,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A220" s="10"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9807,8 +9876,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -9825,8 +9894,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A222" s="10"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -9841,8 +9910,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A223" s="10"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -9857,8 +9926,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A224" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -9875,8 +9944,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A225" s="10"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -9891,8 +9960,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9907,8 +9976,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -9925,8 +9994,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A228" s="10"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -9941,8 +10010,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A229" s="10"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9957,8 +10026,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A230" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -9975,8 +10044,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A231" s="10"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -9991,8 +10060,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A232" s="10"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -10007,8 +10076,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A233" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -10025,8 +10094,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A234" s="10"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -10041,8 +10110,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A235" s="10"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -10057,8 +10126,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A236" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -10075,8 +10144,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A237" s="10"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -10091,8 +10160,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
+    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A238" s="11"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -10107,28 +10176,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="11"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="13"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -10162,8 +10231,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A243" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -10182,8 +10251,8 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A244" s="10"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -10198,8 +10267,8 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A245" s="10"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -10214,8 +10283,8 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A246" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -10232,8 +10301,8 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A247" s="10"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -10248,8 +10317,8 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A248" s="10"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -10264,8 +10333,8 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A249" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -10282,8 +10351,8 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A250" s="10"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -10298,8 +10367,8 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A251" s="10"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -10314,8 +10383,8 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A252" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -10332,8 +10401,8 @@
       <c r="K252" s="4"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A253" s="10"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -10348,8 +10417,8 @@
       <c r="K253" s="4"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A254" s="10"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -10364,8 +10433,8 @@
       <c r="K254" s="4"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -10382,8 +10451,8 @@
       <c r="K255" s="4"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A256" s="10"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -10398,8 +10467,8 @@
       <c r="K256" s="4"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="12"/>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A257" s="10"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -10414,8 +10483,8 @@
       <c r="K257" s="4"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A258" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -10432,8 +10501,8 @@
       <c r="K258" s="4"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A259" s="10"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -10448,8 +10517,8 @@
       <c r="K259" s="4"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A260" s="10"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -10464,8 +10533,8 @@
       <c r="K260" s="4"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -10482,8 +10551,8 @@
       <c r="K261" s="4"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A262" s="10"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -10498,8 +10567,8 @@
       <c r="K262" s="4"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A263" s="10"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -10514,8 +10583,8 @@
       <c r="K263" s="4"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A264" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -10532,8 +10601,8 @@
       <c r="K264" s="4"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A265" s="10"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -10548,8 +10617,8 @@
       <c r="K265" s="4"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A266" s="10"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -10564,8 +10633,8 @@
       <c r="K266" s="4"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A267" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -10582,8 +10651,8 @@
       <c r="K267" s="4"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A268" s="10"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -10598,8 +10667,8 @@
       <c r="K268" s="4"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="12"/>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A269" s="10"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -10614,8 +10683,8 @@
       <c r="K269" s="4"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A270" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -10632,8 +10701,8 @@
       <c r="K270" s="4"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A271" s="10"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -10648,8 +10717,8 @@
       <c r="K271" s="4"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="12"/>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A272" s="10"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -10664,8 +10733,8 @@
       <c r="K272" s="4"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -10682,8 +10751,8 @@
       <c r="K273" s="4"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A274" s="10"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -10698,8 +10767,8 @@
       <c r="K274" s="4"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="12"/>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A275" s="10"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -10714,8 +10783,8 @@
       <c r="K275" s="4"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A276" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -10732,8 +10801,8 @@
       <c r="K276" s="4"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="12"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A277" s="10"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -10748,8 +10817,8 @@
       <c r="K277" s="4"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="13"/>
+    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A278" s="11"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -10766,88 +10835,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -10864,40 +10851,122 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10930,203 +10999,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>942.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C58:C60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>1009.6666666666666</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D58:D60))/3</f>
-        <v>5.666666666666667</v>
+        <v>607.66666666666663</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E58:E60))/3</f>
-        <v>4.666666666666667</v>
+        <v>456</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F58:F60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>437.66666666666669</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G58:G60))/3</f>
-        <v>4.333333333333333</v>
+        <v>444</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H58:H60))/3</f>
-        <v>4.666666666666667</v>
+        <v>430.66666666666669</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I58:I60))/3</f>
-        <v>9.3333333333333339</v>
+        <v>473.66666666666669</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J58:J60))/3</f>
-        <v>15.666666666666666</v>
+        <v>488.66666666666669</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K58:K60))/3</f>
-        <v>23.333333333333332</v>
+        <v>484.66666666666669</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L58:L60))/3</f>
-        <v>43.333333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>461.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C67:C69))/3</f>
-        <v>3.3333333333333335</v>
+        <v>596.66666666666663</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D67:D69))/3</f>
-        <v>3</v>
+        <v>554</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E67:E69))/3</f>
-        <v>2.6666666666666665</v>
+        <v>272.33333333333331</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F67:F69))/3</f>
-        <v>3.6666666666666665</v>
+        <v>210.33333333333334</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G67:G69))/3</f>
-        <v>4</v>
+        <v>173.33333333333334</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H67:H69))/3</f>
-        <v>4</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I67:I69))/3</f>
-        <v>6.666666666666667</v>
+        <v>157</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J67:J69))/3</f>
-        <v>10</v>
+        <v>183.66666666666666</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K67:K69))/3</f>
-        <v>19</v>
+        <v>231.33333333333334</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L67:L69))/3</f>
-        <v>42.666666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C76:C78))/3</f>
-        <v>4</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D76:D78))/3</f>
-        <v>9</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E76:E78))/3</f>
-        <v>6</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F76:F78))/3</f>
-        <v>5.666666666666667</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G76:G78))/3</f>
-        <v>5.666666666666667</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H76:H78))/3</f>
-        <v>6.666666666666667</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I76:I78))/3</f>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J76:J78))/3</f>
-        <v>14.666666666666666</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K76:K78))/3</f>
-        <v>23.666666666666668</v>
+        <v>111.66666666666667</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L76:L78))/3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11159,203 +11228,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C52:C54))/3</f>
-        <v>9.6666666666666661</v>
+        <v>804.33333333333337</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D52:D54))/3</f>
-        <v>12.333333333333334</v>
+        <v>558.66666666666663</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E52:E54))/3</f>
-        <v>18</v>
+        <v>405.66666666666669</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F52:F54))/3</f>
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G52:G54))/3</f>
-        <v>20.666666666666668</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H52:H54))/3</f>
-        <v>25.666666666666668</v>
+        <v>416</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I52:I54))/3</f>
-        <v>29.666666666666668</v>
+        <v>346.33333333333331</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J52:J54))/3</f>
-        <v>28</v>
+        <v>372.66666666666669</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K52:K54))/3</f>
-        <v>33.666666666666664</v>
+        <v>431</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L52:L54))/3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>435.66666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C61:C63))/3</f>
-        <v>5.666666666666667</v>
+        <v>712.66666666666663</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D61:D63))/3</f>
-        <v>5.666666666666667</v>
+        <v>523.66666666666663</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E61:E63))/3</f>
-        <v>9</v>
+        <v>551.33333333333337</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F61:F63))/3</f>
-        <v>4.333333333333333</v>
+        <v>383.66666666666669</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G61:G63))/3</f>
-        <v>5</v>
+        <v>468.33333333333331</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H61:H63))/3</f>
-        <v>6</v>
+        <v>503.66666666666669</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I61:I63))/3</f>
-        <v>9</v>
+        <v>613</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J61:J63))/3</f>
-        <v>14.666666666666666</v>
+        <v>440</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K61:K63))/3</f>
-        <v>23.333333333333332</v>
+        <v>369.33333333333331</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L61:L63))/3</f>
-        <v>44.666666666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C70:C72))/3</f>
-        <v>3.3333333333333335</v>
+        <v>224.66666666666666</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D70:D72))/3</f>
-        <v>8</v>
+        <v>226.33333333333334</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E70:E72))/3</f>
-        <v>8</v>
+        <v>159.66666666666666</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F70:F72))/3</f>
-        <v>8.3333333333333339</v>
+        <v>167.66666666666666</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G70:G72))/3</f>
-        <v>12.333333333333334</v>
+        <v>200.33333333333334</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H70:H72))/3</f>
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I70:I72))/3</f>
-        <v>11.333333333333334</v>
+        <v>218.33333333333334</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J70:J72))/3</f>
-        <v>18.333333333333332</v>
+        <v>192.66666666666666</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K70:K72))/3</f>
-        <v>26.333333333333332</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L70:L72))/3</f>
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11388,184 +11457,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C55:C57))/3</f>
-        <v>3.3333333333333335</v>
+        <v>535.66666666666663</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D55:D57))/3</f>
-        <v>2</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E55:E57))/3</f>
-        <v>1.6666666666666667</v>
+        <v>204.33333333333334</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F55:F57))/3</f>
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G55:G57))/3</f>
-        <v>2.3333333333333335</v>
+        <v>850.33333333333337</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H55:H57))/3</f>
-        <v>7</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I55:I57))/3</f>
-        <v>5.666666666666667</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J55:J57))/3</f>
-        <v>12.666666666666666</v>
+        <v>161.33333333333334</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K55:K57))/3</f>
-        <v>21.333333333333332</v>
+        <v>157</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L55:L57))/3</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C64:C66))/3</f>
-        <v>6</v>
+        <v>446.33333333333331</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D64:D66))/3</f>
-        <v>6.666666666666667</v>
+        <v>307.33333333333331</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E64:E66))/3</f>
-        <v>5.666666666666667</v>
+        <v>227.66666666666666</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F64:F66))/3</f>
-        <v>6</v>
+        <v>182.66666666666666</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G64:G66))/3</f>
-        <v>12</v>
+        <v>193.66666666666666</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H64:H66))/3</f>
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I64:I66))/3</f>
-        <v>11.666666666666666</v>
+        <v>164</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J64:J66))/3</f>
-        <v>15.333333333333334</v>
+        <v>166</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K64:K66))/3</f>
-        <v>25</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L64:L66))/3</f>
-        <v>42.333333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>194.33333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C73:C75))/3</f>
-        <v>1.6666666666666667</v>
+        <v>609.33333333333337</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D73:D75))/3</f>
-        <v>1</v>
+        <v>110.33333333333333</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E73:E75))/3</f>
-        <v>1</v>
+        <v>72.333333333333329</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F73:F75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G73:G75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H73:H75))/3</f>
-        <v>3.6666666666666665</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I73:I75))/3</f>
-        <v>4.666666666666667</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J73:J75))/3</f>
-        <v>9.6666666666666661</v>
+        <v>80</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K73:K75))/3</f>
-        <v>17.666666666666668</v>
+        <v>75</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L73:L75))/3</f>
-        <v>37</v>
+        <v>109.66666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11583,34 +11652,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11643,7 +11712,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11688,7 +11757,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11733,7 +11802,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11778,7 +11847,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11823,23 +11892,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11872,7 +11941,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -11917,7 +11986,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -11962,7 +12031,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12007,7 +12076,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12052,23 +12121,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12101,7 +12170,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12146,7 +12215,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12191,7 +12260,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12236,7 +12305,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12292,34 +12361,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12352,7 +12421,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12397,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12442,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12487,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12532,23 +12601,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12581,7 +12650,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12626,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12671,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12716,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12761,23 +12830,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12810,7 +12879,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12855,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12900,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12945,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13001,34 +13070,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13061,7 +13130,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13106,7 +13175,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13151,7 +13220,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13196,7 +13265,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13241,23 +13310,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13290,7 +13359,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13335,7 +13404,7 @@
         <v>829.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13380,7 +13449,7 @@
         <v>586.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13425,7 +13494,7 @@
         <v>457.66666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13470,23 +13539,23 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13519,7 +13588,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13564,7 +13633,7 @@
         <v>2268.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13609,7 +13678,7 @@
         <v>1165.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13654,7 +13723,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13710,34 +13779,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13770,7 +13839,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13815,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13860,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13905,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13950,23 +14019,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13999,7 +14068,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14044,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14089,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14134,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14179,23 +14248,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14228,7 +14297,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14273,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -14318,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14363,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -14419,34 +14488,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -14479,7 +14548,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -14524,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -14569,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -14614,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -14659,23 +14728,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14708,7 +14777,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14753,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14798,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14843,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14888,23 +14957,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14937,7 +15006,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14982,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -15027,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -15072,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="34">
   <si>
     <t>Core:</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Intel® Core™ i7-8550U CPU @ 1.80GHz (8CPUs)</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-6200U CPU @ 2.30GHz (4CPUs),~2.4GHz</t>
   </si>
 </sst>
 </file>
@@ -258,17 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -805,11 +808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103598336"/>
-        <c:axId val="103600128"/>
+        <c:axId val="105957632"/>
+        <c:axId val="105959424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103598336"/>
+        <c:axId val="105957632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103600128"/>
+        <c:crossAx val="105959424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103600128"/>
+        <c:axId val="105959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103598336"/>
+        <c:crossAx val="105957632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103965056"/>
-        <c:axId val="103966592"/>
+        <c:axId val="106324352"/>
+        <c:axId val="106325888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103965056"/>
+        <c:axId val="106324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103966592"/>
+        <c:crossAx val="106325888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103966592"/>
+        <c:axId val="106325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103965056"/>
+        <c:crossAx val="106324352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2209,11 +2212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104024320"/>
-        <c:axId val="104030208"/>
+        <c:axId val="106383616"/>
+        <c:axId val="106389504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104024320"/>
+        <c:axId val="106383616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104030208"/>
+        <c:crossAx val="106389504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104030208"/>
+        <c:axId val="106389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104024320"/>
+        <c:crossAx val="106383616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4090,7 +4093,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,7 +4129,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4165,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4482,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="N192" sqref="N192"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4499,18 +4502,18 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -4547,7 +4550,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4567,7 +4570,7 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4583,7 +4586,7 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4617,7 +4620,7 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +4636,7 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4667,7 +4670,7 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4683,7 +4686,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4699,7 +4702,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4717,7 +4720,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4736,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4749,7 +4752,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4767,7 +4770,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4783,7 +4786,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4799,7 +4802,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4817,7 +4820,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4833,7 +4836,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4849,7 +4852,7 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4867,7 +4870,7 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4883,7 +4886,7 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4917,7 +4920,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4933,7 +4936,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4949,7 +4952,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4967,7 +4970,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -4983,7 +4986,7 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5002,7 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5017,7 +5020,7 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5036,7 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5049,7 +5052,7 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5067,7 +5070,7 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5083,7 +5086,7 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5102,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5117,7 +5120,7 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5133,7 +5136,7 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5156,18 +5159,18 @@
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
@@ -5204,7 +5207,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5226,7 +5229,7 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -5244,7 +5247,7 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5262,7 +5265,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -5282,7 +5285,7 @@
       <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5318,7 +5321,7 @@
       <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -5338,7 +5341,7 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -5356,7 +5359,7 @@
       <c r="L50" s="15"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5377,7 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -5412,7 +5415,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -5448,7 +5451,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5484,7 +5487,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5522,7 +5525,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -5558,7 +5561,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5597,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -5632,7 +5635,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -5668,7 +5671,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
@@ -5704,7 +5707,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -5742,7 +5745,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5781,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
@@ -5814,7 +5817,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5852,7 +5855,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
@@ -5888,7 +5891,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -5924,7 +5927,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5962,7 +5965,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -5998,7 +6001,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
@@ -6034,7 +6037,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -6072,7 +6075,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -6108,7 +6111,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -6144,7 +6147,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -6182,7 +6185,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
@@ -6218,7 +6221,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -6254,7 +6257,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -6292,7 +6295,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -6328,7 +6331,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
@@ -6371,18 +6374,18 @@
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
@@ -6419,7 +6422,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6441,7 +6444,7 @@
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6459,7 +6462,7 @@
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6477,7 +6480,7 @@
       <c r="L85" s="15"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6497,7 +6500,7 @@
       <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6515,7 +6518,7 @@
       <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6533,7 +6536,7 @@
       <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6553,7 +6556,7 @@
       <c r="L89" s="15"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6571,7 +6574,7 @@
       <c r="L90" s="15"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6627,7 +6630,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6663,7 +6666,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6699,7 +6702,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6737,7 +6740,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6776,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6809,7 +6812,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6847,7 +6850,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6883,7 +6886,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6919,7 +6922,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6957,7 +6960,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -6993,7 +6996,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7029,7 +7032,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7067,7 +7070,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7103,7 +7106,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7139,7 +7142,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7177,7 +7180,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7213,7 +7216,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7249,7 +7252,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7287,7 +7290,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7323,7 +7326,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7362,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7397,7 +7400,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7433,7 +7436,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7469,7 +7472,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7507,7 +7510,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7543,7 +7546,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7586,18 +7589,18 @@
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="13"/>
     </row>
     <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
@@ -7634,7 +7637,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7654,7 +7657,7 @@
       <c r="L123" s="15"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7670,7 +7673,7 @@
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7686,7 +7689,7 @@
       <c r="L125" s="15"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7704,7 +7707,7 @@
       <c r="L126" s="15"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7720,7 +7723,7 @@
       <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7736,7 +7739,7 @@
       <c r="L128" s="15"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7754,7 +7757,7 @@
       <c r="L129" s="15"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7770,7 +7773,7 @@
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="10"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7786,7 +7789,7 @@
       <c r="L131" s="15"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7804,7 +7807,7 @@
       <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7820,7 +7823,7 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7836,7 +7839,7 @@
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7854,7 +7857,7 @@
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7870,7 +7873,7 @@
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7886,7 +7889,7 @@
       <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7904,7 +7907,7 @@
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7920,7 +7923,7 @@
       <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="10"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7936,7 +7939,7 @@
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7954,7 +7957,7 @@
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7970,7 +7973,7 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7986,7 +7989,7 @@
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8004,7 +8007,7 @@
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8020,7 +8023,7 @@
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8036,7 +8039,7 @@
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8054,7 +8057,7 @@
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8070,7 +8073,7 @@
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8086,7 +8089,7 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8104,7 +8107,7 @@
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8120,7 +8123,7 @@
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8136,7 +8139,7 @@
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8154,7 +8157,7 @@
       <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8170,7 +8173,7 @@
       <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8189,7 @@
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8204,7 +8207,7 @@
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8220,7 +8223,7 @@
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8243,18 +8246,18 @@
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
+      <c r="C161" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="13"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -8291,7 +8294,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8313,7 +8316,7 @@
       <c r="L163" s="15"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8331,7 +8334,7 @@
       <c r="L164" s="15"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8349,7 +8352,7 @@
       <c r="L165" s="15"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8369,7 +8372,7 @@
       <c r="L166" s="15"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+      <c r="A167" s="10"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8387,7 +8390,7 @@
       <c r="L167" s="15"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8405,7 +8408,7 @@
       <c r="L168" s="15"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8425,7 +8428,7 @@
       <c r="L169" s="15"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8443,7 +8446,7 @@
       <c r="L170" s="15"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8461,7 +8464,7 @@
       <c r="L171" s="15"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8499,7 +8502,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8535,7 +8538,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8571,7 +8574,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8609,7 +8612,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8648,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8681,7 +8684,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8719,7 +8722,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8755,7 +8758,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8791,7 +8794,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8829,7 +8832,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8865,7 +8868,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8901,7 +8904,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
+      <c r="A184" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8939,7 +8942,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8975,7 +8978,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -9011,7 +9014,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9049,7 +9052,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -9085,7 +9088,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -9121,7 +9124,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9159,7 +9162,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -9195,7 +9198,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -9231,7 +9234,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9269,7 +9272,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -9305,7 +9308,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -9341,7 +9344,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9379,7 +9382,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -9415,7 +9418,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -9458,18 +9461,18 @@
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
@@ -9506,7 +9509,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -9526,7 +9529,7 @@
       <c r="L203" s="15"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -9542,7 +9545,7 @@
       <c r="L204" s="15"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -9558,7 +9561,7 @@
       <c r="L205" s="15"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -9576,7 +9579,7 @@
       <c r="L206" s="15"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -9592,7 +9595,7 @@
       <c r="L207" s="15"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
+      <c r="A208" s="10"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9608,7 +9611,7 @@
       <c r="L208" s="15"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -9626,7 +9629,7 @@
       <c r="L209" s="15"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -9642,7 +9645,7 @@
       <c r="L210" s="15"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
+      <c r="A211" s="10"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -9658,7 +9661,7 @@
       <c r="L211" s="15"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9676,7 +9679,7 @@
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9692,7 +9695,7 @@
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
+      <c r="A214" s="10"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9708,7 +9711,7 @@
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9726,7 +9729,7 @@
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9742,7 +9745,7 @@
       <c r="L216" s="5"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9758,7 +9761,7 @@
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9776,7 +9779,7 @@
       <c r="L218" s="5"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9792,7 +9795,7 @@
       <c r="L219" s="5"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9808,7 +9811,7 @@
       <c r="L220" s="5"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -9826,7 +9829,7 @@
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -9842,7 +9845,7 @@
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -9858,7 +9861,7 @@
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -9876,7 +9879,7 @@
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -9892,7 +9895,7 @@
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9908,7 +9911,7 @@
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -9926,7 +9929,7 @@
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -9942,7 +9945,7 @@
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +9961,7 @@
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -9976,7 +9979,7 @@
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -9992,7 +9995,7 @@
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -10008,7 +10011,7 @@
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+      <c r="A233" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -10026,7 +10029,7 @@
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
+      <c r="A234" s="10"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -10042,7 +10045,7 @@
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -10058,7 +10061,7 @@
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
+      <c r="A236" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -10076,7 +10079,7 @@
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
+      <c r="A237" s="10"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -10092,7 +10095,7 @@
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
+      <c r="A238" s="11"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -10115,18 +10118,18 @@
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="11"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="13"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -10163,7 +10166,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
+      <c r="A243" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -10183,7 +10186,7 @@
       <c r="L243" s="15"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -10199,7 +10202,7 @@
       <c r="L244" s="15"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -10215,7 +10218,7 @@
       <c r="L245" s="15"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -10233,7 +10236,7 @@
       <c r="L246" s="15"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
+      <c r="A247" s="10"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -10249,7 +10252,7 @@
       <c r="L247" s="15"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -10265,7 +10268,7 @@
       <c r="L248" s="15"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
+      <c r="A249" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -10283,7 +10286,7 @@
       <c r="L249" s="15"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -10299,7 +10302,7 @@
       <c r="L250" s="15"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -10315,7 +10318,7 @@
       <c r="L251" s="15"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
+      <c r="A252" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -10333,7 +10336,7 @@
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -10349,7 +10352,7 @@
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -10365,7 +10368,7 @@
       <c r="L254" s="5"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -10383,7 +10386,7 @@
       <c r="L255" s="5"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
+      <c r="A256" s="10"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -10399,7 +10402,7 @@
       <c r="L256" s="5"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="12"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -10415,7 +10418,7 @@
       <c r="L257" s="5"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+      <c r="A258" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -10433,7 +10436,7 @@
       <c r="L258" s="5"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -10449,7 +10452,7 @@
       <c r="L259" s="5"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -10465,7 +10468,7 @@
       <c r="L260" s="5"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -10483,7 +10486,7 @@
       <c r="L261" s="5"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -10499,7 +10502,7 @@
       <c r="L262" s="5"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
+      <c r="A263" s="10"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -10515,7 +10518,7 @@
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
+      <c r="A264" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -10533,7 +10536,7 @@
       <c r="L264" s="5"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -10549,7 +10552,7 @@
       <c r="L265" s="5"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
+      <c r="A266" s="10"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -10565,7 +10568,7 @@
       <c r="L266" s="5"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
+      <c r="A267" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -10583,7 +10586,7 @@
       <c r="L267" s="5"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
+      <c r="A268" s="10"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -10599,7 +10602,7 @@
       <c r="L268" s="5"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="12"/>
+      <c r="A269" s="10"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -10615,7 +10618,7 @@
       <c r="L269" s="5"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
+      <c r="A270" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -10633,7 +10636,7 @@
       <c r="L270" s="5"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
+      <c r="A271" s="10"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -10649,7 +10652,7 @@
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="12"/>
+      <c r="A272" s="10"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -10665,7 +10668,7 @@
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
+      <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -10683,7 +10686,7 @@
       <c r="L273" s="5"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
+      <c r="A274" s="10"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -10699,7 +10702,7 @@
       <c r="L274" s="5"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="12"/>
+      <c r="A275" s="10"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -10715,7 +10718,7 @@
       <c r="L275" s="5"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
+      <c r="A276" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -10733,7 +10736,7 @@
       <c r="L276" s="5"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="12"/>
+      <c r="A277" s="10"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -10749,7 +10752,7 @@
       <c r="L277" s="5"/>
     </row>
     <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="13"/>
+      <c r="A278" s="11"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -10766,88 +10769,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -10864,6 +10785,88 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10886,16 +10889,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -11115,16 +11118,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -11344,16 +11347,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -11599,16 +11602,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -11828,16 +11831,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -12057,16 +12060,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -12308,16 +12311,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -12537,16 +12540,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -12766,16 +12769,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -13017,16 +13020,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -13246,16 +13249,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -13475,16 +13478,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -13726,16 +13729,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -13955,16 +13958,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -14184,16 +14187,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -14435,16 +14438,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -14664,16 +14667,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -14893,16 +14896,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schien\git\Concurrent-SkipList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +139,7 @@
     <t>Intel® Core™ i7-8550U CPU @ 1.80GHz (8CPUs)</t>
   </si>
   <si>
-    <t>Intel® Core™ i5-6200U CPU @ 2.30GHz (4CPUs),~2.4GHz</t>
+    <t>Intel® Core™ i5-7200U CPU @ 2.50GHz (4 CPUs), ~2.7GHz</t>
   </si>
 </sst>
 </file>
@@ -250,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,23 +266,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +358,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -426,34 +457,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,34 +568,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>535.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>204.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>850.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>92.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>144.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.666666666666666</c:v>
+                  <c:v>161.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,34 +679,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>446.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>307.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>227.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>182.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>193.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.333333333333334</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>177.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.333333333333336</c:v>
+                  <c:v>194.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,34 +790,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>609.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>110.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>72.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>41.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>59.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>109.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,13 +837,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105957632"/>
-        <c:axId val="105959424"/>
+        <c:axId val="-1792757360"/>
+        <c:axId val="-1792755184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105957632"/>
+        <c:axId val="-1792757360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105959424"/>
+        <c:crossAx val="-1792755184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105959424"/>
+        <c:axId val="-1792755184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105957632"/>
+        <c:crossAx val="-1792757360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1049,6 +1079,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1128,34 +1178,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,34 +1289,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>804.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>558.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>405.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>292.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.666666666666668</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.666666666666668</c:v>
+                  <c:v>346.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>372.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.666666666666664</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>435.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,34 +1400,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>712.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>523.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>551.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>383.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>468.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>503.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>369.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,34 +1511,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>224.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>226.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>167.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>200.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.333333333333334</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.333333333333332</c:v>
+                  <c:v>192.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.333333333333332</c:v>
+                  <c:v>197.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,13 +1558,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106324352"/>
-        <c:axId val="106325888"/>
+        <c:axId val="-1792762256"/>
+        <c:axId val="-1792752464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106324352"/>
+        <c:axId val="-1792762256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106325888"/>
+        <c:crossAx val="-1792752464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106325888"/>
+        <c:axId val="-1792752464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106324352"/>
+        <c:crossAx val="-1792762256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,6 +1800,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1830,34 +1899,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,34 +2010,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>1009.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>607.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>437.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>430.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3333333333333339</c:v>
+                  <c:v>473.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.666666666666666</c:v>
+                  <c:v>488.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>484.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>461.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,34 +2121,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>596.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>272.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>210.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>173.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>131.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>183.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>231.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.666666666666664</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,34 +2232,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>256.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>155.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>129.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>86.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>88.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.666666666666668</c:v>
+                  <c:v>111.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,13 +2279,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106383616"/>
-        <c:axId val="106389504"/>
+        <c:axId val="-1792761712"/>
+        <c:axId val="-1623441760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106383616"/>
+        <c:axId val="-1792761712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106389504"/>
+        <c:crossAx val="-1623441760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106389504"/>
+        <c:axId val="-1623441760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106383616"/>
+        <c:crossAx val="-1792761712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4475,7 +4543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4485,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,27 +4563,27 @@
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4550,7 +4618,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4570,7 +4638,7 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4654,7 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4602,7 +4670,7 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4620,7 +4688,7 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4636,7 +4704,7 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4652,7 +4720,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4670,7 +4738,7 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +4754,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4770,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4720,7 +4788,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4736,7 +4804,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4820,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4770,7 +4838,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4786,7 +4854,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4802,7 +4870,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4820,7 +4888,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4904,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4920,7 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4870,7 +4938,7 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +4954,7 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4970,7 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4920,7 +4988,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4936,7 +5004,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4952,7 +5020,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4970,7 +5038,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -4986,7 +5054,7 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5002,7 +5070,7 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5020,7 +5088,7 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5036,7 +5104,7 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5052,7 +5120,7 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5070,7 +5138,7 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5154,7 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5102,7 +5170,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5120,7 +5188,7 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5204,7 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5151,7 +5219,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
@@ -5159,20 +5227,20 @@
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5207,1187 +5275,1187 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="9">
-        <v>2</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
+        <v>215</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="4">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
+        <v>910</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="9">
-        <v>4</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
+        <v>1013</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9">
-        <v>3</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
+        <v>904</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="9">
-        <v>12</v>
+        <v>645</v>
       </c>
       <c r="D52" s="4">
-        <v>14</v>
+        <v>575</v>
       </c>
       <c r="E52" s="4">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="F52" s="9">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="G52" s="9">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="H52" s="9">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="I52" s="9">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="J52" s="9">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="K52" s="9">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="L52" s="5">
-        <v>57</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="9">
-        <v>6</v>
+        <v>814</v>
       </c>
       <c r="D53" s="4">
-        <v>6</v>
+        <v>568</v>
       </c>
       <c r="E53" s="4">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="F53" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="G53" s="9">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="H53" s="9">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="I53" s="9">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="J53" s="9">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="K53" s="9">
-        <v>33</v>
+        <v>398</v>
       </c>
       <c r="L53" s="5">
-        <v>53</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="9">
-        <v>11</v>
+        <v>954</v>
       </c>
       <c r="D54" s="9">
-        <v>17</v>
+        <v>533</v>
       </c>
       <c r="E54" s="9">
-        <v>21</v>
+        <v>470</v>
       </c>
       <c r="F54" s="9">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="G54" s="9">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="H54" s="9">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="I54" s="9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="J54" s="9">
-        <v>21</v>
+        <v>453</v>
       </c>
       <c r="K54" s="9">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="L54" s="5">
-        <v>52</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="F55" s="9">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="G55" s="9">
-        <v>3</v>
+        <v>842</v>
       </c>
       <c r="H55" s="9">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I55" s="9">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="J55" s="9">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="K55" s="9">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="L55" s="5">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="9">
-        <v>3</v>
+        <v>592</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="E56" s="4">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="F56" s="9">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>838</v>
       </c>
       <c r="H56" s="9">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J56" s="9">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="K56" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="L56" s="5">
-        <v>49</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="9">
-        <v>3</v>
+        <v>514</v>
       </c>
       <c r="D57" s="9">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="E57" s="9">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="F57" s="9">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="G57" s="9">
-        <v>2</v>
+        <v>871</v>
       </c>
       <c r="H57" s="9">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="I57" s="9">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J57" s="9">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="K57" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="L57" s="5">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="4">
-        <v>9</v>
+        <v>956</v>
       </c>
       <c r="D58" s="4">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="E58" s="4">
-        <v>5</v>
+        <v>449</v>
       </c>
       <c r="F58" s="9">
-        <v>9</v>
+        <v>459</v>
       </c>
       <c r="G58" s="9">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="H58" s="9">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="I58" s="9">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="J58" s="9">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="K58" s="9">
-        <v>26</v>
+        <v>453</v>
       </c>
       <c r="L58" s="5">
-        <v>44</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4">
-        <v>9</v>
+        <v>1001</v>
       </c>
       <c r="D59" s="4">
-        <v>5</v>
+        <v>590</v>
       </c>
       <c r="E59" s="4">
-        <v>5</v>
+        <v>484</v>
       </c>
       <c r="F59" s="9">
-        <v>7</v>
+        <v>426</v>
       </c>
       <c r="G59" s="9">
-        <v>5</v>
+        <v>449</v>
       </c>
       <c r="H59" s="9">
-        <v>5</v>
+        <v>431</v>
       </c>
       <c r="I59" s="9">
-        <v>8</v>
+        <v>495</v>
       </c>
       <c r="J59" s="9">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="K59" s="9">
-        <v>22</v>
+        <v>526</v>
       </c>
       <c r="L59" s="5">
-        <v>42</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="9">
-        <v>7</v>
+        <v>1072</v>
       </c>
       <c r="D60" s="9">
-        <v>6</v>
+        <v>635</v>
       </c>
       <c r="E60" s="9">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="F60" s="9">
-        <v>9</v>
+        <v>428</v>
       </c>
       <c r="G60" s="9">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="H60" s="9">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="I60" s="9">
-        <v>9</v>
+        <v>476</v>
       </c>
       <c r="J60" s="9">
-        <v>17</v>
+        <v>541</v>
       </c>
       <c r="K60" s="9">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="L60" s="5">
-        <v>44</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="9">
-        <v>5</v>
+        <v>689</v>
       </c>
       <c r="D61" s="9">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="E61" s="9">
-        <v>10</v>
+        <v>612</v>
       </c>
       <c r="F61" s="9">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="G61" s="9">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="H61" s="9">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="I61" s="9">
-        <v>8</v>
+        <v>553</v>
       </c>
       <c r="J61" s="9">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="K61" s="9">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="L61" s="5">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="9">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="D62" s="9">
-        <v>6</v>
+        <v>569</v>
       </c>
       <c r="E62" s="9">
-        <v>8</v>
+        <v>542</v>
       </c>
       <c r="F62" s="9">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="H62" s="9">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="I62" s="9">
-        <v>8</v>
+        <v>587</v>
       </c>
       <c r="J62" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="K62" s="9">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="L62" s="5">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="9">
-        <v>6</v>
+        <v>799</v>
       </c>
       <c r="D63" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="E63" s="9">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="F63" s="9">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="G63" s="9">
-        <v>5</v>
+        <v>587</v>
       </c>
       <c r="H63" s="9">
-        <v>6</v>
+        <v>507</v>
       </c>
       <c r="I63" s="9">
-        <v>11</v>
+        <v>699</v>
       </c>
       <c r="J63" s="9">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="K63" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L63" s="5">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="4">
-        <v>6</v>
+        <v>430</v>
       </c>
       <c r="D64" s="4">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="E64" s="4">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F64" s="9">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="G64" s="9">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="H64" s="9">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="J64" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="K64" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="L64" s="5">
-        <v>43</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="9">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="D65" s="9">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="E65" s="9">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="F65" s="9">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="G65" s="9">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="H65" s="9">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I65" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="J65" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="K65" s="9">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="L65" s="5">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="9">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="D66" s="9">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="E66" s="9">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="F66" s="9">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="G66" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="H66" s="9">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="I66" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J66" s="9">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K66" s="9">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="L66" s="5">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="4">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="D67" s="4">
-        <v>4</v>
+        <v>469</v>
       </c>
       <c r="E67" s="4">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="F67" s="9">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G67" s="9">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="H67" s="9">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="I67" s="9">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="J67" s="9">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="K67" s="9">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="L67" s="5">
-        <v>39</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="4">
-        <v>3</v>
+        <v>518</v>
       </c>
       <c r="D68" s="4">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="E68" s="4">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="F68" s="9">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G68" s="9">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="H68" s="9">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="I68" s="9">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="J68" s="9">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="K68" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="L68" s="5">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="9">
-        <v>4</v>
+        <v>705</v>
       </c>
       <c r="D69" s="9">
-        <v>3</v>
+        <v>746</v>
       </c>
       <c r="E69" s="9">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="F69" s="9">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="G69" s="9">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="H69" s="9">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J69" s="9">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="K69" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="L69" s="5">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="9">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D70" s="9">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E70" s="9">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="F70" s="9">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="G70" s="9">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="H70" s="9">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="I70" s="9">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="J70" s="9">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="K70" s="9">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="L70" s="5">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="9">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="D71" s="9">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="E71" s="9">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="F71" s="9">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G71" s="9">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="H71" s="9">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="I71" s="9">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="J71" s="9">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="K71" s="9">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="L71" s="5">
-        <v>47</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="9">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D72" s="9">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="E72" s="9">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F72" s="9">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="G72" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="H72" s="9">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="I72" s="9">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="J72" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="K72" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="L72" s="5">
-        <v>46</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="4">
-        <v>2</v>
+        <v>563</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F73" s="9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G73" s="9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H73" s="9">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="J73" s="9">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K73" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L73" s="5">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="9">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D74" s="9">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E74" s="9">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F74" s="9">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G74" s="9">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H74" s="9">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J74" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K74" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L74" s="5">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="9">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="D75" s="9">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="E75" s="9">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F75" s="9">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G75" s="9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H75" s="9">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J75" s="9">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="K75" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="L75" s="5">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="4">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="D76" s="4">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E76" s="4">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="F76" s="9">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="H76" s="9">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J76" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K76" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="L76" s="5">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="4">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="D77" s="4">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="E77" s="4">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="F77" s="9">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="G77" s="9">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H77" s="9">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="J77" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="K77" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L77" s="5">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="7">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="D78" s="7">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="E78" s="7">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F78" s="7">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G78" s="7">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="H78" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="I78" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J78" s="7">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="K78" s="7">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="L78" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="13"/>
-    </row>
-    <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6422,7 +6490,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6444,7 +6512,7 @@
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6462,7 +6530,7 @@
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6480,7 +6548,7 @@
       <c r="L85" s="15"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6500,7 +6568,7 @@
       <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6518,7 +6586,7 @@
       <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6604,7 @@
       <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6556,7 +6624,7 @@
       <c r="L89" s="15"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6574,7 +6642,7 @@
       <c r="L90" s="15"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6592,7 +6660,7 @@
       <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6630,7 +6698,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6666,7 +6734,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +6770,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6740,7 +6808,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6776,7 +6844,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6812,7 +6880,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6850,7 +6918,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6886,7 +6954,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6990,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6960,7 +7028,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -6996,7 +7064,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7032,7 +7100,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7070,7 +7138,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7106,7 +7174,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7142,7 +7210,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7180,7 +7248,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +7284,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7252,7 +7320,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7290,7 +7358,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +7394,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7362,7 +7430,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7400,7 +7468,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7436,7 +7504,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7472,7 +7540,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7510,7 +7578,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7546,7 +7614,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7581,28 +7649,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="13"/>
-    </row>
-    <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7637,7 +7705,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7657,7 +7725,7 @@
       <c r="L123" s="15"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7673,7 +7741,7 @@
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7689,7 +7757,7 @@
       <c r="L125" s="15"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7707,7 +7775,7 @@
       <c r="L126" s="15"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7723,7 +7791,7 @@
       <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7739,7 +7807,7 @@
       <c r="L128" s="15"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7757,7 +7825,7 @@
       <c r="L129" s="15"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7773,7 +7841,7 @@
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7789,7 +7857,7 @@
       <c r="L131" s="15"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7807,7 +7875,7 @@
       <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7823,7 +7891,7 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7839,7 +7907,7 @@
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7857,7 +7925,7 @@
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7873,7 +7941,7 @@
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7889,7 +7957,7 @@
       <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7907,7 +7975,7 @@
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7923,7 +7991,7 @@
       <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7939,7 +8007,7 @@
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7957,7 +8025,7 @@
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7973,7 +8041,7 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7989,7 +8057,7 @@
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8007,7 +8075,7 @@
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8023,7 +8091,7 @@
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8107,7 @@
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8057,7 +8125,7 @@
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8073,7 +8141,7 @@
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8157,7 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8107,7 +8175,7 @@
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8123,7 +8191,7 @@
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8139,7 +8207,7 @@
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8157,7 +8225,7 @@
       <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +8241,7 @@
       <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8189,7 +8257,7 @@
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8207,7 +8275,7 @@
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8223,7 +8291,7 @@
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8246,18 +8314,18 @@
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="13"/>
+      <c r="C161" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="11"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -8294,7 +8362,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8316,7 +8384,7 @@
       <c r="L163" s="15"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8334,7 +8402,7 @@
       <c r="L164" s="15"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8352,7 +8420,7 @@
       <c r="L165" s="15"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8372,7 +8440,7 @@
       <c r="L166" s="15"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8390,7 +8458,7 @@
       <c r="L167" s="15"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8408,7 +8476,7 @@
       <c r="L168" s="15"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8428,7 +8496,7 @@
       <c r="L169" s="15"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8514,7 @@
       <c r="L170" s="15"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8464,7 +8532,7 @@
       <c r="L171" s="15"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8502,7 +8570,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8538,7 +8606,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="12"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8574,7 +8642,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8612,7 +8680,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+      <c r="A176" s="12"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8648,7 +8716,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8684,7 +8752,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8722,7 +8790,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8758,7 +8826,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="12"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8794,7 +8862,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8832,7 +8900,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8868,7 +8936,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8904,7 +8972,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8942,7 +9010,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
+      <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8978,7 +9046,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -9014,7 +9082,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9052,7 +9120,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -9088,7 +9156,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -9124,7 +9192,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9162,7 +9230,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -9198,7 +9266,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -9234,7 +9302,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9272,7 +9340,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -9308,7 +9376,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -9344,7 +9412,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9382,7 +9450,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -9418,7 +9486,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -9461,18 +9529,18 @@
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="13"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="11"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
@@ -9509,7 +9577,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -9529,7 +9597,7 @@
       <c r="L203" s="15"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -9545,7 +9613,7 @@
       <c r="L204" s="15"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
+      <c r="A205" s="12"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -9561,7 +9629,7 @@
       <c r="L205" s="15"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -9579,7 +9647,7 @@
       <c r="L206" s="15"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
+      <c r="A207" s="12"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -9595,7 +9663,7 @@
       <c r="L207" s="15"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
+      <c r="A208" s="12"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9611,7 +9679,7 @@
       <c r="L208" s="15"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+      <c r="A209" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -9629,7 +9697,7 @@
       <c r="L209" s="15"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="12"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -9645,7 +9713,7 @@
       <c r="L210" s="15"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="12"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -9661,7 +9729,7 @@
       <c r="L211" s="15"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9679,7 +9747,7 @@
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
+      <c r="A213" s="12"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9695,7 +9763,7 @@
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
+      <c r="A214" s="12"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9711,7 +9779,7 @@
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9729,7 +9797,7 @@
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
+      <c r="A216" s="12"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9745,7 +9813,7 @@
       <c r="L216" s="5"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
+      <c r="A217" s="12"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9761,7 +9829,7 @@
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9779,7 +9847,7 @@
       <c r="L218" s="5"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
+      <c r="A219" s="12"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9795,7 +9863,7 @@
       <c r="L219" s="5"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
+      <c r="A220" s="12"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9811,7 +9879,7 @@
       <c r="L220" s="5"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+      <c r="A221" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -9829,7 +9897,7 @@
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
+      <c r="A222" s="12"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -9845,7 +9913,7 @@
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
+      <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -9861,7 +9929,7 @@
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -9879,7 +9947,7 @@
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+      <c r="A225" s="12"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -9895,7 +9963,7 @@
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
+      <c r="A226" s="12"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9911,7 +9979,7 @@
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -9929,7 +9997,7 @@
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="12"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -9945,7 +10013,7 @@
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
+      <c r="A229" s="12"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9961,7 +10029,7 @@
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -9979,7 +10047,7 @@
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="12"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -9995,7 +10063,7 @@
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="12"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -10011,7 +10079,7 @@
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -10029,7 +10097,7 @@
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
+      <c r="A234" s="12"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -10045,7 +10113,7 @@
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="12"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -10061,7 +10129,7 @@
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -10079,7 +10147,7 @@
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
+      <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -10095,7 +10163,7 @@
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="11"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -10118,18 +10186,18 @@
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="13"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="11"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -10166,7 +10234,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -10186,7 +10254,7 @@
       <c r="L243" s="15"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
+      <c r="A244" s="12"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -10202,7 +10270,7 @@
       <c r="L244" s="15"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="12"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -10218,7 +10286,7 @@
       <c r="L245" s="15"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -10236,7 +10304,7 @@
       <c r="L246" s="15"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
+      <c r="A247" s="12"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -10252,7 +10320,7 @@
       <c r="L247" s="15"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
+      <c r="A248" s="12"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -10268,7 +10336,7 @@
       <c r="L248" s="15"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -10286,7 +10354,7 @@
       <c r="L249" s="15"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="12"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -10302,7 +10370,7 @@
       <c r="L250" s="15"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="12"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -10318,7 +10386,7 @@
       <c r="L251" s="15"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
+      <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -10336,7 +10404,7 @@
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="12"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -10352,7 +10420,7 @@
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
+      <c r="A254" s="12"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -10368,7 +10436,7 @@
       <c r="L254" s="5"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -10386,7 +10454,7 @@
       <c r="L255" s="5"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
+      <c r="A256" s="12"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -10402,7 +10470,7 @@
       <c r="L256" s="5"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="12"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10486,7 @@
       <c r="L257" s="5"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -10436,7 +10504,7 @@
       <c r="L258" s="5"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="12"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -10452,7 +10520,7 @@
       <c r="L259" s="5"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
+      <c r="A260" s="12"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -10468,7 +10536,7 @@
       <c r="L260" s="5"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -10486,7 +10554,7 @@
       <c r="L261" s="5"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="12"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -10502,7 +10570,7 @@
       <c r="L262" s="5"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
+      <c r="A263" s="12"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -10518,7 +10586,7 @@
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -10536,7 +10604,7 @@
       <c r="L264" s="5"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
+      <c r="A265" s="12"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -10552,7 +10620,7 @@
       <c r="L265" s="5"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
+      <c r="A266" s="12"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -10568,7 +10636,7 @@
       <c r="L266" s="5"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -10586,7 +10654,7 @@
       <c r="L267" s="5"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
+      <c r="A268" s="12"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -10602,7 +10670,7 @@
       <c r="L268" s="5"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
+      <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -10618,7 +10686,7 @@
       <c r="L269" s="5"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+      <c r="A270" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -10636,7 +10704,7 @@
       <c r="L270" s="5"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="12"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -10652,7 +10720,7 @@
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="12"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -10668,7 +10736,7 @@
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -10686,7 +10754,7 @@
       <c r="L273" s="5"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
+      <c r="A274" s="12"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -10702,7 +10770,7 @@
       <c r="L274" s="5"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
+      <c r="A275" s="12"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -10718,7 +10786,7 @@
       <c r="L275" s="5"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -10736,7 +10804,7 @@
       <c r="L276" s="5"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
+      <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -10752,7 +10820,7 @@
       <c r="L277" s="5"/>
     </row>
     <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="11"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -10769,6 +10837,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -10785,88 +10935,6 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10885,22 +10953,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10933,203 +11001,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>942.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C58:C60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>1009.6666666666666</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D58:D60))/3</f>
-        <v>5.666666666666667</v>
+        <v>607.66666666666663</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E58:E60))/3</f>
-        <v>4.666666666666667</v>
+        <v>456</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F58:F60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>437.66666666666669</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G58:G60))/3</f>
-        <v>4.333333333333333</v>
+        <v>444</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H58:H60))/3</f>
-        <v>4.666666666666667</v>
+        <v>430.66666666666669</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I58:I60))/3</f>
-        <v>9.3333333333333339</v>
+        <v>473.66666666666669</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J58:J60))/3</f>
-        <v>15.666666666666666</v>
+        <v>488.66666666666669</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K58:K60))/3</f>
-        <v>23.333333333333332</v>
+        <v>484.66666666666669</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L58:L60))/3</f>
-        <v>43.333333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>461.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C67:C69))/3</f>
-        <v>3.3333333333333335</v>
+        <v>596.66666666666663</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D67:D69))/3</f>
-        <v>3</v>
+        <v>554</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E67:E69))/3</f>
-        <v>2.6666666666666665</v>
+        <v>272.33333333333331</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F67:F69))/3</f>
-        <v>3.6666666666666665</v>
+        <v>210.33333333333334</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G67:G69))/3</f>
-        <v>4</v>
+        <v>173.33333333333334</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H67:H69))/3</f>
-        <v>4</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I67:I69))/3</f>
-        <v>6.666666666666667</v>
+        <v>157</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J67:J69))/3</f>
-        <v>10</v>
+        <v>183.66666666666666</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K67:K69))/3</f>
-        <v>19</v>
+        <v>231.33333333333334</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L67:L69))/3</f>
-        <v>42.666666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C76:C78))/3</f>
-        <v>4</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D76:D78))/3</f>
-        <v>9</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E76:E78))/3</f>
-        <v>6</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F76:F78))/3</f>
-        <v>5.666666666666667</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G76:G78))/3</f>
-        <v>5.666666666666667</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H76:H78))/3</f>
-        <v>6.666666666666667</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I76:I78))/3</f>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J76:J78))/3</f>
-        <v>14.666666666666666</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K76:K78))/3</f>
-        <v>23.666666666666668</v>
+        <v>111.66666666666667</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L76:L78))/3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11162,203 +11230,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C52:C54))/3</f>
-        <v>9.6666666666666661</v>
+        <v>804.33333333333337</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D52:D54))/3</f>
-        <v>12.333333333333334</v>
+        <v>558.66666666666663</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E52:E54))/3</f>
-        <v>18</v>
+        <v>405.66666666666669</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F52:F54))/3</f>
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G52:G54))/3</f>
-        <v>20.666666666666668</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H52:H54))/3</f>
-        <v>25.666666666666668</v>
+        <v>416</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I52:I54))/3</f>
-        <v>29.666666666666668</v>
+        <v>346.33333333333331</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J52:J54))/3</f>
-        <v>28</v>
+        <v>372.66666666666669</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K52:K54))/3</f>
-        <v>33.666666666666664</v>
+        <v>431</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L52:L54))/3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>435.66666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C61:C63))/3</f>
-        <v>5.666666666666667</v>
+        <v>712.66666666666663</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D61:D63))/3</f>
-        <v>5.666666666666667</v>
+        <v>523.66666666666663</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E61:E63))/3</f>
-        <v>9</v>
+        <v>551.33333333333337</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F61:F63))/3</f>
-        <v>4.333333333333333</v>
+        <v>383.66666666666669</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G61:G63))/3</f>
-        <v>5</v>
+        <v>468.33333333333331</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H61:H63))/3</f>
-        <v>6</v>
+        <v>503.66666666666669</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I61:I63))/3</f>
-        <v>9</v>
+        <v>613</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J61:J63))/3</f>
-        <v>14.666666666666666</v>
+        <v>440</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K61:K63))/3</f>
-        <v>23.333333333333332</v>
+        <v>369.33333333333331</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L61:L63))/3</f>
-        <v>44.666666666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C70:C72))/3</f>
-        <v>3.3333333333333335</v>
+        <v>224.66666666666666</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D70:D72))/3</f>
-        <v>8</v>
+        <v>226.33333333333334</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E70:E72))/3</f>
-        <v>8</v>
+        <v>159.66666666666666</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F70:F72))/3</f>
-        <v>8.3333333333333339</v>
+        <v>167.66666666666666</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G70:G72))/3</f>
-        <v>12.333333333333334</v>
+        <v>200.33333333333334</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H70:H72))/3</f>
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I70:I72))/3</f>
-        <v>11.333333333333334</v>
+        <v>218.33333333333334</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J70:J72))/3</f>
-        <v>18.333333333333332</v>
+        <v>192.66666666666666</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K70:K72))/3</f>
-        <v>26.333333333333332</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L70:L72))/3</f>
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11391,184 +11459,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C55:C57))/3</f>
-        <v>3.3333333333333335</v>
+        <v>535.66666666666663</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D55:D57))/3</f>
-        <v>2</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E55:E57))/3</f>
-        <v>1.6666666666666667</v>
+        <v>204.33333333333334</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F55:F57))/3</f>
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G55:G57))/3</f>
-        <v>2.3333333333333335</v>
+        <v>850.33333333333337</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H55:H57))/3</f>
-        <v>7</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I55:I57))/3</f>
-        <v>5.666666666666667</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J55:J57))/3</f>
-        <v>12.666666666666666</v>
+        <v>161.33333333333334</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K55:K57))/3</f>
-        <v>21.333333333333332</v>
+        <v>157</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L55:L57))/3</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C64:C66))/3</f>
-        <v>6</v>
+        <v>446.33333333333331</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D64:D66))/3</f>
-        <v>6.666666666666667</v>
+        <v>307.33333333333331</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E64:E66))/3</f>
-        <v>5.666666666666667</v>
+        <v>227.66666666666666</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F64:F66))/3</f>
-        <v>6</v>
+        <v>182.66666666666666</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G64:G66))/3</f>
-        <v>12</v>
+        <v>193.66666666666666</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H64:H66))/3</f>
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I64:I66))/3</f>
-        <v>11.666666666666666</v>
+        <v>164</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J64:J66))/3</f>
-        <v>15.333333333333334</v>
+        <v>166</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K64:K66))/3</f>
-        <v>25</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L64:L66))/3</f>
-        <v>42.333333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>194.33333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C73:C75))/3</f>
-        <v>1.6666666666666667</v>
+        <v>609.33333333333337</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D73:D75))/3</f>
-        <v>1</v>
+        <v>110.33333333333333</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E73:E75))/3</f>
-        <v>1</v>
+        <v>72.333333333333329</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F73:F75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G73:G75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H73:H75))/3</f>
-        <v>3.6666666666666665</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I73:I75))/3</f>
-        <v>4.666666666666667</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J73:J75))/3</f>
-        <v>9.6666666666666661</v>
+        <v>80</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K73:K75))/3</f>
-        <v>17.666666666666668</v>
+        <v>75</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L73:L75))/3</f>
-        <v>37</v>
+        <v>109.66666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11598,22 +11666,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11646,7 +11714,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11691,7 +11759,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11736,7 +11804,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11781,7 +11849,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11826,23 +11894,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11875,7 +11943,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -11920,7 +11988,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -11965,7 +12033,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12010,7 +12078,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12055,23 +12123,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12104,7 +12172,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12149,7 +12217,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12194,7 +12262,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12239,7 +12307,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12307,22 +12375,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12355,7 +12423,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12400,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12445,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12490,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12535,23 +12603,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12584,7 +12652,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12629,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12674,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12719,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12764,23 +12832,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12813,7 +12881,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12858,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12903,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12948,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13016,22 +13084,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13064,7 +13132,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13109,7 +13177,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13154,7 +13222,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13199,7 +13267,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13244,23 +13312,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13293,7 +13361,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13338,7 +13406,7 @@
         <v>829.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13383,7 +13451,7 @@
         <v>586.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13428,7 +13496,7 @@
         <v>457.66666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13473,23 +13541,23 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13522,7 +13590,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13567,7 +13635,7 @@
         <v>2268.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13612,7 +13680,7 @@
         <v>1165.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13657,7 +13725,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13725,22 +13793,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13773,7 +13841,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13818,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13863,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13908,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13953,23 +14021,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14002,7 +14070,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14047,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14092,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14137,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14182,23 +14250,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14231,7 +14299,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14276,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -14321,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14366,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -14434,22 +14502,22 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -14482,7 +14550,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -14527,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -14572,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -14617,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -14662,23 +14730,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14711,7 +14779,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14756,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14801,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14846,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14891,23 +14959,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14940,7 +15008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14985,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -15030,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -15075,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -261,17 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -808,11 +808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105957632"/>
-        <c:axId val="105959424"/>
+        <c:axId val="111790336"/>
+        <c:axId val="111792128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105957632"/>
+        <c:axId val="111790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105959424"/>
+        <c:crossAx val="111792128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105959424"/>
+        <c:axId val="111792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105957632"/>
+        <c:crossAx val="111790336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106324352"/>
-        <c:axId val="106325888"/>
+        <c:axId val="112157056"/>
+        <c:axId val="112158592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106324352"/>
+        <c:axId val="112157056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106325888"/>
+        <c:crossAx val="112158592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106325888"/>
+        <c:axId val="112158592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106324352"/>
+        <c:crossAx val="112157056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,11 +2212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106383616"/>
-        <c:axId val="106389504"/>
+        <c:axId val="112216320"/>
+        <c:axId val="112222208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106383616"/>
+        <c:axId val="112216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106389504"/>
+        <c:crossAx val="112222208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106389504"/>
+        <c:axId val="112222208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106383616"/>
+        <c:crossAx val="112216320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4093,7 +4093,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4129,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4165,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4485,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,18 +4502,18 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -4550,7 +4550,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4570,7 +4570,7 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4620,7 +4620,7 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4670,7 +4670,7 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4720,7 +4720,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4770,7 +4770,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4820,7 +4820,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4836,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4870,7 +4870,7 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4920,7 +4920,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4970,7 +4970,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5020,7 +5020,7 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5070,7 +5070,7 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5120,7 +5120,7 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5159,18 +5159,18 @@
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5229,7 +5229,7 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -5285,7 +5285,7 @@
       <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -5341,7 +5341,7 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="L50" s="15"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -5415,7 +5415,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -5561,7 +5561,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5597,7 +5597,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -5635,7 +5635,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +5707,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -5745,7 +5745,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5817,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
@@ -5891,7 +5891,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5965,7 +5965,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
@@ -6221,7 +6221,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -6295,7 +6295,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
@@ -6374,18 +6374,18 @@
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="13"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
     </row>
     <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
@@ -6422,7 +6422,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6444,7 +6444,7 @@
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="L85" s="15"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6500,7 +6500,7 @@
       <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6556,7 +6556,7 @@
       <c r="L89" s="15"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="L90" s="15"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6630,7 +6630,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6666,7 +6666,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +6702,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6740,7 +6740,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6776,7 +6776,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6812,7 +6812,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6850,7 +6850,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6960,7 +6960,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -6996,7 +6996,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7032,7 +7032,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7070,7 +7070,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7106,7 +7106,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7180,7 +7180,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +7216,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7252,7 +7252,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7290,7 +7290,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7362,7 +7362,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7400,7 +7400,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7436,7 +7436,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7472,7 +7472,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7510,7 +7510,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7546,7 +7546,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7589,18 +7589,18 @@
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="13"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
     </row>
     <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
@@ -7637,7 +7637,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7657,7 +7657,7 @@
       <c r="L123" s="15"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="L125" s="15"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7707,7 +7707,7 @@
       <c r="L126" s="15"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7723,7 +7723,7 @@
       <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="L128" s="15"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7757,7 +7757,7 @@
       <c r="L129" s="15"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7773,7 +7773,7 @@
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="L131" s="15"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7807,7 +7807,7 @@
       <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7857,7 +7857,7 @@
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7873,7 +7873,7 @@
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7907,7 +7907,7 @@
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7923,7 +7923,7 @@
       <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7957,7 +7957,7 @@
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8007,7 +8007,7 @@
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8057,7 +8057,7 @@
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8107,7 +8107,7 @@
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8157,7 +8157,7 @@
       <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8207,7 +8207,7 @@
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8246,18 +8246,18 @@
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="13"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="11"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8316,7 +8316,7 @@
       <c r="L163" s="15"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="L164" s="15"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="L165" s="15"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8372,7 +8372,7 @@
       <c r="L166" s="15"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="L167" s="15"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="L168" s="15"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8428,7 +8428,7 @@
       <c r="L169" s="15"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="L170" s="15"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="L171" s="15"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8502,7 +8502,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8538,7 +8538,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="12"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8612,7 +8612,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+      <c r="A176" s="12"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8648,7 +8648,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8722,7 +8722,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="12"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8794,7 +8794,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8868,7 +8868,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8904,7 +8904,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
+      <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8978,7 +8978,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -9014,7 +9014,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9052,7 +9052,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -9088,7 +9088,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -9124,7 +9124,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9162,7 +9162,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -9198,7 +9198,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9272,7 +9272,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -9308,7 +9308,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -9344,7 +9344,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -9418,7 +9418,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -9461,18 +9461,18 @@
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="13"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="11"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
@@ -9509,13 +9509,15 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C203" s="4"/>
+      <c r="C203" s="4">
+        <v>139</v>
+      </c>
       <c r="D203" s="14" t="s">
         <v>31</v>
       </c>
@@ -9529,11 +9531,13 @@
       <c r="L203" s="15"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C204" s="4"/>
+      <c r="C204" s="4">
+        <v>138</v>
+      </c>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
       <c r="F204" s="14"/>
@@ -9545,11 +9549,13 @@
       <c r="L204" s="15"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
+      <c r="A205" s="12"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C205" s="4"/>
+      <c r="C205" s="9">
+        <v>136</v>
+      </c>
       <c r="D205" s="14"/>
       <c r="E205" s="14"/>
       <c r="F205" s="14"/>
@@ -9561,13 +9567,15 @@
       <c r="L205" s="15"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C206" s="4"/>
+      <c r="C206" s="4">
+        <v>136</v>
+      </c>
       <c r="D206" s="14"/>
       <c r="E206" s="14"/>
       <c r="F206" s="14"/>
@@ -9579,11 +9587,13 @@
       <c r="L206" s="15"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
+      <c r="A207" s="12"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C207" s="4"/>
+      <c r="C207" s="9">
+        <v>134</v>
+      </c>
       <c r="D207" s="14"/>
       <c r="E207" s="14"/>
       <c r="F207" s="14"/>
@@ -9595,11 +9605,13 @@
       <c r="L207" s="15"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
+      <c r="A208" s="12"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C208" s="4"/>
+      <c r="C208" s="9">
+        <v>132</v>
+      </c>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
       <c r="F208" s="14"/>
@@ -9611,13 +9623,15 @@
       <c r="L208" s="15"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+      <c r="A209" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C209" s="4"/>
+      <c r="C209" s="4">
+        <v>432</v>
+      </c>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
       <c r="F209" s="14"/>
@@ -9629,11 +9643,13 @@
       <c r="L209" s="15"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="12"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="4"/>
+      <c r="C210" s="4">
+        <v>419</v>
+      </c>
       <c r="D210" s="14"/>
       <c r="E210" s="14"/>
       <c r="F210" s="14"/>
@@ -9645,11 +9661,13 @@
       <c r="L210" s="15"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="12"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="4"/>
+      <c r="C211" s="9">
+        <v>425</v>
+      </c>
       <c r="D211" s="14"/>
       <c r="E211" s="14"/>
       <c r="F211" s="14"/>
@@ -9661,7 +9679,7 @@
       <c r="L211" s="15"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9679,7 +9697,7 @@
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
+      <c r="A213" s="12"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9695,7 +9713,7 @@
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
+      <c r="A214" s="12"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9711,7 +9729,7 @@
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9729,7 +9747,7 @@
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
+      <c r="A216" s="12"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9745,7 +9763,7 @@
       <c r="L216" s="5"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
+      <c r="A217" s="12"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9761,7 +9779,7 @@
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9779,7 +9797,7 @@
       <c r="L218" s="5"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
+      <c r="A219" s="12"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9795,7 +9813,7 @@
       <c r="L219" s="5"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
+      <c r="A220" s="12"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9811,157 +9829,265 @@
       <c r="L220" s="5"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+      <c r="A221" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
+      <c r="C221" s="4">
+        <v>277</v>
+      </c>
+      <c r="D221" s="4">
+        <v>293</v>
+      </c>
+      <c r="E221" s="4">
+        <v>308</v>
+      </c>
+      <c r="F221" s="9">
+        <v>212</v>
+      </c>
+      <c r="G221" s="9">
+        <v>220</v>
+      </c>
+      <c r="H221" s="9">
+        <v>257</v>
+      </c>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
+      <c r="A222" s="12"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
+      <c r="C222" s="4">
+        <v>269</v>
+      </c>
+      <c r="D222" s="4">
+        <v>296</v>
+      </c>
+      <c r="E222" s="4">
+        <v>233</v>
+      </c>
+      <c r="F222" s="9">
+        <v>278</v>
+      </c>
+      <c r="G222" s="9">
+        <v>198</v>
+      </c>
+      <c r="H222" s="9">
+        <v>219</v>
+      </c>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
+      <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
+      <c r="C223" s="4">
+        <v>275</v>
+      </c>
+      <c r="D223" s="4">
+        <v>387</v>
+      </c>
+      <c r="E223" s="4">
+        <v>187</v>
+      </c>
+      <c r="F223" s="9">
+        <v>317</v>
+      </c>
+      <c r="G223" s="9">
+        <v>175</v>
+      </c>
+      <c r="H223" s="9">
+        <v>219</v>
+      </c>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
+      <c r="C224" s="4">
+        <v>558</v>
+      </c>
+      <c r="D224" s="9">
+        <v>327</v>
+      </c>
+      <c r="E224" s="9">
+        <v>208</v>
+      </c>
+      <c r="F224" s="9">
+        <v>155</v>
+      </c>
+      <c r="G224" s="9">
+        <v>130</v>
+      </c>
+      <c r="H224" s="9">
+        <v>140</v>
+      </c>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+      <c r="A225" s="12"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
+      <c r="C225" s="9">
+        <v>545</v>
+      </c>
+      <c r="D225" s="9">
+        <v>324</v>
+      </c>
+      <c r="E225" s="9">
+        <v>212</v>
+      </c>
+      <c r="F225" s="9">
+        <v>158</v>
+      </c>
+      <c r="G225" s="9">
+        <v>129</v>
+      </c>
+      <c r="H225" s="9">
+        <v>128</v>
+      </c>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
+      <c r="A226" s="12"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
+      <c r="C226" s="9">
+        <v>531</v>
+      </c>
+      <c r="D226" s="9">
+        <v>329</v>
+      </c>
+      <c r="E226" s="9">
+        <v>214</v>
+      </c>
+      <c r="F226" s="9">
+        <v>153</v>
+      </c>
+      <c r="G226" s="9">
+        <v>122</v>
+      </c>
+      <c r="H226" s="9">
+        <v>120</v>
+      </c>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
+      <c r="C227" s="4">
+        <v>306</v>
+      </c>
+      <c r="D227" s="9">
+        <v>236</v>
+      </c>
+      <c r="E227" s="9">
+        <v>150</v>
+      </c>
+      <c r="F227" s="9">
+        <v>132</v>
+      </c>
+      <c r="G227" s="9">
+        <v>129</v>
+      </c>
+      <c r="H227" s="9">
+        <v>133</v>
+      </c>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="12"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
+      <c r="C228" s="9">
+        <v>309</v>
+      </c>
+      <c r="D228" s="9">
+        <v>220</v>
+      </c>
+      <c r="E228" s="9">
+        <v>146</v>
+      </c>
+      <c r="F228" s="9">
+        <v>147</v>
+      </c>
+      <c r="G228" s="9">
+        <v>132</v>
+      </c>
+      <c r="H228" s="9">
+        <v>138</v>
+      </c>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
+      <c r="A229" s="12"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
+      <c r="C229" s="9">
+        <v>308</v>
+      </c>
+      <c r="D229" s="9">
+        <v>273</v>
+      </c>
+      <c r="E229" s="9">
+        <v>147</v>
+      </c>
+      <c r="F229" s="9">
+        <v>134</v>
+      </c>
+      <c r="G229" s="9">
+        <v>129</v>
+      </c>
+      <c r="H229" s="9">
+        <v>126</v>
+      </c>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -9979,7 +10105,7 @@
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="12"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -9995,7 +10121,7 @@
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="12"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -10011,7 +10137,7 @@
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -10029,7 +10155,7 @@
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
+      <c r="A234" s="12"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -10045,7 +10171,7 @@
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="12"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -10061,7 +10187,7 @@
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -10079,7 +10205,7 @@
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
+      <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -10095,7 +10221,7 @@
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="11"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -10118,18 +10244,18 @@
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="13"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="11"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -10166,7 +10292,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -10186,7 +10312,7 @@
       <c r="L243" s="15"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
+      <c r="A244" s="12"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -10202,7 +10328,7 @@
       <c r="L244" s="15"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="12"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -10218,7 +10344,7 @@
       <c r="L245" s="15"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -10236,7 +10362,7 @@
       <c r="L246" s="15"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
+      <c r="A247" s="12"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -10252,7 +10378,7 @@
       <c r="L247" s="15"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
+      <c r="A248" s="12"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -10268,7 +10394,7 @@
       <c r="L248" s="15"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -10286,7 +10412,7 @@
       <c r="L249" s="15"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="12"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -10302,7 +10428,7 @@
       <c r="L250" s="15"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="12"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -10318,7 +10444,7 @@
       <c r="L251" s="15"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
+      <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -10336,7 +10462,7 @@
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="12"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -10352,7 +10478,7 @@
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
+      <c r="A254" s="12"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -10368,7 +10494,7 @@
       <c r="L254" s="5"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -10386,7 +10512,7 @@
       <c r="L255" s="5"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
+      <c r="A256" s="12"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -10402,7 +10528,7 @@
       <c r="L256" s="5"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="12"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10544,7 @@
       <c r="L257" s="5"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -10436,7 +10562,7 @@
       <c r="L258" s="5"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="12"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -10452,7 +10578,7 @@
       <c r="L259" s="5"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
+      <c r="A260" s="12"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -10468,7 +10594,7 @@
       <c r="L260" s="5"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -10486,7 +10612,7 @@
       <c r="L261" s="5"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="12"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -10502,7 +10628,7 @@
       <c r="L262" s="5"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
+      <c r="A263" s="12"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -10518,7 +10644,7 @@
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -10536,7 +10662,7 @@
       <c r="L264" s="5"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
+      <c r="A265" s="12"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -10552,7 +10678,7 @@
       <c r="L265" s="5"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
+      <c r="A266" s="12"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -10568,7 +10694,7 @@
       <c r="L266" s="5"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -10586,7 +10712,7 @@
       <c r="L267" s="5"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
+      <c r="A268" s="12"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -10602,7 +10728,7 @@
       <c r="L268" s="5"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
+      <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -10618,7 +10744,7 @@
       <c r="L269" s="5"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+      <c r="A270" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -10636,7 +10762,7 @@
       <c r="L270" s="5"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="12"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -10652,7 +10778,7 @@
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="12"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -10668,7 +10794,7 @@
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -10686,7 +10812,7 @@
       <c r="L273" s="5"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
+      <c r="A274" s="12"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -10702,7 +10828,7 @@
       <c r="L274" s="5"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
+      <c r="A275" s="12"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -10718,7 +10844,7 @@
       <c r="L275" s="5"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -10736,7 +10862,7 @@
       <c r="L276" s="5"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
+      <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -10752,7 +10878,7 @@
       <c r="L277" s="5"/>
     </row>
     <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="11"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -10769,6 +10895,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -10785,88 +10993,6 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10889,16 +11015,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -11118,16 +11244,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -11347,16 +11473,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -11602,16 +11728,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -11831,16 +11957,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -12060,16 +12186,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -12311,16 +12437,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -12540,16 +12666,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -12769,16 +12895,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -13020,16 +13146,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -13249,16 +13375,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -13478,16 +13604,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -13729,16 +13855,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -13779,43 +13905,43 @@
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>0</v>
+        <v>425.33333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
@@ -13869,27 +13995,27 @@
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C227:C229))/3</f>
-        <v>0</v>
+        <v>307.66666666666669</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D227:D229))/3</f>
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E227:E229))/3</f>
-        <v>0</v>
+        <v>147.66666666666666</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F227:F229))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G227:G229))/3</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H227:H229))/3</f>
-        <v>0</v>
+        <v>132.33333333333334</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I227:I229))/3</f>
@@ -13958,16 +14084,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -14008,43 +14134,43 @@
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>0</v>
+        <v>137.66666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
@@ -14098,27 +14224,27 @@
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C221:C223))/3</f>
-        <v>0</v>
+        <v>273.66666666666669</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D221:D223))/3</f>
-        <v>0</v>
+        <v>325.33333333333331</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E221:E223))/3</f>
-        <v>0</v>
+        <v>242.66666666666666</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F221:F223))/3</f>
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G221:G223))/3</f>
-        <v>0</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H221:H223))/3</f>
-        <v>0</v>
+        <v>231.66666666666666</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I221:I223))/3</f>
@@ -14187,16 +14313,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -14237,43 +14363,43 @@
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
@@ -14327,27 +14453,27 @@
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C224:C226))/3</f>
-        <v>0</v>
+        <v>544.66666666666663</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D224:D226))/3</f>
-        <v>0</v>
+        <v>326.66666666666669</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E224:E226))/3</f>
-        <v>0</v>
+        <v>211.33333333333334</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F224:F226))/3</f>
-        <v>0</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G224:G226))/3</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H224:H226))/3</f>
-        <v>0</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I224:I226))/3</f>
@@ -14438,16 +14564,16 @@
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -14667,16 +14793,16 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -14896,16 +15022,16 @@
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj\Documents\GitHub\Concurrent-SkipList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB3BD9-76BE-4645-9F81-6C028E2B56E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD5107-B5D6-400D-9381-EF62FF9F60DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="45" windowWidth="30405" windowHeight="18810" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -270,17 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -20333,37 +20333,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N270" sqref="N270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -20397,8 +20397,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -20417,8 +20417,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -20433,8 +20433,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -20449,8 +20449,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -20467,8 +20467,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -20483,8 +20483,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -20499,8 +20499,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -20517,8 +20517,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -20533,8 +20533,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -20549,8 +20549,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -20567,8 +20567,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -20583,8 +20583,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -20599,8 +20599,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -20617,8 +20617,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -20633,8 +20633,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -20649,8 +20649,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -20667,8 +20667,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -20683,8 +20683,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -20699,8 +20699,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -20717,8 +20717,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -20733,8 +20733,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -20749,8 +20749,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -20767,8 +20767,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -20783,8 +20783,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -20799,8 +20799,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -20817,8 +20817,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -20833,8 +20833,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -20849,8 +20849,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -20867,8 +20867,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -20883,8 +20883,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -20899,8 +20899,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -20917,8 +20917,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -20933,8 +20933,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -20949,8 +20949,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -20967,8 +20967,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -20983,8 +20983,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="13"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -20999,28 +20999,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -21054,8 +21054,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -21076,8 +21076,8 @@
       <c r="K43" s="16"/>
       <c r="L43" s="17"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -21094,8 +21094,8 @@
       <c r="K44" s="16"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -21112,8 +21112,8 @@
       <c r="K45" s="16"/>
       <c r="L45" s="17"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -21132,8 +21132,8 @@
       <c r="K46" s="16"/>
       <c r="L46" s="17"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
@@ -21150,8 +21150,8 @@
       <c r="K47" s="16"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -21168,8 +21168,8 @@
       <c r="K48" s="16"/>
       <c r="L48" s="17"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -21188,8 +21188,8 @@
       <c r="K49" s="16"/>
       <c r="L49" s="17"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A50" s="12"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -21206,8 +21206,8 @@
       <c r="K50" s="16"/>
       <c r="L50" s="17"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -21224,8 +21224,8 @@
       <c r="K51" s="16"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -21262,8 +21262,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A53" s="12"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -21298,8 +21298,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A54" s="12"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
@@ -21334,8 +21334,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -21372,8 +21372,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A56" s="12"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -21408,8 +21408,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
@@ -21444,8 +21444,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A58" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -21482,8 +21482,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A59" s="12"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -21518,8 +21518,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A60" s="12"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
@@ -21554,8 +21554,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -21592,8 +21592,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -21628,8 +21628,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
@@ -21664,8 +21664,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -21702,8 +21702,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
@@ -21738,8 +21738,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -21774,8 +21774,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -21812,8 +21812,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A68" s="12"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -21848,8 +21848,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
@@ -21884,8 +21884,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -21922,8 +21922,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A71" s="12"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -21958,8 +21958,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A72" s="12"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -21994,8 +21994,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A73" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -22032,8 +22032,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
@@ -22068,8 +22068,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -22104,8 +22104,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -22142,8 +22142,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -22178,8 +22178,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
@@ -22214,28 +22214,28 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="13"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -22269,8 +22269,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -22291,8 +22291,8 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A84" s="12"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -22309,8 +22309,8 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -22327,8 +22327,8 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -22347,8 +22347,8 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -22365,8 +22365,8 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -22383,8 +22383,8 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A89" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -22403,8 +22403,8 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -22421,8 +22421,8 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -22439,8 +22439,8 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -22477,8 +22477,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -22513,8 +22513,8 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -22549,8 +22549,8 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -22587,8 +22587,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -22623,8 +22623,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -22659,8 +22659,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A98" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -22697,8 +22697,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -22733,8 +22733,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A100" s="12"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -22769,8 +22769,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -22807,8 +22807,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -22843,8 +22843,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -22879,8 +22879,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A104" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -22917,8 +22917,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -22953,8 +22953,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -22989,8 +22989,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A107" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -23027,8 +23027,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -23063,8 +23063,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -23099,8 +23099,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A110" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -23137,8 +23137,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -23173,8 +23173,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -23209,8 +23209,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A113" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -23247,8 +23247,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -23283,8 +23283,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -23319,8 +23319,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A116" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -23357,8 +23357,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -23393,8 +23393,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -23429,28 +23429,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="13"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -23484,8 +23484,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -23504,8 +23504,8 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -23520,8 +23520,8 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -23536,8 +23536,8 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A126" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -23554,8 +23554,8 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -23570,8 +23570,8 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -23586,8 +23586,8 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -23604,8 +23604,8 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -23620,8 +23620,8 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A131" s="12"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -23636,8 +23636,8 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -23654,8 +23654,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A133" s="12"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -23670,8 +23670,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A134" s="12"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -23686,8 +23686,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A135" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -23704,8 +23704,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A136" s="12"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -23720,8 +23720,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A137" s="12"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -23736,8 +23736,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A138" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -23754,8 +23754,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A139" s="12"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -23770,8 +23770,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A140" s="12"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -23786,8 +23786,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A141" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -23804,8 +23804,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A142" s="12"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -23820,8 +23820,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A143" s="12"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -23836,8 +23836,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A144" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -23854,8 +23854,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A145" s="12"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -23870,8 +23870,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A146" s="12"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -23886,8 +23886,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A147" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -23904,8 +23904,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A148" s="12"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -23920,8 +23920,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -23936,8 +23936,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A150" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -23954,8 +23954,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A151" s="12"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -23970,8 +23970,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A152" s="12"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -23986,8 +23986,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A153" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -24004,8 +24004,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A154" s="12"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -24020,8 +24020,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -24036,8 +24036,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A156" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -24054,8 +24054,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -24070,8 +24070,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
+    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A158" s="13"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -24086,28 +24086,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="13"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="11"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -24141,8 +24141,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+    <row r="163" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A163" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -24163,8 +24163,8 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A164" s="12"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -24181,8 +24181,8 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A165" s="12"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -24199,8 +24199,8 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A166" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -24219,8 +24219,8 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A167" s="12"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -24237,8 +24237,8 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A168" s="12"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -24255,8 +24255,8 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -24275,8 +24275,8 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A170" s="12"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -24293,8 +24293,8 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A171" s="12"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -24311,8 +24311,8 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A172" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -24349,8 +24349,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A173" s="12"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -24385,8 +24385,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A174" s="12"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -24421,8 +24421,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -24459,8 +24459,8 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A176" s="12"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -24495,8 +24495,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A177" s="12"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -24531,8 +24531,8 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -24569,8 +24569,8 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A179" s="12"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -24605,8 +24605,8 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A180" s="12"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -24641,8 +24641,8 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A181" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -24679,8 +24679,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -24715,8 +24715,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -24751,8 +24751,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A184" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -24789,8 +24789,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -24825,8 +24825,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -24861,8 +24861,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A187" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -24899,8 +24899,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -24935,8 +24935,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -24971,8 +24971,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A190" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -25009,8 +25009,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -25045,8 +25045,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A192" s="12"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -25081,8 +25081,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A193" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -25119,8 +25119,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A194" s="12"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -25155,8 +25155,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A195" s="12"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -25191,8 +25191,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A196" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -25229,8 +25229,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -25265,8 +25265,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
+    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A198" s="13"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -25301,28 +25301,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="13"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="11"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -25356,8 +25356,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
+    <row r="203" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A203" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -25376,8 +25376,8 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A204" s="12"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -25392,8 +25392,8 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A205" s="12"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -25408,8 +25408,8 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -25426,8 +25426,8 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A207" s="12"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -25442,8 +25442,8 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A208" s="12"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -25458,8 +25458,8 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A209" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -25476,8 +25476,8 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A210" s="12"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -25492,8 +25492,8 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A211" s="12"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -25508,8 +25508,8 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -25526,8 +25526,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A213" s="12"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -25542,8 +25542,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A214" s="12"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -25558,8 +25558,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -25576,8 +25576,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A216" s="12"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -25592,8 +25592,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A217" s="12"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -25608,8 +25608,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A218" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -25626,8 +25626,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A219" s="12"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -25642,8 +25642,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A220" s="12"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -25658,8 +25658,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A221" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -25676,8 +25676,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A222" s="12"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -25692,8 +25692,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -25708,8 +25708,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -25726,8 +25726,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A225" s="12"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -25742,8 +25742,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A226" s="12"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -25758,8 +25758,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A227" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -25776,8 +25776,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A228" s="12"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -25792,8 +25792,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A229" s="12"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -25808,8 +25808,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A230" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -25826,8 +25826,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A231" s="12"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -25842,8 +25842,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A232" s="12"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -25858,8 +25858,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A233" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -25876,8 +25876,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A234" s="12"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -25892,8 +25892,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A235" s="12"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -25908,8 +25908,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A236" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -25926,8 +25926,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -25942,8 +25942,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="11"/>
+    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A238" s="13"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -25958,28 +25958,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="13"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="11"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -26013,8 +26013,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+    <row r="243" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A243" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -26035,8 +26035,8 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A244" s="12"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -26053,8 +26053,8 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A245" s="12"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -26071,8 +26071,8 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A246" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -26091,8 +26091,8 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A247" s="12"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -26109,8 +26109,8 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A248" s="12"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -26127,8 +26127,8 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A249" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -26147,8 +26147,8 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A250" s="12"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -26165,8 +26165,8 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A251" s="12"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -26183,8 +26183,8 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -26221,8 +26221,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A253" s="12"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -26257,8 +26257,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A254" s="12"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -26293,8 +26293,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="10" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A255" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -26331,8 +26331,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A256" s="12"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -26367,8 +26367,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A257" s="12"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -26403,8 +26403,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A258" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -26441,8 +26441,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A259" s="12"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -26477,8 +26477,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A260" s="12"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -26513,8 +26513,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A261" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -26551,8 +26551,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A262" s="12"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -26587,8 +26587,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A263" s="12"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -26623,8 +26623,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A264" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -26661,8 +26661,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A265" s="12"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -26697,8 +26697,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A266" s="12"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -26733,8 +26733,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A267" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -26771,8 +26771,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A268" s="12"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -26807,8 +26807,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -26843,8 +26843,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A270" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -26881,8 +26881,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A271" s="12"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -26917,8 +26917,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A272" s="12"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -26953,8 +26953,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A273" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -26991,8 +26991,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A274" s="12"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -27027,8 +27027,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A275" s="12"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -27063,8 +27063,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -27101,8 +27101,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -27137,8 +27137,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="11"/>
+    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A278" s="13"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -27175,6 +27175,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -27191,88 +27273,6 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27282,31 +27282,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -27339,7 +27339,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>942.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>461.66666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -27474,7 +27474,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -27519,23 +27519,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -27568,7 +27568,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>435.66666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>218.33333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -27748,23 +27748,23 @@
         <v>218.33333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -27797,7 +27797,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -27842,7 +27842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -27995,31 +27995,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -28052,7 +28052,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -28142,7 +28142,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -28232,23 +28232,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -28281,7 +28281,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -28371,7 +28371,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -28461,23 +28461,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -28510,7 +28510,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -28709,27 +28709,27 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -28762,7 +28762,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -28942,23 +28942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -28991,7 +28991,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -29171,23 +29171,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -29220,7 +29220,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -29265,7 +29265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -29415,31 +29415,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -29472,7 +29472,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -29652,23 +29652,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -29701,7 +29701,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>829.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>586.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>457.66666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -29881,23 +29881,23 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -29930,7 +29930,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>2268.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1165.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -30129,27 +30129,27 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -30182,7 +30182,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -30227,7 +30227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -30362,23 +30362,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -30411,7 +30411,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -30456,7 +30456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -30591,23 +30591,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -30640,7 +30640,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -30834,31 +30834,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G19" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -30891,7 +30891,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -30936,7 +30936,7 @@
         <v>432.33333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>109.33333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -31071,23 +31071,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -31120,7 +31120,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>197.33333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -31300,23 +31300,23 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -31349,7 +31349,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>99.333333333333329</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>104.66666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj\Documents\GitHub\Concurrent-SkipList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD5107-B5D6-400D-9381-EF62FF9F60DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB3BD9-76BE-4645-9F81-6C028E2B56E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1020" yWindow="45" windowWidth="30405" windowHeight="18810" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -270,17 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -20333,37 +20333,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N270" sqref="N270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -20397,8 +20397,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -20417,8 +20417,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -20433,8 +20433,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -20449,8 +20449,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -20467,8 +20467,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -20483,8 +20483,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -20499,8 +20499,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -20517,8 +20517,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -20533,8 +20533,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -20549,8 +20549,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -20567,8 +20567,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -20583,8 +20583,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -20599,8 +20599,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -20617,8 +20617,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -20633,8 +20633,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -20649,8 +20649,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -20667,8 +20667,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -20683,8 +20683,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -20699,8 +20699,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -20717,8 +20717,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -20733,8 +20733,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -20749,8 +20749,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -20767,8 +20767,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -20783,8 +20783,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -20799,8 +20799,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -20817,8 +20817,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -20833,8 +20833,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -20849,8 +20849,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -20867,8 +20867,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -20883,8 +20883,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -20899,8 +20899,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -20917,8 +20917,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -20933,8 +20933,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -20949,8 +20949,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -20967,8 +20967,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -20983,8 +20983,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -20999,28 +20999,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -21054,8 +21054,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -21076,8 +21076,8 @@
       <c r="K43" s="16"/>
       <c r="L43" s="17"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -21094,8 +21094,8 @@
       <c r="K44" s="16"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
@@ -21112,8 +21112,8 @@
       <c r="K45" s="16"/>
       <c r="L45" s="17"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -21132,8 +21132,8 @@
       <c r="K46" s="16"/>
       <c r="L46" s="17"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A47" s="12"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
@@ -21150,8 +21150,8 @@
       <c r="K47" s="16"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -21168,8 +21168,8 @@
       <c r="K48" s="16"/>
       <c r="L48" s="17"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -21188,8 +21188,8 @@
       <c r="K49" s="16"/>
       <c r="L49" s="17"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -21206,8 +21206,8 @@
       <c r="K50" s="16"/>
       <c r="L50" s="17"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -21224,8 +21224,8 @@
       <c r="K51" s="16"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -21262,8 +21262,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A53" s="12"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -21298,8 +21298,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A54" s="12"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
@@ -21334,8 +21334,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -21372,8 +21372,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -21408,8 +21408,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A57" s="12"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
@@ -21444,8 +21444,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -21482,8 +21482,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -21518,8 +21518,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
@@ -21554,8 +21554,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -21592,8 +21592,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -21628,8 +21628,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A63" s="12"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
@@ -21664,8 +21664,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -21702,8 +21702,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
@@ -21738,8 +21738,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -21774,8 +21774,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -21812,8 +21812,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A68" s="12"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -21848,8 +21848,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A69" s="12"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
@@ -21884,8 +21884,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -21922,8 +21922,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A71" s="12"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -21958,8 +21958,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A72" s="12"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -21994,8 +21994,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -22032,8 +22032,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A74" s="12"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
@@ -22068,8 +22068,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A75" s="12"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -22104,8 +22104,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -22142,8 +22142,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A77" s="12"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -22178,8 +22178,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A78" s="13"/>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
@@ -22214,28 +22214,28 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -22269,8 +22269,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -22291,8 +22291,8 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -22309,8 +22309,8 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -22327,8 +22327,8 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -22347,8 +22347,8 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -22365,8 +22365,8 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -22383,8 +22383,8 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -22403,8 +22403,8 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -22421,8 +22421,8 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -22439,8 +22439,8 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -22477,8 +22477,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -22513,8 +22513,8 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -22549,8 +22549,8 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -22587,8 +22587,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -22623,8 +22623,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -22659,8 +22659,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -22697,8 +22697,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -22733,8 +22733,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -22769,8 +22769,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -22807,8 +22807,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -22843,8 +22843,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -22879,8 +22879,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -22917,8 +22917,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -22953,8 +22953,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -22989,8 +22989,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -23027,8 +23027,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -23063,8 +23063,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -23099,8 +23099,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -23137,8 +23137,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -23173,8 +23173,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -23209,8 +23209,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -23247,8 +23247,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A114" s="12"/>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -23283,8 +23283,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -23319,8 +23319,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -23357,8 +23357,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -23393,8 +23393,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A118" s="13"/>
+    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -23429,28 +23429,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -23484,8 +23484,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -23504,8 +23504,8 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -23520,8 +23520,8 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A125" s="12"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -23536,8 +23536,8 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -23554,8 +23554,8 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -23570,8 +23570,8 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -23586,8 +23586,8 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -23604,8 +23604,8 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A130" s="12"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -23620,8 +23620,8 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -23636,8 +23636,8 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -23654,8 +23654,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A133" s="12"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -23670,8 +23670,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A134" s="12"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -23686,8 +23686,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -23704,8 +23704,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A136" s="12"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -23720,8 +23720,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A137" s="12"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -23736,8 +23736,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -23754,8 +23754,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A139" s="12"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -23770,8 +23770,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A140" s="12"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -23786,8 +23786,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -23804,8 +23804,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A142" s="12"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -23820,8 +23820,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A143" s="12"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -23836,8 +23836,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -23854,8 +23854,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A145" s="12"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -23870,8 +23870,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A146" s="12"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -23886,8 +23886,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -23904,8 +23904,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A148" s="12"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -23920,8 +23920,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A149" s="12"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -23936,8 +23936,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -23954,8 +23954,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -23970,8 +23970,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A152" s="12"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -23986,8 +23986,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -24004,8 +24004,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A154" s="12"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -24020,8 +24020,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -24036,8 +24036,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -24054,8 +24054,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A157" s="12"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -24070,8 +24070,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A158" s="13"/>
+    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -24086,28 +24086,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="13"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -24141,8 +24141,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -24163,8 +24163,8 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A164" s="12"/>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -24181,8 +24181,8 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A165" s="12"/>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -24199,8 +24199,8 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -24219,8 +24219,8 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A167" s="12"/>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -24237,8 +24237,8 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A168" s="12"/>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -24255,8 +24255,8 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -24275,8 +24275,8 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A170" s="12"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -24293,8 +24293,8 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A171" s="12"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -24311,8 +24311,8 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -24349,8 +24349,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A173" s="12"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -24385,8 +24385,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A174" s="12"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -24421,8 +24421,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -24459,8 +24459,8 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A176" s="12"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -24495,8 +24495,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A177" s="12"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -24531,8 +24531,8 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -24569,8 +24569,8 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A179" s="12"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -24605,8 +24605,8 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A180" s="12"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -24641,8 +24641,8 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -24679,8 +24679,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A182" s="12"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -24715,8 +24715,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A183" s="12"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -24751,8 +24751,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -24789,8 +24789,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A185" s="12"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -24825,8 +24825,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A186" s="12"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -24861,8 +24861,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -24899,8 +24899,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A188" s="12"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -24935,8 +24935,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A189" s="12"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -24971,8 +24971,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -25009,8 +25009,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A191" s="12"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -25045,8 +25045,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A192" s="12"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -25081,8 +25081,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -25119,8 +25119,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A194" s="12"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -25155,8 +25155,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A195" s="12"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -25191,8 +25191,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -25229,8 +25229,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A197" s="12"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -25265,8 +25265,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A198" s="13"/>
+    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -25301,28 +25301,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -25356,8 +25356,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -25376,8 +25376,8 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A204" s="12"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -25392,8 +25392,8 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A205" s="12"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -25408,8 +25408,8 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -25426,8 +25426,8 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A207" s="12"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -25442,8 +25442,8 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A208" s="12"/>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -25458,8 +25458,8 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -25476,8 +25476,8 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A210" s="12"/>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -25492,8 +25492,8 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A211" s="12"/>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -25508,8 +25508,8 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -25526,8 +25526,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A213" s="12"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -25542,8 +25542,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A214" s="12"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -25558,8 +25558,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -25576,8 +25576,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A216" s="12"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -25592,8 +25592,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A217" s="12"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -25608,8 +25608,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -25626,8 +25626,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A219" s="12"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -25642,8 +25642,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A220" s="12"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -25658,8 +25658,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -25676,8 +25676,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A222" s="12"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -25692,8 +25692,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A223" s="12"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -25708,8 +25708,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -25726,8 +25726,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A225" s="12"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -25742,8 +25742,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A226" s="12"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -25758,8 +25758,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -25776,8 +25776,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A228" s="12"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -25792,8 +25792,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A229" s="12"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -25808,8 +25808,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -25826,8 +25826,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A231" s="12"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -25842,8 +25842,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A232" s="12"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -25858,8 +25858,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -25876,8 +25876,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A234" s="12"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -25892,8 +25892,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A235" s="12"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -25908,8 +25908,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -25926,8 +25926,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A237" s="12"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="10"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -25942,8 +25942,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A238" s="13"/>
+    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -25958,28 +25958,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="11"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="13"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -26013,8 +26013,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -26035,8 +26035,8 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A244" s="12"/>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
@@ -26053,8 +26053,8 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A245" s="12"/>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="10"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
@@ -26071,8 +26071,8 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -26091,8 +26091,8 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A247" s="12"/>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="10"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
@@ -26109,8 +26109,8 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A248" s="12"/>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="10"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
@@ -26127,8 +26127,8 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -26147,8 +26147,8 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A250" s="12"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="10"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
@@ -26165,8 +26165,8 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A251" s="12"/>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
@@ -26183,8 +26183,8 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -26221,8 +26221,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A253" s="12"/>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -26257,8 +26257,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A254" s="12"/>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="10"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -26293,8 +26293,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A255" s="12" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -26331,8 +26331,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A256" s="12"/>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="10"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -26367,8 +26367,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A257" s="12"/>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="10"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -26403,8 +26403,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A258" s="12" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -26441,8 +26441,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A259" s="12"/>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -26477,8 +26477,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A260" s="12"/>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="10"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -26513,8 +26513,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -26551,8 +26551,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A262" s="12"/>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="10"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -26587,8 +26587,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A263" s="12"/>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="10"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -26623,8 +26623,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A264" s="12" t="s">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -26661,8 +26661,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A265" s="12"/>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="10"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -26697,8 +26697,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A266" s="12"/>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="10"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -26733,8 +26733,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A267" s="12" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -26771,8 +26771,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A268" s="12"/>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="10"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -26807,8 +26807,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A269" s="12"/>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="10"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -26843,8 +26843,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A270" s="12" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -26881,8 +26881,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A271" s="12"/>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="10"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -26917,8 +26917,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A272" s="12"/>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="10"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -26953,8 +26953,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A273" s="12" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -26991,8 +26991,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A274" s="12"/>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="10"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -27027,8 +27027,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A275" s="12"/>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="10"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -27063,8 +27063,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A276" s="12" t="s">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -27101,8 +27101,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A277" s="12"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="10"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -27137,8 +27137,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A278" s="13"/>
+    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="11"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
@@ -27175,88 +27175,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -27273,6 +27191,88 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27282,31 +27282,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -27339,7 +27339,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>942.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>461.66666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -27474,7 +27474,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -27519,23 +27519,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -27568,7 +27568,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>435.66666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>218.33333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -27748,23 +27748,23 @@
         <v>218.33333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -27797,7 +27797,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -27842,7 +27842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -27995,31 +27995,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -28052,7 +28052,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -28142,7 +28142,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -28232,23 +28232,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -28281,7 +28281,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -28371,7 +28371,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -28461,23 +28461,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -28510,7 +28510,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -28709,27 +28709,27 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -28762,7 +28762,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -28942,23 +28942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -28991,7 +28991,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -29171,23 +29171,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -29220,7 +29220,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -29265,7 +29265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -29415,31 +29415,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -29472,7 +29472,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -29652,23 +29652,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -29701,7 +29701,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>829.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>586.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>457.66666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -29881,23 +29881,23 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -29930,7 +29930,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>2268.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1165.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -30129,27 +30129,27 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -30182,7 +30182,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -30227,7 +30227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -30362,23 +30362,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -30411,7 +30411,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -30456,7 +30456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -30591,23 +30591,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -30640,7 +30640,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -30834,31 +30834,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -30891,7 +30891,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -30936,7 +30936,7 @@
         <v>432.33333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>109.33333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -31071,23 +31071,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -31120,7 +31120,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>197.33333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -31300,23 +31300,23 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -31349,7 +31349,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>99.333333333333329</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>104.66666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0E249-904A-44A5-92FC-9F48E1D9BD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="TACC" sheetId="10" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,17 +267,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -282,6 +288,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,7 +322,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -347,6 +369,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -426,40 +468,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -537,40 +579,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>535.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>204.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>850.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>92.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>144.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.666666666666666</c:v>
+                  <c:v>161.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -648,40 +690,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>446.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>307.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>227.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>182.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>193.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.333333333333334</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>177.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.333333333333336</c:v>
+                  <c:v>194.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -759,40 +801,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>609.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>110.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>72.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>41.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>59.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>109.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1CB9-4291-A0A8-B3B95FD81808}"/>
             </c:ext>
@@ -806,7 +848,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="111790336"/>
         <c:axId val="111792128"/>
@@ -959,14 +1000,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1002,7 +1043,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1049,6 +1090,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1128,40 +1189,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1239,40 +1300,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>804.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>558.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>405.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>292.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.666666666666668</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.666666666666668</c:v>
+                  <c:v>346.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>372.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.666666666666664</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>435.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1350,40 +1411,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>712.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>523.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>551.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>383.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>468.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>503.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>369.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1461,40 +1522,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>224.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>226.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>167.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>200.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.333333333333334</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.333333333333332</c:v>
+                  <c:v>192.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.333333333333332</c:v>
+                  <c:v>197.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>218.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7619-4EC6-8DD3-A4B2A7D10FF8}"/>
             </c:ext>
@@ -1508,7 +1569,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="112157056"/>
         <c:axId val="112158592"/>
@@ -1661,14 +1721,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1704,7 +1764,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1751,6 +1811,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1830,40 +1910,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>942.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -1941,40 +2021,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>1009.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>607.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>437.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>430.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3333333333333339</c:v>
+                  <c:v>473.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.666666666666666</c:v>
+                  <c:v>488.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>484.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>461.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2052,40 +2132,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>596.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>272.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>210.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>173.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>131.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>183.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>231.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.666666666666664</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2163,40 +2243,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>282.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>256.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>155.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>129.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>86.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>88.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.666666666666668</c:v>
+                  <c:v>111.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C776-4684-9DCD-FACFCD71B4D7}"/>
             </c:ext>
@@ -2210,7 +2290,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="112216320"/>
         <c:axId val="112222208"/>
@@ -2363,14 +2442,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4093,7 +4172,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCA2D4-5854-452A-A202-D5AB50D2237B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4208,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157BC14A-D898-4743-B96D-F97D11063A20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4244,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FA50F0-66E9-40A3-8A32-F583801EB0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,47 +4554,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="I221" sqref="I221"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="N242" sqref="N242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -4549,8 +4628,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4569,8 +4648,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4585,8 +4664,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4601,8 +4680,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4619,8 +4698,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4635,8 +4714,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4651,8 +4730,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4669,8 +4748,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4685,8 +4764,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4701,8 +4780,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4719,8 +4798,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4735,8 +4814,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4751,8 +4830,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4769,8 +4848,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -4785,8 +4864,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4801,8 +4880,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4819,8 +4898,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4835,8 +4914,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4851,8 +4930,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4869,8 +4948,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -4885,8 +4964,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4901,8 +4980,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4919,8 +4998,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4935,8 +5014,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4951,8 +5030,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4969,8 +5048,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -4985,8 +5064,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5001,8 +5080,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5019,8 +5098,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -5035,8 +5114,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -5051,8 +5130,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5069,8 +5148,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5085,8 +5164,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5101,8 +5180,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5119,8 +5198,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5135,8 +5214,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -5151,28 +5230,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -5206,1188 +5285,1188 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="18">
+        <v>143</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="23"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="C44" s="18">
+        <v>136</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="C45" s="22">
+        <v>144</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="23"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="C46" s="18">
+        <v>143</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A47" s="10"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="9">
-        <v>2</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="C47" s="22">
+        <v>158</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="23"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A48" s="10"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="C48" s="22">
+        <v>215</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="23"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="4">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="C49" s="18">
+        <v>910</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="23"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="9">
-        <v>4</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="C50" s="22">
+        <v>1013</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="23"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A51" s="10"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="9">
-        <v>3</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="C51" s="22">
+        <v>904</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="23"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="9">
-        <v>12</v>
-      </c>
-      <c r="D52" s="4">
-        <v>14</v>
-      </c>
-      <c r="E52" s="4">
-        <v>16</v>
-      </c>
-      <c r="F52" s="9">
-        <v>29</v>
-      </c>
-      <c r="G52" s="9">
-        <v>17</v>
-      </c>
-      <c r="H52" s="9">
-        <v>34</v>
-      </c>
-      <c r="I52" s="9">
-        <v>30</v>
-      </c>
-      <c r="J52" s="9">
-        <v>28</v>
-      </c>
-      <c r="K52" s="9">
-        <v>32</v>
-      </c>
-      <c r="L52" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="C52" s="22">
+        <v>645</v>
+      </c>
+      <c r="D52" s="18">
+        <v>575</v>
+      </c>
+      <c r="E52" s="18">
+        <v>396</v>
+      </c>
+      <c r="F52" s="22">
+        <v>307</v>
+      </c>
+      <c r="G52" s="22">
+        <v>284</v>
+      </c>
+      <c r="H52" s="22">
+        <v>353</v>
+      </c>
+      <c r="I52" s="22">
+        <v>421</v>
+      </c>
+      <c r="J52" s="22">
+        <v>377</v>
+      </c>
+      <c r="K52" s="22">
+        <v>488</v>
+      </c>
+      <c r="L52" s="19">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A53" s="10"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="9">
-        <v>6</v>
-      </c>
-      <c r="D53" s="4">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9">
-        <v>18</v>
-      </c>
-      <c r="G53" s="9">
-        <v>17</v>
-      </c>
-      <c r="H53" s="9">
-        <v>27</v>
-      </c>
-      <c r="I53" s="9">
-        <v>32</v>
-      </c>
-      <c r="J53" s="9">
-        <v>35</v>
-      </c>
-      <c r="K53" s="9">
-        <v>33</v>
-      </c>
-      <c r="L53" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="C53" s="22">
+        <v>814</v>
+      </c>
+      <c r="D53" s="18">
+        <v>568</v>
+      </c>
+      <c r="E53" s="18">
+        <v>351</v>
+      </c>
+      <c r="F53" s="22">
+        <v>309</v>
+      </c>
+      <c r="G53" s="22">
+        <v>282</v>
+      </c>
+      <c r="H53" s="22">
+        <v>498</v>
+      </c>
+      <c r="I53" s="22">
+        <v>309</v>
+      </c>
+      <c r="J53" s="22">
+        <v>288</v>
+      </c>
+      <c r="K53" s="22">
+        <v>398</v>
+      </c>
+      <c r="L53" s="19">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A54" s="10"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="9">
-        <v>11</v>
-      </c>
-      <c r="D54" s="9">
-        <v>17</v>
-      </c>
-      <c r="E54" s="9">
-        <v>21</v>
-      </c>
-      <c r="F54" s="9">
-        <v>16</v>
-      </c>
-      <c r="G54" s="9">
-        <v>28</v>
-      </c>
-      <c r="H54" s="9">
-        <v>16</v>
-      </c>
-      <c r="I54" s="9">
-        <v>27</v>
-      </c>
-      <c r="J54" s="9">
-        <v>21</v>
-      </c>
-      <c r="K54" s="9">
-        <v>36</v>
-      </c>
-      <c r="L54" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="C54" s="22">
+        <v>954</v>
+      </c>
+      <c r="D54" s="22">
+        <v>533</v>
+      </c>
+      <c r="E54" s="22">
+        <v>470</v>
+      </c>
+      <c r="F54" s="22">
+        <v>389</v>
+      </c>
+      <c r="G54" s="22">
+        <v>312</v>
+      </c>
+      <c r="H54" s="22">
+        <v>397</v>
+      </c>
+      <c r="I54" s="22">
+        <v>309</v>
+      </c>
+      <c r="J54" s="22">
+        <v>453</v>
+      </c>
+      <c r="K54" s="22">
+        <v>407</v>
+      </c>
+      <c r="L54" s="19">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9">
-        <v>3</v>
-      </c>
-      <c r="H55" s="9">
-        <v>11</v>
-      </c>
-      <c r="I55" s="9">
-        <v>5</v>
-      </c>
-      <c r="J55" s="9">
-        <v>11</v>
-      </c>
-      <c r="K55" s="9">
-        <v>20</v>
-      </c>
-      <c r="L55" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="C55" s="18">
+        <v>501</v>
+      </c>
+      <c r="D55" s="18">
+        <v>269</v>
+      </c>
+      <c r="E55" s="18">
+        <v>212</v>
+      </c>
+      <c r="F55" s="22">
+        <v>182</v>
+      </c>
+      <c r="G55" s="22">
+        <v>842</v>
+      </c>
+      <c r="H55" s="22">
+        <v>96</v>
+      </c>
+      <c r="I55" s="22">
+        <v>114</v>
+      </c>
+      <c r="J55" s="22">
+        <v>115</v>
+      </c>
+      <c r="K55" s="22">
+        <v>163</v>
+      </c>
+      <c r="L55" s="19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="9">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9">
-        <v>3</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2</v>
-      </c>
-      <c r="H56" s="9">
-        <v>5</v>
-      </c>
-      <c r="I56" s="9">
-        <v>6</v>
-      </c>
-      <c r="J56" s="9">
-        <v>13</v>
-      </c>
-      <c r="K56" s="9">
-        <v>23</v>
-      </c>
-      <c r="L56" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="C56" s="22">
+        <v>592</v>
+      </c>
+      <c r="D56" s="18">
+        <v>335</v>
+      </c>
+      <c r="E56" s="18">
+        <v>219</v>
+      </c>
+      <c r="F56" s="22">
+        <v>136</v>
+      </c>
+      <c r="G56" s="22">
+        <v>838</v>
+      </c>
+      <c r="H56" s="22">
+        <v>90</v>
+      </c>
+      <c r="I56" s="22">
+        <v>160</v>
+      </c>
+      <c r="J56" s="22">
+        <v>160</v>
+      </c>
+      <c r="K56" s="22">
+        <v>187</v>
+      </c>
+      <c r="L56" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A57" s="10"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="9">
-        <v>3</v>
-      </c>
-      <c r="D57" s="9">
-        <v>2</v>
-      </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9">
-        <v>2</v>
-      </c>
-      <c r="G57" s="9">
-        <v>2</v>
-      </c>
-      <c r="H57" s="9">
-        <v>5</v>
-      </c>
-      <c r="I57" s="9">
-        <v>6</v>
-      </c>
-      <c r="J57" s="9">
-        <v>14</v>
-      </c>
-      <c r="K57" s="9">
-        <v>21</v>
-      </c>
-      <c r="L57" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="C57" s="22">
+        <v>514</v>
+      </c>
+      <c r="D57" s="22">
+        <v>243</v>
+      </c>
+      <c r="E57" s="22">
+        <v>182</v>
+      </c>
+      <c r="F57" s="22">
+        <v>108</v>
+      </c>
+      <c r="G57" s="22">
+        <v>871</v>
+      </c>
+      <c r="H57" s="22">
+        <v>91</v>
+      </c>
+      <c r="I57" s="22">
+        <v>160</v>
+      </c>
+      <c r="J57" s="22">
+        <v>209</v>
+      </c>
+      <c r="K57" s="22">
+        <v>121</v>
+      </c>
+      <c r="L57" s="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="4">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4">
-        <v>6</v>
-      </c>
-      <c r="E58" s="4">
-        <v>5</v>
-      </c>
-      <c r="F58" s="9">
-        <v>9</v>
-      </c>
-      <c r="G58" s="9">
-        <v>4</v>
-      </c>
-      <c r="H58" s="9">
-        <v>5</v>
-      </c>
-      <c r="I58" s="9">
-        <v>11</v>
-      </c>
-      <c r="J58" s="9">
-        <v>17</v>
-      </c>
-      <c r="K58" s="9">
-        <v>26</v>
-      </c>
-      <c r="L58" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="C58" s="18">
+        <v>956</v>
+      </c>
+      <c r="D58" s="18">
+        <v>598</v>
+      </c>
+      <c r="E58" s="18">
+        <v>449</v>
+      </c>
+      <c r="F58" s="22">
+        <v>459</v>
+      </c>
+      <c r="G58" s="22">
+        <v>397</v>
+      </c>
+      <c r="H58" s="22">
+        <v>457</v>
+      </c>
+      <c r="I58" s="22">
+        <v>450</v>
+      </c>
+      <c r="J58" s="22">
+        <v>418</v>
+      </c>
+      <c r="K58" s="22">
+        <v>453</v>
+      </c>
+      <c r="L58" s="19">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A59" s="10"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="4">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4">
-        <v>5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>5</v>
-      </c>
-      <c r="F59" s="9">
-        <v>7</v>
-      </c>
-      <c r="G59" s="9">
-        <v>5</v>
-      </c>
-      <c r="H59" s="9">
-        <v>5</v>
-      </c>
-      <c r="I59" s="9">
-        <v>8</v>
-      </c>
-      <c r="J59" s="9">
-        <v>13</v>
-      </c>
-      <c r="K59" s="9">
-        <v>22</v>
-      </c>
-      <c r="L59" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="C59" s="18">
+        <v>1001</v>
+      </c>
+      <c r="D59" s="18">
+        <v>590</v>
+      </c>
+      <c r="E59" s="18">
+        <v>484</v>
+      </c>
+      <c r="F59" s="22">
+        <v>426</v>
+      </c>
+      <c r="G59" s="22">
+        <v>449</v>
+      </c>
+      <c r="H59" s="22">
+        <v>431</v>
+      </c>
+      <c r="I59" s="22">
+        <v>495</v>
+      </c>
+      <c r="J59" s="22">
+        <v>507</v>
+      </c>
+      <c r="K59" s="22">
+        <v>526</v>
+      </c>
+      <c r="L59" s="19">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A60" s="10"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="9">
-        <v>7</v>
-      </c>
-      <c r="D60" s="9">
-        <v>6</v>
-      </c>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9">
-        <v>9</v>
-      </c>
-      <c r="G60" s="9">
-        <v>4</v>
-      </c>
-      <c r="H60" s="9">
-        <v>4</v>
-      </c>
-      <c r="I60" s="9">
-        <v>9</v>
-      </c>
-      <c r="J60" s="9">
-        <v>17</v>
-      </c>
-      <c r="K60" s="9">
-        <v>22</v>
-      </c>
-      <c r="L60" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="C60" s="22">
+        <v>1072</v>
+      </c>
+      <c r="D60" s="22">
+        <v>635</v>
+      </c>
+      <c r="E60" s="22">
+        <v>435</v>
+      </c>
+      <c r="F60" s="22">
+        <v>428</v>
+      </c>
+      <c r="G60" s="22">
+        <v>486</v>
+      </c>
+      <c r="H60" s="22">
+        <v>404</v>
+      </c>
+      <c r="I60" s="22">
+        <v>476</v>
+      </c>
+      <c r="J60" s="22">
+        <v>541</v>
+      </c>
+      <c r="K60" s="22">
+        <v>475</v>
+      </c>
+      <c r="L60" s="19">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="9">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9">
-        <v>6</v>
-      </c>
-      <c r="E61" s="9">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9">
-        <v>5</v>
-      </c>
-      <c r="G61" s="9">
-        <v>5</v>
-      </c>
-      <c r="H61" s="9">
-        <v>6</v>
-      </c>
-      <c r="I61" s="9">
-        <v>8</v>
-      </c>
-      <c r="J61" s="9">
-        <v>12</v>
-      </c>
-      <c r="K61" s="9">
-        <v>23</v>
-      </c>
-      <c r="L61" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="C61" s="22">
+        <v>689</v>
+      </c>
+      <c r="D61" s="22">
+        <v>598</v>
+      </c>
+      <c r="E61" s="22">
+        <v>612</v>
+      </c>
+      <c r="F61" s="22">
+        <v>228</v>
+      </c>
+      <c r="G61" s="22">
+        <v>432</v>
+      </c>
+      <c r="H61" s="22">
+        <v>477</v>
+      </c>
+      <c r="I61" s="22">
+        <v>553</v>
+      </c>
+      <c r="J61" s="22">
+        <v>558</v>
+      </c>
+      <c r="K61" s="22">
+        <v>252</v>
+      </c>
+      <c r="L61" s="19">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A62" s="10"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="9">
-        <v>6</v>
-      </c>
-      <c r="D62" s="9">
-        <v>6</v>
-      </c>
-      <c r="E62" s="9">
-        <v>8</v>
-      </c>
-      <c r="F62" s="9">
-        <v>4</v>
-      </c>
-      <c r="G62" s="9">
-        <v>5</v>
-      </c>
-      <c r="H62" s="9">
-        <v>6</v>
-      </c>
-      <c r="I62" s="9">
-        <v>8</v>
-      </c>
-      <c r="J62" s="9">
-        <v>18</v>
-      </c>
-      <c r="K62" s="9">
-        <v>25</v>
-      </c>
-      <c r="L62" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="C62" s="22">
+        <v>650</v>
+      </c>
+      <c r="D62" s="22">
+        <v>569</v>
+      </c>
+      <c r="E62" s="22">
+        <v>542</v>
+      </c>
+      <c r="F62" s="22">
+        <v>437</v>
+      </c>
+      <c r="G62" s="22">
+        <v>386</v>
+      </c>
+      <c r="H62" s="22">
+        <v>527</v>
+      </c>
+      <c r="I62" s="22">
+        <v>587</v>
+      </c>
+      <c r="J62" s="22">
+        <v>176</v>
+      </c>
+      <c r="K62" s="22">
+        <v>675</v>
+      </c>
+      <c r="L62" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A63" s="10"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="9">
-        <v>6</v>
-      </c>
-      <c r="D63" s="9">
-        <v>5</v>
-      </c>
-      <c r="E63" s="9">
-        <v>9</v>
-      </c>
-      <c r="F63" s="9">
-        <v>4</v>
-      </c>
-      <c r="G63" s="9">
-        <v>5</v>
-      </c>
-      <c r="H63" s="9">
-        <v>6</v>
-      </c>
-      <c r="I63" s="9">
-        <v>11</v>
-      </c>
-      <c r="J63" s="9">
-        <v>14</v>
-      </c>
-      <c r="K63" s="9">
-        <v>22</v>
-      </c>
-      <c r="L63" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="C63" s="22">
+        <v>799</v>
+      </c>
+      <c r="D63" s="22">
+        <v>404</v>
+      </c>
+      <c r="E63" s="22">
+        <v>500</v>
+      </c>
+      <c r="F63" s="22">
+        <v>486</v>
+      </c>
+      <c r="G63" s="22">
+        <v>587</v>
+      </c>
+      <c r="H63" s="22">
+        <v>507</v>
+      </c>
+      <c r="I63" s="22">
+        <v>699</v>
+      </c>
+      <c r="J63" s="22">
+        <v>586</v>
+      </c>
+      <c r="K63" s="22">
+        <v>181</v>
+      </c>
+      <c r="L63" s="19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="4">
-        <v>6</v>
-      </c>
-      <c r="D64" s="4">
-        <v>7</v>
-      </c>
-      <c r="E64" s="4">
-        <v>5</v>
-      </c>
-      <c r="F64" s="9">
-        <v>4</v>
-      </c>
-      <c r="G64" s="9">
-        <v>15</v>
-      </c>
-      <c r="H64" s="9">
-        <v>7</v>
-      </c>
-      <c r="I64" s="9">
-        <v>13</v>
-      </c>
-      <c r="J64" s="9">
-        <v>16</v>
-      </c>
-      <c r="K64" s="9">
-        <v>26</v>
-      </c>
-      <c r="L64" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="C64" s="18">
+        <v>430</v>
+      </c>
+      <c r="D64" s="18">
+        <v>298</v>
+      </c>
+      <c r="E64" s="18">
+        <v>171</v>
+      </c>
+      <c r="F64" s="22">
+        <v>154</v>
+      </c>
+      <c r="G64" s="22">
+        <v>240</v>
+      </c>
+      <c r="H64" s="22">
+        <v>159</v>
+      </c>
+      <c r="I64" s="22">
+        <v>147</v>
+      </c>
+      <c r="J64" s="22">
+        <v>143</v>
+      </c>
+      <c r="K64" s="22">
+        <v>209</v>
+      </c>
+      <c r="L64" s="19">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A65" s="10"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="9">
-        <v>6</v>
-      </c>
-      <c r="D65" s="9">
-        <v>7</v>
-      </c>
-      <c r="E65" s="9">
-        <v>6</v>
-      </c>
-      <c r="F65" s="9">
-        <v>7</v>
-      </c>
-      <c r="G65" s="9">
-        <v>9</v>
-      </c>
-      <c r="H65" s="9">
-        <v>7</v>
-      </c>
-      <c r="I65" s="9">
-        <v>12</v>
-      </c>
-      <c r="J65" s="9">
-        <v>16</v>
-      </c>
-      <c r="K65" s="9">
-        <v>24</v>
-      </c>
-      <c r="L65" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="C65" s="22">
+        <v>439</v>
+      </c>
+      <c r="D65" s="22">
+        <v>255</v>
+      </c>
+      <c r="E65" s="22">
+        <v>299</v>
+      </c>
+      <c r="F65" s="22">
+        <v>177</v>
+      </c>
+      <c r="G65" s="22">
+        <v>170</v>
+      </c>
+      <c r="H65" s="22">
+        <v>125</v>
+      </c>
+      <c r="I65" s="22">
+        <v>205</v>
+      </c>
+      <c r="J65" s="22">
+        <v>192</v>
+      </c>
+      <c r="K65" s="22">
+        <v>145</v>
+      </c>
+      <c r="L65" s="19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A66" s="10"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="9">
-        <v>6</v>
-      </c>
-      <c r="D66" s="9">
-        <v>6</v>
-      </c>
-      <c r="E66" s="9">
-        <v>6</v>
-      </c>
-      <c r="F66" s="9">
-        <v>7</v>
-      </c>
-      <c r="G66" s="9">
-        <v>12</v>
-      </c>
-      <c r="H66" s="9">
-        <v>7</v>
-      </c>
-      <c r="I66" s="9">
-        <v>10</v>
-      </c>
-      <c r="J66" s="9">
-        <v>14</v>
-      </c>
-      <c r="K66" s="9">
-        <v>25</v>
-      </c>
-      <c r="L66" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="C66" s="22">
+        <v>470</v>
+      </c>
+      <c r="D66" s="22">
+        <v>369</v>
+      </c>
+      <c r="E66" s="22">
+        <v>213</v>
+      </c>
+      <c r="F66" s="22">
+        <v>217</v>
+      </c>
+      <c r="G66" s="22">
+        <v>171</v>
+      </c>
+      <c r="H66" s="22">
+        <v>136</v>
+      </c>
+      <c r="I66" s="22">
+        <v>140</v>
+      </c>
+      <c r="J66" s="22">
+        <v>163</v>
+      </c>
+      <c r="K66" s="22">
+        <v>178</v>
+      </c>
+      <c r="L66" s="19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="4">
-        <v>3</v>
-      </c>
-      <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="9">
-        <v>4</v>
-      </c>
-      <c r="G67" s="9">
-        <v>4</v>
-      </c>
-      <c r="H67" s="9">
-        <v>3</v>
-      </c>
-      <c r="I67" s="9">
-        <v>7</v>
-      </c>
-      <c r="J67" s="9">
-        <v>9</v>
-      </c>
-      <c r="K67" s="9">
-        <v>17</v>
-      </c>
-      <c r="L67" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="C67" s="18">
+        <v>567</v>
+      </c>
+      <c r="D67" s="18">
+        <v>469</v>
+      </c>
+      <c r="E67" s="18">
+        <v>296</v>
+      </c>
+      <c r="F67" s="22">
+        <v>240</v>
+      </c>
+      <c r="G67" s="22">
+        <v>174</v>
+      </c>
+      <c r="H67" s="22">
+        <v>123</v>
+      </c>
+      <c r="I67" s="22">
+        <v>125</v>
+      </c>
+      <c r="J67" s="22">
+        <v>138</v>
+      </c>
+      <c r="K67" s="22">
+        <v>335</v>
+      </c>
+      <c r="L67" s="19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A68" s="10"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4">
-        <v>3</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9">
-        <v>2</v>
-      </c>
-      <c r="G68" s="9">
-        <v>2</v>
-      </c>
-      <c r="H68" s="9">
-        <v>5</v>
-      </c>
-      <c r="I68" s="9">
-        <v>7</v>
-      </c>
-      <c r="J68" s="9">
-        <v>11</v>
-      </c>
-      <c r="K68" s="9">
-        <v>18</v>
-      </c>
-      <c r="L68" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="C68" s="18">
+        <v>518</v>
+      </c>
+      <c r="D68" s="18">
+        <v>447</v>
+      </c>
+      <c r="E68" s="18">
+        <v>277</v>
+      </c>
+      <c r="F68" s="22">
+        <v>190</v>
+      </c>
+      <c r="G68" s="22">
+        <v>182</v>
+      </c>
+      <c r="H68" s="22">
+        <v>147</v>
+      </c>
+      <c r="I68" s="22">
+        <v>197</v>
+      </c>
+      <c r="J68" s="22">
+        <v>173</v>
+      </c>
+      <c r="K68" s="22">
+        <v>188</v>
+      </c>
+      <c r="L68" s="19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A69" s="10"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="9">
-        <v>4</v>
-      </c>
-      <c r="D69" s="9">
-        <v>3</v>
-      </c>
-      <c r="E69" s="9">
-        <v>5</v>
-      </c>
-      <c r="F69" s="9">
-        <v>5</v>
-      </c>
-      <c r="G69" s="9">
-        <v>6</v>
-      </c>
-      <c r="H69" s="9">
-        <v>4</v>
-      </c>
-      <c r="I69" s="9">
-        <v>6</v>
-      </c>
-      <c r="J69" s="9">
-        <v>10</v>
-      </c>
-      <c r="K69" s="9">
-        <v>22</v>
-      </c>
-      <c r="L69" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="C69" s="22">
+        <v>705</v>
+      </c>
+      <c r="D69" s="22">
+        <v>746</v>
+      </c>
+      <c r="E69" s="22">
+        <v>244</v>
+      </c>
+      <c r="F69" s="22">
+        <v>201</v>
+      </c>
+      <c r="G69" s="22">
+        <v>164</v>
+      </c>
+      <c r="H69" s="22">
+        <v>125</v>
+      </c>
+      <c r="I69" s="22">
+        <v>149</v>
+      </c>
+      <c r="J69" s="22">
+        <v>240</v>
+      </c>
+      <c r="K69" s="22">
+        <v>171</v>
+      </c>
+      <c r="L69" s="19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="9">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9">
-        <v>7</v>
-      </c>
-      <c r="E70" s="9">
-        <v>8</v>
-      </c>
-      <c r="F70" s="9">
-        <v>8</v>
-      </c>
-      <c r="G70" s="9">
-        <v>14</v>
-      </c>
-      <c r="H70" s="9">
-        <v>9</v>
-      </c>
-      <c r="I70" s="9">
-        <v>11</v>
-      </c>
-      <c r="J70" s="9">
-        <v>19</v>
-      </c>
-      <c r="K70" s="9">
-        <v>24</v>
-      </c>
-      <c r="L70" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="C70" s="22">
+        <v>228</v>
+      </c>
+      <c r="D70" s="22">
+        <v>170</v>
+      </c>
+      <c r="E70" s="22">
+        <v>152</v>
+      </c>
+      <c r="F70" s="22">
+        <v>163</v>
+      </c>
+      <c r="G70" s="22">
+        <v>198</v>
+      </c>
+      <c r="H70" s="22">
+        <v>335</v>
+      </c>
+      <c r="I70" s="22">
+        <v>203</v>
+      </c>
+      <c r="J70" s="22">
+        <v>175</v>
+      </c>
+      <c r="K70" s="22">
+        <v>176</v>
+      </c>
+      <c r="L70" s="19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A71" s="10"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="9">
-        <v>3</v>
-      </c>
-      <c r="D71" s="9">
-        <v>8</v>
-      </c>
-      <c r="E71" s="9">
-        <v>7</v>
-      </c>
-      <c r="F71" s="9">
-        <v>8</v>
-      </c>
-      <c r="G71" s="9">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9">
-        <v>9</v>
-      </c>
-      <c r="I71" s="9">
-        <v>10</v>
-      </c>
-      <c r="J71" s="9">
-        <v>19</v>
-      </c>
-      <c r="K71" s="9">
-        <v>28</v>
-      </c>
-      <c r="L71" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="C71" s="22">
+        <v>213</v>
+      </c>
+      <c r="D71" s="22">
+        <v>268</v>
+      </c>
+      <c r="E71" s="22">
+        <v>182</v>
+      </c>
+      <c r="F71" s="22">
+        <v>168</v>
+      </c>
+      <c r="G71" s="22">
+        <v>214</v>
+      </c>
+      <c r="H71" s="22">
+        <v>252</v>
+      </c>
+      <c r="I71" s="22">
+        <v>260</v>
+      </c>
+      <c r="J71" s="22">
+        <v>232</v>
+      </c>
+      <c r="K71" s="22">
+        <v>235</v>
+      </c>
+      <c r="L71" s="19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A72" s="10"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="9">
-        <v>3</v>
-      </c>
-      <c r="D72" s="9">
-        <v>9</v>
-      </c>
-      <c r="E72" s="9">
-        <v>9</v>
-      </c>
-      <c r="F72" s="9">
-        <v>9</v>
-      </c>
-      <c r="G72" s="9">
-        <v>12</v>
-      </c>
-      <c r="H72" s="9">
-        <v>9</v>
-      </c>
-      <c r="I72" s="9">
-        <v>13</v>
-      </c>
-      <c r="J72" s="9">
-        <v>17</v>
-      </c>
-      <c r="K72" s="9">
-        <v>27</v>
-      </c>
-      <c r="L72" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="C72" s="22">
+        <v>233</v>
+      </c>
+      <c r="D72" s="22">
+        <v>241</v>
+      </c>
+      <c r="E72" s="22">
+        <v>145</v>
+      </c>
+      <c r="F72" s="22">
+        <v>172</v>
+      </c>
+      <c r="G72" s="22">
+        <v>189</v>
+      </c>
+      <c r="H72" s="22">
+        <v>241</v>
+      </c>
+      <c r="I72" s="22">
+        <v>192</v>
+      </c>
+      <c r="J72" s="22">
+        <v>171</v>
+      </c>
+      <c r="K72" s="22">
+        <v>182</v>
+      </c>
+      <c r="L72" s="19">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="4">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9">
-        <v>1</v>
-      </c>
-      <c r="H73" s="9">
-        <v>2</v>
-      </c>
-      <c r="I73" s="9">
-        <v>5</v>
-      </c>
-      <c r="J73" s="9">
-        <v>9</v>
-      </c>
-      <c r="K73" s="9">
-        <v>16</v>
-      </c>
-      <c r="L73" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="C73" s="18">
+        <v>563</v>
+      </c>
+      <c r="D73" s="18">
+        <v>97</v>
+      </c>
+      <c r="E73" s="18">
+        <v>80</v>
+      </c>
+      <c r="F73" s="22">
+        <v>42</v>
+      </c>
+      <c r="G73" s="22">
+        <v>41</v>
+      </c>
+      <c r="H73" s="22">
+        <v>87</v>
+      </c>
+      <c r="I73" s="22">
+        <v>48</v>
+      </c>
+      <c r="J73" s="22">
+        <v>61</v>
+      </c>
+      <c r="K73" s="22">
+        <v>64</v>
+      </c>
+      <c r="L73" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A74" s="10"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="9">
-        <v>2</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2</v>
-      </c>
-      <c r="G74" s="9">
-        <v>2</v>
-      </c>
-      <c r="H74" s="9">
-        <v>6</v>
-      </c>
-      <c r="I74" s="9">
-        <v>4</v>
-      </c>
-      <c r="J74" s="9">
-        <v>11</v>
-      </c>
-      <c r="K74" s="9">
-        <v>20</v>
-      </c>
-      <c r="L74" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="C74" s="22">
+        <v>600</v>
+      </c>
+      <c r="D74" s="22">
+        <v>111</v>
+      </c>
+      <c r="E74" s="22">
+        <v>69</v>
+      </c>
+      <c r="F74" s="22">
+        <v>42</v>
+      </c>
+      <c r="G74" s="22">
+        <v>44</v>
+      </c>
+      <c r="H74" s="22">
+        <v>46</v>
+      </c>
+      <c r="I74" s="22">
+        <v>45</v>
+      </c>
+      <c r="J74" s="22">
+        <v>62</v>
+      </c>
+      <c r="K74" s="22">
+        <v>63</v>
+      </c>
+      <c r="L74" s="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A75" s="10"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="9">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="G75" s="9">
-        <v>1</v>
-      </c>
-      <c r="H75" s="9">
-        <v>3</v>
-      </c>
-      <c r="I75" s="9">
-        <v>5</v>
-      </c>
-      <c r="J75" s="9">
-        <v>9</v>
-      </c>
-      <c r="K75" s="9">
-        <v>17</v>
-      </c>
-      <c r="L75" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="C75" s="22">
+        <v>665</v>
+      </c>
+      <c r="D75" s="22">
+        <v>123</v>
+      </c>
+      <c r="E75" s="22">
+        <v>68</v>
+      </c>
+      <c r="F75" s="22">
+        <v>45</v>
+      </c>
+      <c r="G75" s="22">
+        <v>40</v>
+      </c>
+      <c r="H75" s="22">
+        <v>47</v>
+      </c>
+      <c r="I75" s="22">
+        <v>85</v>
+      </c>
+      <c r="J75" s="22">
+        <v>117</v>
+      </c>
+      <c r="K75" s="22">
+        <v>98</v>
+      </c>
+      <c r="L75" s="19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="4">
-        <v>3</v>
-      </c>
-      <c r="D76" s="4">
-        <v>8</v>
-      </c>
-      <c r="E76" s="4">
-        <v>7</v>
-      </c>
-      <c r="F76" s="9">
-        <v>6</v>
-      </c>
-      <c r="G76" s="9">
-        <v>6</v>
-      </c>
-      <c r="H76" s="9">
-        <v>8</v>
-      </c>
-      <c r="I76" s="9">
-        <v>8</v>
-      </c>
-      <c r="J76" s="9">
-        <v>12</v>
-      </c>
-      <c r="K76" s="9">
-        <v>23</v>
-      </c>
-      <c r="L76" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="C76" s="18">
+        <v>276</v>
+      </c>
+      <c r="D76" s="18">
+        <v>218</v>
+      </c>
+      <c r="E76" s="18">
+        <v>152</v>
+      </c>
+      <c r="F76" s="22">
+        <v>128</v>
+      </c>
+      <c r="G76" s="22">
+        <v>103</v>
+      </c>
+      <c r="H76" s="22">
+        <v>119</v>
+      </c>
+      <c r="I76" s="22">
+        <v>66</v>
+      </c>
+      <c r="J76" s="22">
+        <v>68</v>
+      </c>
+      <c r="K76" s="22">
+        <v>137</v>
+      </c>
+      <c r="L76" s="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="4">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5</v>
-      </c>
-      <c r="F77" s="9">
-        <v>6</v>
-      </c>
-      <c r="G77" s="9">
-        <v>5</v>
-      </c>
-      <c r="H77" s="9">
-        <v>6</v>
-      </c>
-      <c r="I77" s="9">
-        <v>10</v>
-      </c>
-      <c r="J77" s="9">
-        <v>16</v>
-      </c>
-      <c r="K77" s="9">
-        <v>23</v>
-      </c>
-      <c r="L77" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="C77" s="18">
+        <v>244</v>
+      </c>
+      <c r="D77" s="18">
+        <v>313</v>
+      </c>
+      <c r="E77" s="18">
+        <v>169</v>
+      </c>
+      <c r="F77" s="22">
+        <v>148</v>
+      </c>
+      <c r="G77" s="22">
+        <v>52</v>
+      </c>
+      <c r="H77" s="22">
+        <v>52</v>
+      </c>
+      <c r="I77" s="22">
+        <v>108</v>
+      </c>
+      <c r="J77" s="22">
+        <v>74</v>
+      </c>
+      <c r="K77" s="22">
+        <v>74</v>
+      </c>
+      <c r="L77" s="19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A78" s="11"/>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="7">
-        <v>4</v>
-      </c>
-      <c r="D78" s="7">
-        <v>9</v>
-      </c>
-      <c r="E78" s="7">
-        <v>6</v>
-      </c>
-      <c r="F78" s="7">
-        <v>5</v>
-      </c>
-      <c r="G78" s="7">
-        <v>6</v>
-      </c>
-      <c r="H78" s="7">
-        <v>6</v>
-      </c>
-      <c r="I78" s="7">
-        <v>9</v>
-      </c>
-      <c r="J78" s="7">
-        <v>16</v>
-      </c>
-      <c r="K78" s="7">
-        <v>25</v>
-      </c>
-      <c r="L78" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C78" s="20">
+        <v>327</v>
+      </c>
+      <c r="D78" s="20">
+        <v>239</v>
+      </c>
+      <c r="E78" s="20">
+        <v>145</v>
+      </c>
+      <c r="F78" s="20">
+        <v>112</v>
+      </c>
+      <c r="G78" s="20">
+        <v>104</v>
+      </c>
+      <c r="H78" s="20">
+        <v>94</v>
+      </c>
+      <c r="I78" s="20">
+        <v>60</v>
+      </c>
+      <c r="J78" s="20">
+        <v>122</v>
+      </c>
+      <c r="K78" s="20">
+        <v>124</v>
+      </c>
+      <c r="L78" s="21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -6421,8 +6500,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6443,8 +6522,8 @@
       <c r="K83" s="14"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
@@ -6461,8 +6540,8 @@
       <c r="K84" s="14"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
@@ -6479,8 +6558,8 @@
       <c r="K85" s="14"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6499,8 +6578,8 @@
       <c r="K86" s="14"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A87" s="10"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
@@ -6517,8 +6596,8 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
@@ -6535,8 +6614,8 @@
       <c r="K88" s="14"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6555,8 +6634,8 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
@@ -6573,8 +6652,8 @@
       <c r="K90" s="14"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
@@ -6591,8 +6670,8 @@
       <c r="K91" s="14"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6629,8 +6708,8 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -6665,8 +6744,8 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -6701,8 +6780,8 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -6739,8 +6818,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A96" s="10"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -6775,8 +6854,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A97" s="10"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -6811,8 +6890,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -6849,8 +6928,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -6885,8 +6964,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -6921,8 +7000,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6959,8 +7038,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -6995,8 +7074,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -7031,8 +7110,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7069,8 +7148,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A105" s="10"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -7105,8 +7184,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A106" s="10"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7141,8 +7220,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7179,8 +7258,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -7215,8 +7294,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -7251,8 +7330,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A110" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7289,8 +7368,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A111" s="10"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -7325,8 +7404,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A112" s="10"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7361,8 +7440,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A113" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -7399,8 +7478,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A114" s="10"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -7435,8 +7514,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A115" s="10"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -7471,8 +7550,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A116" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -7509,8 +7588,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A117" s="10"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -7545,8 +7624,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+    <row r="118" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A118" s="11"/>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
@@ -7581,28 +7660,28 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4">
@@ -7636,8 +7715,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A123" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7656,8 +7735,8 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
@@ -7672,8 +7751,8 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
@@ -7688,8 +7767,8 @@
       <c r="K125" s="14"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7706,8 +7785,8 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A127" s="10"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
@@ -7722,8 +7801,8 @@
       <c r="K127" s="14"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A128" s="10"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
@@ -7738,8 +7817,8 @@
       <c r="K128" s="14"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7756,8 +7835,8 @@
       <c r="K129" s="14"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A130" s="10"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
@@ -7772,8 +7851,8 @@
       <c r="K130" s="14"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A131" s="10"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
@@ -7788,8 +7867,8 @@
       <c r="K131" s="14"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7806,8 +7885,8 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A133" s="10"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -7822,8 +7901,8 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A134" s="10"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -7838,8 +7917,8 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -7856,8 +7935,8 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A136" s="10"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -7872,8 +7951,8 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A137" s="10"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -7888,8 +7967,8 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A138" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -7906,8 +7985,8 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A139" s="10"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -7922,8 +8001,8 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A140" s="10"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7938,8 +8017,8 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -7956,8 +8035,8 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A142" s="10"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -7972,8 +8051,8 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A143" s="10"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -7988,8 +8067,8 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -8006,8 +8085,8 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A145" s="10"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -8022,8 +8101,8 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A146" s="10"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -8038,8 +8117,8 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A147" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8056,8 +8135,8 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -8072,8 +8151,8 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -8088,8 +8167,8 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A150" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8106,8 +8185,8 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -8122,8 +8201,8 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -8138,8 +8217,8 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A153" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8156,8 +8235,8 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -8172,8 +8251,8 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8188,8 +8267,8 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -8206,8 +8285,8 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A157" s="10"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -8222,8 +8301,8 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
+    <row r="158" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A158" s="11"/>
       <c r="B158" s="7" t="s">
         <v>7</v>
       </c>
@@ -8238,28 +8317,28 @@
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="13"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4">
@@ -8293,8 +8372,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A163" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -8315,8 +8394,8 @@
       <c r="K163" s="14"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A164" s="10"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
@@ -8333,8 +8412,8 @@
       <c r="K164" s="14"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A165" s="10"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
@@ -8351,8 +8430,8 @@
       <c r="K165" s="14"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A166" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -8371,8 +8450,8 @@
       <c r="K166" s="14"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A167" s="10"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
@@ -8389,8 +8468,8 @@
       <c r="K167" s="14"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A168" s="10"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
@@ -8407,8 +8486,8 @@
       <c r="K168" s="14"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8427,8 +8506,8 @@
       <c r="K169" s="14"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A170" s="10"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
@@ -8445,8 +8524,8 @@
       <c r="K170" s="14"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A171" s="10"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
@@ -8463,8 +8542,8 @@
       <c r="K171" s="14"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8501,8 +8580,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A173" s="10"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -8537,8 +8616,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A174" s="10"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8573,8 +8652,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A175" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8611,8 +8690,8 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A176" s="10"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -8647,8 +8726,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A177" s="10"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8683,8 +8762,8 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A178" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -8721,8 +8800,8 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A179" s="10"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -8757,8 +8836,8 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A180" s="10"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -8793,8 +8872,8 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -8831,8 +8910,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A182" s="10"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -8867,8 +8946,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A183" s="10"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -8903,8 +8982,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A184" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -8941,8 +9020,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -8977,8 +9056,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A186" s="10"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -9013,8 +9092,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9051,8 +9130,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A188" s="10"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -9087,8 +9166,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A189" s="10"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -9123,8 +9202,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9161,8 +9240,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A191" s="10"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -9197,8 +9276,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A192" s="10"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -9233,8 +9312,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A193" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9271,8 +9350,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A194" s="10"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -9307,8 +9386,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A195" s="10"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -9343,8 +9422,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A196" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9381,8 +9460,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A197" s="10"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -9417,8 +9496,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
+    <row r="198" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A198" s="11"/>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
@@ -9453,28 +9532,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="11"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4">
@@ -9508,8 +9587,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A203" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -9530,8 +9609,8 @@
       <c r="K203" s="14"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A204" s="10"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
@@ -9548,8 +9627,8 @@
       <c r="K204" s="14"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A205" s="10"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
@@ -9566,8 +9645,8 @@
       <c r="K205" s="14"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A206" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -9586,8 +9665,8 @@
       <c r="K206" s="14"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A207" s="10"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
@@ -9604,8 +9683,8 @@
       <c r="K207" s="14"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A208" s="10"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9622,8 +9701,8 @@
       <c r="K208" s="14"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A209" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -9642,8 +9721,8 @@
       <c r="K209" s="14"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A210" s="10"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
@@ -9660,8 +9739,8 @@
       <c r="K210" s="14"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A211" s="10"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
@@ -9678,8 +9757,8 @@
       <c r="K211" s="14"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -9696,8 +9775,8 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A213" s="10"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
@@ -9712,8 +9791,8 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A214" s="10"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
@@ -9728,8 +9807,8 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -9746,8 +9825,8 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A216" s="10"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
@@ -9762,8 +9841,8 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A217" s="10"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
@@ -9778,8 +9857,8 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A218" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -9796,8 +9875,8 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A219" s="10"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
@@ -9812,8 +9891,8 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A220" s="10"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
@@ -9828,8 +9907,8 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -9858,8 +9937,8 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A222" s="10"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
@@ -9886,8 +9965,8 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A223" s="10"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
@@ -9914,8 +9993,8 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A224" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -9944,8 +10023,8 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A225" s="10"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
@@ -9972,8 +10051,8 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
@@ -10000,8 +10079,8 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -10030,8 +10109,8 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A228" s="10"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
@@ -10058,8 +10137,8 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A229" s="10"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
@@ -10086,8 +10165,8 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A230" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -10104,8 +10183,8 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A231" s="10"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
@@ -10120,8 +10199,8 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A232" s="10"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
@@ -10136,8 +10215,8 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A233" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -10154,8 +10233,8 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A234" s="10"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
@@ -10170,8 +10249,8 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A235" s="10"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
@@ -10186,8 +10265,8 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A236" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -10204,8 +10283,8 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A237" s="10"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
@@ -10220,8 +10299,8 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
+    <row r="238" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A238" s="11"/>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
@@ -10236,28 +10315,28 @@
       <c r="K238" s="7"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="11"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="13"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4">
@@ -10291,14 +10370,16 @@
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A243" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C243" s="4"/>
+      <c r="C243" s="24">
+        <v>118</v>
+      </c>
       <c r="D243" s="14" t="s">
         <v>31</v>
       </c>
@@ -10311,12 +10392,14 @@
       <c r="K243" s="14"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A244" s="10"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C244" s="4"/>
+      <c r="C244" s="24">
+        <v>108</v>
+      </c>
       <c r="D244" s="14"/>
       <c r="E244" s="14"/>
       <c r="F244" s="14"/>
@@ -10327,12 +10410,14 @@
       <c r="K244" s="14"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A245" s="10"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C245" s="4"/>
+      <c r="C245" s="28">
+        <v>119</v>
+      </c>
       <c r="D245" s="14"/>
       <c r="E245" s="14"/>
       <c r="F245" s="14"/>
@@ -10343,14 +10428,16 @@
       <c r="K245" s="14"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A246" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C246" s="4"/>
+      <c r="C246" s="24">
+        <v>95</v>
+      </c>
       <c r="D246" s="14"/>
       <c r="E246" s="14"/>
       <c r="F246" s="14"/>
@@ -10361,12 +10448,14 @@
       <c r="K246" s="14"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A247" s="10"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C247" s="4"/>
+      <c r="C247" s="28">
+        <v>86</v>
+      </c>
       <c r="D247" s="14"/>
       <c r="E247" s="14"/>
       <c r="F247" s="14"/>
@@ -10377,12 +10466,14 @@
       <c r="K247" s="14"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A248" s="10"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C248" s="4"/>
+      <c r="C248" s="28">
+        <v>94</v>
+      </c>
       <c r="D248" s="14"/>
       <c r="E248" s="14"/>
       <c r="F248" s="14"/>
@@ -10393,14 +10484,16 @@
       <c r="K248" s="14"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A249" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C249" s="4"/>
+      <c r="C249" s="24">
+        <v>443</v>
+      </c>
       <c r="D249" s="14"/>
       <c r="E249" s="14"/>
       <c r="F249" s="14"/>
@@ -10411,12 +10504,14 @@
       <c r="K249" s="14"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A250" s="10"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C250" s="4"/>
+      <c r="C250" s="28">
+        <v>438</v>
+      </c>
       <c r="D250" s="14"/>
       <c r="E250" s="14"/>
       <c r="F250" s="14"/>
@@ -10427,12 +10522,14 @@
       <c r="K250" s="14"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A251" s="10"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C251" s="4"/>
+      <c r="C251" s="28">
+        <v>416</v>
+      </c>
       <c r="D251" s="14"/>
       <c r="E251" s="14"/>
       <c r="F251" s="14"/>
@@ -10443,475 +10540,1066 @@
       <c r="K251" s="14"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A252" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="5"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
+      <c r="C252" s="28">
+        <v>488</v>
+      </c>
+      <c r="D252" s="24">
+        <v>351</v>
+      </c>
+      <c r="E252" s="24">
+        <v>302</v>
+      </c>
+      <c r="F252" s="28">
+        <v>259</v>
+      </c>
+      <c r="G252" s="28">
+        <v>200</v>
+      </c>
+      <c r="H252" s="28">
+        <v>204</v>
+      </c>
+      <c r="I252" s="28">
+        <v>193</v>
+      </c>
+      <c r="J252" s="28">
+        <v>267</v>
+      </c>
+      <c r="K252" s="28">
+        <v>265</v>
+      </c>
+      <c r="L252" s="25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A253" s="10"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
-      <c r="L253" s="5"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
+      <c r="C253" s="28">
+        <v>492</v>
+      </c>
+      <c r="D253" s="24">
+        <v>327</v>
+      </c>
+      <c r="E253" s="24">
+        <v>296</v>
+      </c>
+      <c r="F253" s="28">
+        <v>296</v>
+      </c>
+      <c r="G253" s="28">
+        <v>220</v>
+      </c>
+      <c r="H253" s="28">
+        <v>214</v>
+      </c>
+      <c r="I253" s="28">
+        <v>199</v>
+      </c>
+      <c r="J253" s="28">
+        <v>195</v>
+      </c>
+      <c r="K253" s="28">
+        <v>295</v>
+      </c>
+      <c r="L253" s="25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A254" s="10"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
-      <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
-      <c r="L254" s="5"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
+      <c r="C254" s="28">
+        <v>501</v>
+      </c>
+      <c r="D254" s="28">
+        <v>376</v>
+      </c>
+      <c r="E254" s="28">
+        <v>282</v>
+      </c>
+      <c r="F254" s="28">
+        <v>267</v>
+      </c>
+      <c r="G254" s="28">
+        <v>199</v>
+      </c>
+      <c r="H254" s="28">
+        <v>198</v>
+      </c>
+      <c r="I254" s="28">
+        <v>230</v>
+      </c>
+      <c r="J254" s="28">
+        <v>220</v>
+      </c>
+      <c r="K254" s="28">
+        <v>242</v>
+      </c>
+      <c r="L254" s="25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-      <c r="L255" s="5"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
+      <c r="C255" s="28">
+        <v>284</v>
+      </c>
+      <c r="D255" s="24">
+        <v>145</v>
+      </c>
+      <c r="E255" s="24">
+        <v>75</v>
+      </c>
+      <c r="F255" s="28">
+        <v>57</v>
+      </c>
+      <c r="G255" s="28">
+        <v>59</v>
+      </c>
+      <c r="H255" s="28">
+        <v>43</v>
+      </c>
+      <c r="I255" s="28">
+        <v>42</v>
+      </c>
+      <c r="J255" s="28">
+        <v>94</v>
+      </c>
+      <c r="K255" s="28">
+        <v>53</v>
+      </c>
+      <c r="L255" s="25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A256" s="10"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-      <c r="L256" s="5"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="12"/>
+      <c r="C256" s="28">
+        <v>284</v>
+      </c>
+      <c r="D256" s="24">
+        <v>147</v>
+      </c>
+      <c r="E256" s="24">
+        <v>80</v>
+      </c>
+      <c r="F256" s="28">
+        <v>52</v>
+      </c>
+      <c r="G256" s="28">
+        <v>50</v>
+      </c>
+      <c r="H256" s="28">
+        <v>59</v>
+      </c>
+      <c r="I256" s="28">
+        <v>44</v>
+      </c>
+      <c r="J256" s="28">
+        <v>93</v>
+      </c>
+      <c r="K256" s="28">
+        <v>52</v>
+      </c>
+      <c r="L256" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A257" s="10"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
-      <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
-      <c r="L257" s="5"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+      <c r="C257" s="28">
+        <v>278</v>
+      </c>
+      <c r="D257" s="28">
+        <v>146</v>
+      </c>
+      <c r="E257" s="28">
+        <v>72</v>
+      </c>
+      <c r="F257" s="28">
+        <v>52</v>
+      </c>
+      <c r="G257" s="28">
+        <v>61</v>
+      </c>
+      <c r="H257" s="28">
+        <v>55</v>
+      </c>
+      <c r="I257" s="28">
+        <v>42</v>
+      </c>
+      <c r="J257" s="28">
+        <v>94</v>
+      </c>
+      <c r="K257" s="28">
+        <v>52</v>
+      </c>
+      <c r="L257" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A258" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
-      <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="4"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
-      <c r="L258" s="5"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
+      <c r="C258" s="24">
+        <v>594</v>
+      </c>
+      <c r="D258" s="24">
+        <v>380</v>
+      </c>
+      <c r="E258" s="24">
+        <v>231</v>
+      </c>
+      <c r="F258" s="28">
+        <v>232</v>
+      </c>
+      <c r="G258" s="28">
+        <v>267</v>
+      </c>
+      <c r="H258" s="28">
+        <v>252</v>
+      </c>
+      <c r="I258" s="28">
+        <v>253</v>
+      </c>
+      <c r="J258" s="28">
+        <v>285</v>
+      </c>
+      <c r="K258" s="28">
+        <v>286</v>
+      </c>
+      <c r="L258" s="25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A259" s="10"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="4"/>
-      <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
-      <c r="I259" s="4"/>
-      <c r="J259" s="4"/>
-      <c r="K259" s="4"/>
-      <c r="L259" s="5"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
+      <c r="C259" s="28">
+        <v>552</v>
+      </c>
+      <c r="D259" s="24">
+        <v>377</v>
+      </c>
+      <c r="E259" s="24">
+        <v>241</v>
+      </c>
+      <c r="F259" s="28">
+        <v>232</v>
+      </c>
+      <c r="G259" s="28">
+        <v>262</v>
+      </c>
+      <c r="H259" s="28">
+        <v>255</v>
+      </c>
+      <c r="I259" s="28">
+        <v>262</v>
+      </c>
+      <c r="J259" s="28">
+        <v>265</v>
+      </c>
+      <c r="K259" s="28">
+        <v>269</v>
+      </c>
+      <c r="L259" s="25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A260" s="10"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="4"/>
-      <c r="G260" s="4"/>
-      <c r="H260" s="4"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
-      <c r="K260" s="4"/>
-      <c r="L260" s="5"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+      <c r="C260" s="28">
+        <v>560</v>
+      </c>
+      <c r="D260" s="28">
+        <v>380</v>
+      </c>
+      <c r="E260" s="28">
+        <v>234</v>
+      </c>
+      <c r="F260" s="28">
+        <v>234</v>
+      </c>
+      <c r="G260" s="28">
+        <v>255</v>
+      </c>
+      <c r="H260" s="28">
+        <v>243</v>
+      </c>
+      <c r="I260" s="28">
+        <v>255</v>
+      </c>
+      <c r="J260" s="28">
+        <v>271</v>
+      </c>
+      <c r="K260" s="28">
+        <v>269</v>
+      </c>
+      <c r="L260" s="25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="4"/>
-      <c r="G261" s="4"/>
-      <c r="H261" s="4"/>
-      <c r="I261" s="4"/>
-      <c r="J261" s="4"/>
-      <c r="K261" s="4"/>
-      <c r="L261" s="5"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
+      <c r="C261" s="28">
+        <v>272</v>
+      </c>
+      <c r="D261" s="28">
+        <v>216</v>
+      </c>
+      <c r="E261" s="28">
+        <v>151</v>
+      </c>
+      <c r="F261" s="28">
+        <v>141</v>
+      </c>
+      <c r="G261" s="28">
+        <v>125</v>
+      </c>
+      <c r="H261" s="28">
+        <v>149</v>
+      </c>
+      <c r="I261" s="28">
+        <v>133</v>
+      </c>
+      <c r="J261" s="28">
+        <v>147</v>
+      </c>
+      <c r="K261" s="28">
+        <v>144</v>
+      </c>
+      <c r="L261" s="25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A262" s="10"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="4"/>
-      <c r="G262" s="4"/>
-      <c r="H262" s="4"/>
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="4"/>
-      <c r="L262" s="5"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
+      <c r="C262" s="28">
+        <v>306</v>
+      </c>
+      <c r="D262" s="28">
+        <v>224</v>
+      </c>
+      <c r="E262" s="28">
+        <v>138</v>
+      </c>
+      <c r="F262" s="28">
+        <v>128</v>
+      </c>
+      <c r="G262" s="28">
+        <v>128</v>
+      </c>
+      <c r="H262" s="28">
+        <v>133</v>
+      </c>
+      <c r="I262" s="28">
+        <v>133</v>
+      </c>
+      <c r="J262" s="28">
+        <v>142</v>
+      </c>
+      <c r="K262" s="28">
+        <v>162</v>
+      </c>
+      <c r="L262" s="25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A263" s="10"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4"/>
-      <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
-      <c r="I263" s="4"/>
-      <c r="J263" s="4"/>
-      <c r="K263" s="4"/>
-      <c r="L263" s="5"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
+      <c r="C263" s="28">
+        <v>278</v>
+      </c>
+      <c r="D263" s="28">
+        <v>237</v>
+      </c>
+      <c r="E263" s="28">
+        <v>166</v>
+      </c>
+      <c r="F263" s="28">
+        <v>127</v>
+      </c>
+      <c r="G263" s="28">
+        <v>128</v>
+      </c>
+      <c r="H263" s="28">
+        <v>168</v>
+      </c>
+      <c r="I263" s="28">
+        <v>145</v>
+      </c>
+      <c r="J263" s="28">
+        <v>145</v>
+      </c>
+      <c r="K263" s="28">
+        <v>164</v>
+      </c>
+      <c r="L263" s="25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A264" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="4"/>
-      <c r="G264" s="4"/>
-      <c r="H264" s="4"/>
-      <c r="I264" s="4"/>
-      <c r="J264" s="4"/>
-      <c r="K264" s="4"/>
-      <c r="L264" s="5"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
+      <c r="C264" s="24">
+        <v>315</v>
+      </c>
+      <c r="D264" s="24">
+        <v>181</v>
+      </c>
+      <c r="E264" s="24">
+        <v>113</v>
+      </c>
+      <c r="F264" s="28">
+        <v>99</v>
+      </c>
+      <c r="G264" s="28">
+        <v>87</v>
+      </c>
+      <c r="H264" s="28">
+        <v>76</v>
+      </c>
+      <c r="I264" s="28">
+        <v>74</v>
+      </c>
+      <c r="J264" s="28">
+        <v>75</v>
+      </c>
+      <c r="K264" s="28">
+        <v>106</v>
+      </c>
+      <c r="L264" s="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A265" s="10"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
-      <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
-      <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
-      <c r="K265" s="4"/>
-      <c r="L265" s="5"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
+      <c r="C265" s="28">
+        <v>331</v>
+      </c>
+      <c r="D265" s="28">
+        <v>179</v>
+      </c>
+      <c r="E265" s="28">
+        <v>111</v>
+      </c>
+      <c r="F265" s="28">
+        <v>100</v>
+      </c>
+      <c r="G265" s="28">
+        <v>86</v>
+      </c>
+      <c r="H265" s="28">
+        <v>79</v>
+      </c>
+      <c r="I265" s="28">
+        <v>76</v>
+      </c>
+      <c r="J265" s="28">
+        <v>83</v>
+      </c>
+      <c r="K265" s="28">
+        <v>92</v>
+      </c>
+      <c r="L265" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A266" s="10"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
-      <c r="L266" s="5"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
+      <c r="C266" s="28">
+        <v>324</v>
+      </c>
+      <c r="D266" s="28">
+        <v>180</v>
+      </c>
+      <c r="E266" s="28">
+        <v>111</v>
+      </c>
+      <c r="F266" s="28">
+        <v>89</v>
+      </c>
+      <c r="G266" s="28">
+        <v>88</v>
+      </c>
+      <c r="H266" s="28">
+        <v>73</v>
+      </c>
+      <c r="I266" s="28">
+        <v>104</v>
+      </c>
+      <c r="J266" s="28">
+        <v>78</v>
+      </c>
+      <c r="K266" s="28">
+        <v>94</v>
+      </c>
+      <c r="L266" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A267" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="4"/>
-      <c r="L267" s="5"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
+      <c r="C267" s="24">
+        <v>413</v>
+      </c>
+      <c r="D267" s="24">
+        <v>262</v>
+      </c>
+      <c r="E267" s="24">
+        <v>138</v>
+      </c>
+      <c r="F267" s="28">
+        <v>113</v>
+      </c>
+      <c r="G267" s="28">
+        <v>88</v>
+      </c>
+      <c r="H267" s="28">
+        <v>99</v>
+      </c>
+      <c r="I267" s="28">
+        <v>115</v>
+      </c>
+      <c r="J267" s="28">
+        <v>90</v>
+      </c>
+      <c r="K267" s="28">
+        <v>133</v>
+      </c>
+      <c r="L267" s="25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A268" s="10"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="5"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="12"/>
+      <c r="C268" s="24">
+        <v>415</v>
+      </c>
+      <c r="D268" s="24">
+        <v>231</v>
+      </c>
+      <c r="E268" s="24">
+        <v>156</v>
+      </c>
+      <c r="F268" s="28">
+        <v>128</v>
+      </c>
+      <c r="G268" s="28">
+        <v>121</v>
+      </c>
+      <c r="H268" s="28">
+        <v>86</v>
+      </c>
+      <c r="I268" s="28">
+        <v>79</v>
+      </c>
+      <c r="J268" s="28">
+        <v>86</v>
+      </c>
+      <c r="K268" s="28">
+        <v>105</v>
+      </c>
+      <c r="L268" s="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A269" s="10"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
-      <c r="L269" s="5"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
+      <c r="C269" s="28">
+        <v>422</v>
+      </c>
+      <c r="D269" s="28">
+        <v>236</v>
+      </c>
+      <c r="E269" s="28">
+        <v>131</v>
+      </c>
+      <c r="F269" s="28">
+        <v>118</v>
+      </c>
+      <c r="G269" s="28">
+        <v>113</v>
+      </c>
+      <c r="H269" s="28">
+        <v>86</v>
+      </c>
+      <c r="I269" s="28">
+        <v>92</v>
+      </c>
+      <c r="J269" s="28">
+        <v>95</v>
+      </c>
+      <c r="K269" s="28">
+        <v>110</v>
+      </c>
+      <c r="L269" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A270" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="4"/>
-      <c r="L270" s="5"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
+      <c r="C270" s="28">
+        <v>156</v>
+      </c>
+      <c r="D270" s="28">
+        <v>183</v>
+      </c>
+      <c r="E270" s="28">
+        <v>124</v>
+      </c>
+      <c r="F270" s="28">
+        <v>95</v>
+      </c>
+      <c r="G270" s="28">
+        <v>111</v>
+      </c>
+      <c r="H270" s="28">
+        <v>120</v>
+      </c>
+      <c r="I270" s="28">
+        <v>129</v>
+      </c>
+      <c r="J270" s="28">
+        <v>147</v>
+      </c>
+      <c r="K270" s="28">
+        <v>149</v>
+      </c>
+      <c r="L270" s="25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A271" s="10"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="5"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="12"/>
+      <c r="C271" s="28">
+        <v>163</v>
+      </c>
+      <c r="D271" s="28">
+        <v>155</v>
+      </c>
+      <c r="E271" s="28">
+        <v>163</v>
+      </c>
+      <c r="F271" s="28">
+        <v>103</v>
+      </c>
+      <c r="G271" s="28">
+        <v>120</v>
+      </c>
+      <c r="H271" s="28">
+        <v>156</v>
+      </c>
+      <c r="I271" s="28">
+        <v>121</v>
+      </c>
+      <c r="J271" s="28">
+        <v>160</v>
+      </c>
+      <c r="K271" s="28">
+        <v>180</v>
+      </c>
+      <c r="L271" s="25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A272" s="10"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="5"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
+      <c r="C272" s="28">
+        <v>160</v>
+      </c>
+      <c r="D272" s="28">
+        <v>186</v>
+      </c>
+      <c r="E272" s="28">
+        <v>113</v>
+      </c>
+      <c r="F272" s="28">
+        <v>159</v>
+      </c>
+      <c r="G272" s="28">
+        <v>171</v>
+      </c>
+      <c r="H272" s="28">
+        <v>226</v>
+      </c>
+      <c r="I272" s="28">
+        <v>136</v>
+      </c>
+      <c r="J272" s="28">
+        <v>153</v>
+      </c>
+      <c r="K272" s="28">
+        <v>114</v>
+      </c>
+      <c r="L272" s="25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="5"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
+      <c r="C273" s="24">
+        <v>104</v>
+      </c>
+      <c r="D273" s="24">
+        <v>61</v>
+      </c>
+      <c r="E273" s="24">
+        <v>29</v>
+      </c>
+      <c r="F273" s="28">
+        <v>29</v>
+      </c>
+      <c r="G273" s="28">
+        <v>26</v>
+      </c>
+      <c r="H273" s="28">
+        <v>42</v>
+      </c>
+      <c r="I273" s="28">
+        <v>21</v>
+      </c>
+      <c r="J273" s="28">
+        <v>24</v>
+      </c>
+      <c r="K273" s="28">
+        <v>51</v>
+      </c>
+      <c r="L273" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A274" s="10"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="5"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="12"/>
+      <c r="C274" s="28">
+        <v>108</v>
+      </c>
+      <c r="D274" s="28">
+        <v>56</v>
+      </c>
+      <c r="E274" s="28">
+        <v>30</v>
+      </c>
+      <c r="F274" s="28">
+        <v>28</v>
+      </c>
+      <c r="G274" s="28">
+        <v>54</v>
+      </c>
+      <c r="H274" s="28">
+        <v>58</v>
+      </c>
+      <c r="I274" s="28">
+        <v>21</v>
+      </c>
+      <c r="J274" s="28">
+        <v>46</v>
+      </c>
+      <c r="K274" s="28">
+        <v>25</v>
+      </c>
+      <c r="L274" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A275" s="10"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="5"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
+      <c r="C275" s="28">
+        <v>109</v>
+      </c>
+      <c r="D275" s="28">
+        <v>57</v>
+      </c>
+      <c r="E275" s="28">
+        <v>29</v>
+      </c>
+      <c r="F275" s="28">
+        <v>26</v>
+      </c>
+      <c r="G275" s="28">
+        <v>48</v>
+      </c>
+      <c r="H275" s="28">
+        <v>76</v>
+      </c>
+      <c r="I275" s="28">
+        <v>21</v>
+      </c>
+      <c r="J275" s="28">
+        <v>22</v>
+      </c>
+      <c r="K275" s="28">
+        <v>27</v>
+      </c>
+      <c r="L275" s="25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A276" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
-      <c r="L276" s="5"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="12"/>
+      <c r="C276" s="24">
+        <v>149</v>
+      </c>
+      <c r="D276" s="24">
+        <v>120</v>
+      </c>
+      <c r="E276" s="24">
+        <v>77</v>
+      </c>
+      <c r="F276" s="28">
+        <v>79</v>
+      </c>
+      <c r="G276" s="28">
+        <v>78</v>
+      </c>
+      <c r="H276" s="28">
+        <v>72</v>
+      </c>
+      <c r="I276" s="28">
+        <v>64</v>
+      </c>
+      <c r="J276" s="28">
+        <v>53</v>
+      </c>
+      <c r="K276" s="28">
+        <v>62</v>
+      </c>
+      <c r="L276" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A277" s="10"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
-      <c r="L277" s="5"/>
-    </row>
-    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="13"/>
+      <c r="C277" s="24">
+        <v>141</v>
+      </c>
+      <c r="D277" s="24">
+        <v>113</v>
+      </c>
+      <c r="E277" s="24">
+        <v>84</v>
+      </c>
+      <c r="F277" s="28">
+        <v>96</v>
+      </c>
+      <c r="G277" s="28">
+        <v>72</v>
+      </c>
+      <c r="H277" s="28">
+        <v>70</v>
+      </c>
+      <c r="I277" s="28">
+        <v>69</v>
+      </c>
+      <c r="J277" s="28">
+        <v>56</v>
+      </c>
+      <c r="K277" s="28">
+        <v>64</v>
+      </c>
+      <c r="L277" s="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A278" s="11"/>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C278" s="7"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="7"/>
-      <c r="I278" s="7"/>
-      <c r="J278" s="7"/>
-      <c r="K278" s="7"/>
-      <c r="L278" s="8"/>
+      <c r="C278" s="26">
+        <v>158</v>
+      </c>
+      <c r="D278" s="26">
+        <v>114</v>
+      </c>
+      <c r="E278" s="26">
+        <v>59</v>
+      </c>
+      <c r="F278" s="26">
+        <v>54</v>
+      </c>
+      <c r="G278" s="26">
+        <v>75</v>
+      </c>
+      <c r="H278" s="26">
+        <v>78</v>
+      </c>
+      <c r="I278" s="26">
+        <v>66</v>
+      </c>
+      <c r="J278" s="26">
+        <v>70</v>
+      </c>
+      <c r="K278" s="26">
+        <v>67</v>
+      </c>
+      <c r="L278" s="27">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D43:L51"/>
     <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="D3:L11"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
     <mergeCell ref="A227:A229"/>
     <mergeCell ref="A190:A192"/>
     <mergeCell ref="A193:A195"/>
@@ -10926,107 +11614,56 @@
     <mergeCell ref="A218:A220"/>
     <mergeCell ref="A221:A223"/>
     <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="D3:L11"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="D43:L51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11059,203 +11696,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
+        <v>942.33333333333337</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C49:C51))/3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>942.33333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C58:C60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>1009.6666666666666</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D58:D60))/3</f>
-        <v>5.666666666666667</v>
+        <v>607.66666666666663</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E58:E60))/3</f>
-        <v>4.666666666666667</v>
+        <v>456</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F58:F60))/3</f>
-        <v>8.3333333333333339</v>
+        <v>437.66666666666669</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G58:G60))/3</f>
-        <v>4.333333333333333</v>
+        <v>444</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H58:H60))/3</f>
-        <v>4.666666666666667</v>
+        <v>430.66666666666669</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I58:I60))/3</f>
-        <v>9.3333333333333339</v>
+        <v>473.66666666666669</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J58:J60))/3</f>
-        <v>15.666666666666666</v>
+        <v>488.66666666666669</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K58:K60))/3</f>
-        <v>23.333333333333332</v>
+        <v>484.66666666666669</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L58:L60))/3</f>
-        <v>43.333333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>461.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C67:C69))/3</f>
-        <v>3.3333333333333335</v>
+        <v>596.66666666666663</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D67:D69))/3</f>
-        <v>3</v>
+        <v>554</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E67:E69))/3</f>
-        <v>2.6666666666666665</v>
+        <v>272.33333333333331</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F67:F69))/3</f>
-        <v>3.6666666666666665</v>
+        <v>210.33333333333334</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G67:G69))/3</f>
-        <v>4</v>
+        <v>173.33333333333334</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H67:H69))/3</f>
-        <v>4</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I67:I69))/3</f>
-        <v>6.666666666666667</v>
+        <v>157</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J67:J69))/3</f>
-        <v>10</v>
+        <v>183.66666666666666</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K67:K69))/3</f>
-        <v>19</v>
+        <v>231.33333333333334</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L67:L69))/3</f>
-        <v>42.666666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C76:C78))/3</f>
-        <v>4</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D76:D78))/3</f>
-        <v>9</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E76:E78))/3</f>
-        <v>6</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F76:F78))/3</f>
-        <v>5.666666666666667</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G76:G78))/3</f>
-        <v>5.666666666666667</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H76:H78))/3</f>
-        <v>6.666666666666667</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I76:I78))/3</f>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J76:J78))/3</f>
-        <v>14.666666666666666</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K76:K78))/3</f>
-        <v>23.666666666666668</v>
+        <v>111.66666666666667</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L76:L78))/3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -11288,203 +11925,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C43:C45))/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C52:C54))/3</f>
-        <v>9.6666666666666661</v>
+        <v>804.33333333333337</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D52:D54))/3</f>
-        <v>12.333333333333334</v>
+        <v>558.66666666666663</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E52:E54))/3</f>
-        <v>18</v>
+        <v>405.66666666666669</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F52:F54))/3</f>
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G52:G54))/3</f>
-        <v>20.666666666666668</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H52:H54))/3</f>
-        <v>25.666666666666668</v>
+        <v>416</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I52:I54))/3</f>
-        <v>29.666666666666668</v>
+        <v>346.33333333333331</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J52:J54))/3</f>
-        <v>28</v>
+        <v>372.66666666666669</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K52:K54))/3</f>
-        <v>33.666666666666664</v>
+        <v>431</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L52:L54))/3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>435.66666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C61:C63))/3</f>
-        <v>5.666666666666667</v>
+        <v>712.66666666666663</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D61:D63))/3</f>
-        <v>5.666666666666667</v>
+        <v>523.66666666666663</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E61:E63))/3</f>
-        <v>9</v>
+        <v>551.33333333333337</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F61:F63))/3</f>
-        <v>4.333333333333333</v>
+        <v>383.66666666666669</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G61:G63))/3</f>
-        <v>5</v>
+        <v>468.33333333333331</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H61:H63))/3</f>
-        <v>6</v>
+        <v>503.66666666666669</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I61:I63))/3</f>
-        <v>9</v>
+        <v>613</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J61:J63))/3</f>
-        <v>14.666666666666666</v>
+        <v>440</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K61:K63))/3</f>
-        <v>23.333333333333332</v>
+        <v>369.33333333333331</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L61:L63))/3</f>
-        <v>44.666666666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C70:C72))/3</f>
-        <v>3.3333333333333335</v>
+        <v>224.66666666666666</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D70:D72))/3</f>
-        <v>8</v>
+        <v>226.33333333333334</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E70:E72))/3</f>
-        <v>8</v>
+        <v>159.66666666666666</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F70:F72))/3</f>
-        <v>8.3333333333333339</v>
+        <v>167.66666666666666</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G70:G72))/3</f>
-        <v>12.333333333333334</v>
+        <v>200.33333333333334</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H70:H72))/3</f>
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I70:I72))/3</f>
-        <v>11.333333333333334</v>
+        <v>218.33333333333334</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J70:J72))/3</f>
-        <v>18.333333333333332</v>
+        <v>192.66666666666666</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K70:K72))/3</f>
-        <v>26.333333333333332</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L70:L72))/3</f>
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -11517,184 +12154,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
+        <v>172</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C46:C48))/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C55:C57))/3</f>
-        <v>3.3333333333333335</v>
+        <v>535.66666666666663</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D55:D57))/3</f>
-        <v>2</v>
+        <v>282.33333333333331</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E55:E57))/3</f>
-        <v>1.6666666666666667</v>
+        <v>204.33333333333334</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F55:F57))/3</f>
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G55:G57))/3</f>
-        <v>2.3333333333333335</v>
+        <v>850.33333333333337</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H55:H57))/3</f>
-        <v>7</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I55:I57))/3</f>
-        <v>5.666666666666667</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J55:J57))/3</f>
-        <v>12.666666666666666</v>
+        <v>161.33333333333334</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K55:K57))/3</f>
-        <v>21.333333333333332</v>
+        <v>157</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L55:L57))/3</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C64:C66))/3</f>
-        <v>6</v>
+        <v>446.33333333333331</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D64:D66))/3</f>
-        <v>6.666666666666667</v>
+        <v>307.33333333333331</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E64:E66))/3</f>
-        <v>5.666666666666667</v>
+        <v>227.66666666666666</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F64:F66))/3</f>
-        <v>6</v>
+        <v>182.66666666666666</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G64:G66))/3</f>
-        <v>12</v>
+        <v>193.66666666666666</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H64:H66))/3</f>
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I64:I66))/3</f>
-        <v>11.666666666666666</v>
+        <v>164</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J64:J66))/3</f>
-        <v>15.333333333333334</v>
+        <v>166</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K64:K66))/3</f>
-        <v>25</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L64:L66))/3</f>
-        <v>42.333333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>194.33333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C73:C75))/3</f>
-        <v>1.6666666666666667</v>
+        <v>609.33333333333337</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D73:D75))/3</f>
-        <v>1</v>
+        <v>110.33333333333333</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E73:E75))/3</f>
-        <v>1</v>
+        <v>72.333333333333329</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F73:F75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G73:G75))/3</f>
-        <v>1.3333333333333333</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H73:H75))/3</f>
-        <v>3.6666666666666665</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I73:I75))/3</f>
-        <v>4.666666666666667</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J73:J75))/3</f>
-        <v>9.6666666666666661</v>
+        <v>80</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K73:K75))/3</f>
-        <v>17.666666666666668</v>
+        <v>75</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L73:L75))/3</f>
-        <v>37</v>
+        <v>109.66666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11712,34 +12349,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -11772,7 +12409,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -11817,7 +12454,7 @@
         <v>819.33333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -11862,7 +12499,7 @@
         <v>918.66666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -11907,7 +12544,7 @@
         <v>419.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -11952,23 +12589,23 @@
         <v>407.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12001,7 +12638,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12046,7 +12683,7 @@
         <v>254.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12091,7 +12728,7 @@
         <v>2595.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12136,7 +12773,7 @@
         <v>844.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12181,23 +12818,23 @@
         <v>598.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12230,7 +12867,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12275,7 +12912,7 @@
         <v>194.33333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -12320,7 +12957,7 @@
         <v>398.33333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -12365,7 +13002,7 @@
         <v>367.66666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -12421,34 +13058,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -12481,7 +13118,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -12526,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -12571,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -12616,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -12661,23 +13298,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -12710,7 +13347,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -12755,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -12800,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -12845,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -12890,23 +13527,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -12939,7 +13576,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -12984,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13029,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13074,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13130,34 +13767,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13190,7 +13827,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13235,7 +13872,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13280,7 +13917,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -13325,7 +13962,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -13370,23 +14007,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -13419,7 +14056,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -13464,7 +14101,7 @@
         <v>829.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -13509,7 +14146,7 @@
         <v>586.33333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -13554,7 +14191,7 @@
         <v>457.66666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -13599,23 +14236,23 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -13648,7 +14285,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -13693,7 +14330,7 @@
         <v>2268.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -13738,7 +14375,7 @@
         <v>1165.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -13783,7 +14420,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -13839,34 +14476,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -13899,7 +14536,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -13944,7 +14581,7 @@
         <v>425.33333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -13989,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -14034,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -14079,23 +14716,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14128,7 +14765,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -14173,7 +14810,7 @@
         <v>137.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -14218,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -14263,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -14308,23 +14945,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -14357,7 +14994,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -14402,7 +15039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -14447,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -14492,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -14548,34 +15185,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -14608,203 +15245,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
+        <v>432.33333333333331</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C249:C251))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>432.33333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C258:C260))/3</f>
-        <v>0</v>
+        <v>568.66666666666663</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D258:D260))/3</f>
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E258:E260))/3</f>
-        <v>0</v>
+        <v>235.33333333333334</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F258:F260))/3</f>
-        <v>0</v>
+        <v>232.66666666666666</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G258:G260))/3</f>
-        <v>0</v>
+        <v>261.33333333333331</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H258:H260))/3</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I258:I260))/3</f>
-        <v>0</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J258:J260))/3</f>
-        <v>0</v>
+        <v>273.66666666666669</v>
       </c>
       <c r="J4" s="4">
         <f>(SUM(DataEntry!K258:K260))/3</f>
-        <v>0</v>
+        <v>274.66666666666669</v>
       </c>
       <c r="K4" s="5">
         <f>(SUM(DataEntry!L258:L260))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C267:C269))/3</f>
-        <v>0</v>
+        <v>416.66666666666669</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D267:D269))/3</f>
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E267:E269))/3</f>
-        <v>0</v>
+        <v>141.66666666666666</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F267:F269))/3</f>
-        <v>0</v>
+        <v>119.66666666666667</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G267:G269))/3</f>
-        <v>0</v>
+        <v>107.33333333333333</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H267:H269))/3</f>
-        <v>0</v>
+        <v>90.333333333333329</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I267:I269))/3</f>
-        <v>0</v>
+        <v>95.333333333333329</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J267:J269))/3</f>
-        <v>0</v>
+        <v>90.333333333333329</v>
       </c>
       <c r="J5" s="4">
         <f>(SUM(DataEntry!K267:K269))/3</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5">
         <f>(SUM(DataEntry!L267:L269))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>109.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <f>(SUM(DataEntry!C276:C278))/3</f>
-        <v>0</v>
+        <v>149.33333333333334</v>
       </c>
       <c r="C6" s="7">
         <f>(SUM(DataEntry!D276:D278))/3</f>
-        <v>0</v>
+        <v>115.66666666666667</v>
       </c>
       <c r="D6" s="7">
         <f>(SUM(DataEntry!E276:E278))/3</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E6" s="7">
         <f>(SUM(DataEntry!F276:F278))/3</f>
-        <v>0</v>
+        <v>76.333333333333329</v>
       </c>
       <c r="F6" s="7">
         <f>(SUM(DataEntry!G276:G278))/3</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7">
         <f>(SUM(DataEntry!H276:H278))/3</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="H6" s="7">
         <f>(SUM(DataEntry!I276:I278))/3</f>
-        <v>0</v>
+        <v>66.333333333333329</v>
       </c>
       <c r="I6" s="7">
         <f>(SUM(DataEntry!J276:J278))/3</f>
-        <v>0</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="J6" s="7">
         <f>(SUM(DataEntry!K276:K278))/3</f>
-        <v>0</v>
+        <v>64.333333333333329</v>
       </c>
       <c r="K6" s="8">
         <f>(SUM(DataEntry!L276:L278))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>1</v>
@@ -14837,203 +15474,203 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C243:C245))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C252:C254))/3</f>
-        <v>0</v>
+        <v>493.66666666666669</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D252:D254))/3</f>
-        <v>0</v>
+        <v>351.33333333333331</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E252:E254))/3</f>
-        <v>0</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F252:F254))/3</f>
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G252:G254))/3</f>
-        <v>0</v>
+        <v>206.33333333333334</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H252:H254))/3</f>
-        <v>0</v>
+        <v>205.33333333333334</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I252:I254))/3</f>
-        <v>0</v>
+        <v>207.33333333333334</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J252:J254))/3</f>
-        <v>0</v>
+        <v>227.33333333333334</v>
       </c>
       <c r="J11" s="4">
         <f>(SUM(DataEntry!K252:K254))/3</f>
-        <v>0</v>
+        <v>267.33333333333331</v>
       </c>
       <c r="K11" s="5">
         <f>(SUM(DataEntry!L252:L254))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>197.33333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C261:C263))/3</f>
-        <v>0</v>
+        <v>285.33333333333331</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D261:D263))/3</f>
-        <v>0</v>
+        <v>225.66666666666666</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E261:E263))/3</f>
-        <v>0</v>
+        <v>151.66666666666666</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F261:F263))/3</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G261:G263))/3</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H261:H263))/3</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I261:I263))/3</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J261:J263))/3</f>
-        <v>0</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="J12" s="4">
         <f>(SUM(DataEntry!K261:K263))/3</f>
-        <v>0</v>
+        <v>156.66666666666666</v>
       </c>
       <c r="K12" s="5">
         <f>(SUM(DataEntry!L261:L263))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7">
         <f>(SUM(DataEntry!C270:C272))/3</f>
-        <v>0</v>
+        <v>159.66666666666666</v>
       </c>
       <c r="C13" s="7">
         <f>(SUM(DataEntry!D270:D272))/3</f>
-        <v>0</v>
+        <v>174.66666666666666</v>
       </c>
       <c r="D13" s="7">
         <f>(SUM(DataEntry!E270:E272))/3</f>
-        <v>0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="E13" s="7">
         <f>(SUM(DataEntry!F270:F272))/3</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7">
         <f>(SUM(DataEntry!G270:G272))/3</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7">
         <f>(SUM(DataEntry!H270:H272))/3</f>
-        <v>0</v>
+        <v>167.33333333333334</v>
       </c>
       <c r="H13" s="7">
         <f>(SUM(DataEntry!I270:I272))/3</f>
-        <v>0</v>
+        <v>128.66666666666666</v>
       </c>
       <c r="I13" s="7">
         <f>(SUM(DataEntry!J270:J272))/3</f>
-        <v>0</v>
+        <v>153.33333333333334</v>
       </c>
       <c r="J13" s="7">
         <f>(SUM(DataEntry!K270:K272))/3</f>
-        <v>0</v>
+        <v>147.66666666666666</v>
       </c>
       <c r="K13" s="8">
         <f>(SUM(DataEntry!L270:L272))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4">
         <v>1</v>
@@ -15066,184 +15703,184 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C246:C248))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C255:C257))/3</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D255:D257))/3</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E255:E257))/3</f>
-        <v>0</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F255:F257))/3</f>
-        <v>0</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G255:G257))/3</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H255:H257))/3</f>
-        <v>0</v>
+        <v>52.333333333333336</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I255:I257))/3</f>
-        <v>0</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J255:J257))/3</f>
-        <v>0</v>
+        <v>93.666666666666671</v>
       </c>
       <c r="J18" s="4">
         <f>(SUM(DataEntry!K255:K257))/3</f>
-        <v>0</v>
+        <v>52.333333333333336</v>
       </c>
       <c r="K18" s="5">
         <f>(SUM(DataEntry!L255:L257))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
+        <v>99.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C264:C266))/3</f>
-        <v>0</v>
+        <v>323.33333333333331</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D264:D266))/3</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E264:E266))/3</f>
-        <v>0</v>
+        <v>111.66666666666667</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F264:F266))/3</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G264:G266))/3</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H264:H266))/3</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I264:I266))/3</f>
-        <v>0</v>
+        <v>84.666666666666671</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J264:J266))/3</f>
-        <v>0</v>
+        <v>78.666666666666671</v>
       </c>
       <c r="J19" s="4">
         <f>(SUM(DataEntry!K264:K266))/3</f>
-        <v>0</v>
+        <v>97.333333333333329</v>
       </c>
       <c r="K19" s="5">
         <f>(SUM(DataEntry!L264:L266))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+        <v>104.66666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <f>(SUM(DataEntry!C273:C275))/3</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C20" s="7">
         <f>(SUM(DataEntry!D273:D275))/3</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D20" s="7">
         <f>(SUM(DataEntry!E273:E275))/3</f>
-        <v>0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="E20" s="7">
         <f>(SUM(DataEntry!F273:F275))/3</f>
-        <v>0</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="F20" s="7">
         <f>(SUM(DataEntry!G273:G275))/3</f>
-        <v>0</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="G20" s="7">
         <f>(SUM(DataEntry!H273:H275))/3</f>
-        <v>0</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="H20" s="7">
         <f>(SUM(DataEntry!I273:I275))/3</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7">
         <f>(SUM(DataEntry!J273:J275))/3</f>
-        <v>0</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="J20" s="7">
         <f>(SUM(DataEntry!K273:K275))/3</f>
-        <v>0</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="K20" s="8">
         <f>(SUM(DataEntry!L273:L275))/3</f>
-        <v>0</v>
+        <v>47.666666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -287,20 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +304,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,11 +911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122903168"/>
-        <c:axId val="122904960"/>
+        <c:axId val="110037248"/>
+        <c:axId val="110039040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122903168"/>
+        <c:axId val="110037248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122904960"/>
+        <c:crossAx val="110039040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122904960"/>
+        <c:axId val="110039040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122903168"/>
+        <c:crossAx val="110037248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,11 +1613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123344768"/>
-        <c:axId val="123346304"/>
+        <c:axId val="110622976"/>
+        <c:axId val="110694400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123344768"/>
+        <c:axId val="110622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123346304"/>
+        <c:crossAx val="110694400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +1668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123346304"/>
+        <c:axId val="110694400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +1719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123344768"/>
+        <c:crossAx val="110622976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2315,11 +2315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123396096"/>
-        <c:axId val="123397632"/>
+        <c:axId val="110743936"/>
+        <c:axId val="110745472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123396096"/>
+        <c:axId val="110743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123397632"/>
+        <c:crossAx val="110745472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2370,7 +2370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123397632"/>
+        <c:axId val="110745472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123396096"/>
+        <c:crossAx val="110743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3017,11 +3017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123189120"/>
-        <c:axId val="123190656"/>
+        <c:axId val="110799104"/>
+        <c:axId val="110804992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123189120"/>
+        <c:axId val="110799104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123190656"/>
+        <c:crossAx val="110804992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123190656"/>
+        <c:axId val="110804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123189120"/>
+        <c:crossAx val="110799104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3337,34 +3337,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>425.33333333333331</c:v>
+                  <c:v>272.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,25 +3448,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>440.33333333333331</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296.33333333333331</c:v>
+                  <c:v>486.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.33333333333334</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>246</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>257</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>391</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3559,25 +3559,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>307.66666666666669</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>303.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>147.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>137.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>130</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>132.33333333333334</c:v>
+                  <c:v>209.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>206.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3670,25 +3670,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>190.66666666666666</c:v>
+                  <c:v>143.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177</c:v>
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.66666666666666</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>153.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3719,11 +3719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123302272"/>
-        <c:axId val="123303808"/>
+        <c:axId val="111301376"/>
+        <c:axId val="111302912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123302272"/>
+        <c:axId val="111301376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123303808"/>
+        <c:crossAx val="111302912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,7 +3774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123303808"/>
+        <c:axId val="111302912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123302272"/>
+        <c:crossAx val="111301376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4039,34 +4039,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.66666666666666</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4150,25 +4150,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>572.33333333333337</c:v>
+                  <c:v>499.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464</c:v>
+                  <c:v>354.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346</c:v>
+                  <c:v>283.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312.33333333333331</c:v>
+                  <c:v>256.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>357</c:v>
+                  <c:v>289.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>499.33333333333331</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>545.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4261,25 +4261,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>273.66666666666669</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325.33333333333331</c:v>
+                  <c:v>400.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>242.66666666666666</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197.66666666666666</c:v>
+                  <c:v>208.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231.66666666666666</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>365.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4372,25 +4372,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>184.33333333333334</c:v>
+                  <c:v>145.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.33333333333334</c:v>
+                  <c:v>149.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>211.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>201.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>219.33333333333334</c:v>
+                  <c:v>233.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>374.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4421,11 +4421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123406976"/>
-        <c:axId val="123421056"/>
+        <c:axId val="111340544"/>
+        <c:axId val="111084288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123406976"/>
+        <c:axId val="111340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123421056"/>
+        <c:crossAx val="111084288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4476,7 +4476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123421056"/>
+        <c:axId val="111084288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123406976"/>
+        <c:crossAx val="111340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4741,34 +4741,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134</c:v>
+                  <c:v>118.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,25 +4852,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>305.33333333333331</c:v>
+                  <c:v>341.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169.33333333333334</c:v>
+                  <c:v>200.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.666666666666671</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.666666666666664</c:v>
+                  <c:v>60.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>283.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4963,25 +4963,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>544.66666666666663</c:v>
+                  <c:v>245.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>326.66666666666669</c:v>
+                  <c:v>130.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211.33333333333334</c:v>
+                  <c:v>77.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.33333333333334</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127</c:v>
+                  <c:v>32.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.33333333333334</c:v>
+                  <c:v>27.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5074,25 +5074,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
+                  <c:v>127.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>76.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>41.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>61.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>51.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>221.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5123,11 +5123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123462400"/>
-        <c:axId val="123463936"/>
+        <c:axId val="111146112"/>
+        <c:axId val="111147648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123462400"/>
+        <c:axId val="111146112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5170,7 +5170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123463936"/>
+        <c:crossAx val="111147648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5178,7 +5178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123463936"/>
+        <c:axId val="111147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5229,7 +5229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123462400"/>
+        <c:crossAx val="111146112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5356,7 +5356,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5826,11 +5825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123595776"/>
-        <c:axId val="123601664"/>
+        <c:axId val="111205760"/>
+        <c:axId val="111211648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123595776"/>
+        <c:axId val="111205760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5873,7 +5872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123601664"/>
+        <c:crossAx val="111211648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5881,7 +5880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123601664"/>
+        <c:axId val="111211648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123595776"/>
+        <c:crossAx val="111205760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5946,7 +5945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6060,7 +6058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6530,11 +6527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123655296"/>
-        <c:axId val="123656832"/>
+        <c:axId val="111261184"/>
+        <c:axId val="111262720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123655296"/>
+        <c:axId val="111261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6577,7 +6574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123656832"/>
+        <c:crossAx val="111262720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6585,7 +6582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123656832"/>
+        <c:axId val="111262720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,7 +6633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123655296"/>
+        <c:crossAx val="111261184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6650,7 +6647,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6764,7 +6760,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7234,11 +7229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123714560"/>
-        <c:axId val="123724544"/>
+        <c:axId val="111705472"/>
+        <c:axId val="111719552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123714560"/>
+        <c:axId val="111705472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123724544"/>
+        <c:crossAx val="111719552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7289,7 +7284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123724544"/>
+        <c:axId val="111719552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,7 +7335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123714560"/>
+        <c:crossAx val="111705472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7354,7 +7349,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7937,11 +7931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122963072"/>
-        <c:axId val="122964608"/>
+        <c:axId val="110084480"/>
+        <c:axId val="110086016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122963072"/>
+        <c:axId val="110084480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7984,7 +7978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122964608"/>
+        <c:crossAx val="110086016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7992,7 +7986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122964608"/>
+        <c:axId val="110086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8043,7 +8037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122963072"/>
+        <c:crossAx val="110084480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8639,11 +8633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123010048"/>
-        <c:axId val="122688256"/>
+        <c:axId val="110205184"/>
+        <c:axId val="110211072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123010048"/>
+        <c:axId val="110205184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8686,7 +8680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122688256"/>
+        <c:crossAx val="110211072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8694,7 +8688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122688256"/>
+        <c:axId val="110211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8745,7 +8739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123010048"/>
+        <c:crossAx val="110205184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8865,7 +8859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9489,11 +9482,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121892224"/>
-        <c:axId val="122377344"/>
+        <c:axId val="110278912"/>
+        <c:axId val="110297088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121892224"/>
+        <c:axId val="110278912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122377344"/>
+        <c:crossAx val="110297088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9534,7 +9527,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122377344"/>
+        <c:axId val="110297088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9574,7 +9567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121892224"/>
+        <c:crossAx val="110278912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9587,7 +9580,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9667,7 +9659,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10291,11 +10282,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122416128"/>
-        <c:axId val="122434304"/>
+        <c:axId val="110362624"/>
+        <c:axId val="110364160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122416128"/>
+        <c:axId val="110362624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10328,7 +10319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122434304"/>
+        <c:crossAx val="110364160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10336,7 +10327,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122434304"/>
+        <c:axId val="110364160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10376,7 +10367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122416128"/>
+        <c:crossAx val="110362624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10389,7 +10380,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10469,7 +10459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11093,11 +11082,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122485376"/>
-        <c:axId val="122569088"/>
+        <c:axId val="110411136"/>
+        <c:axId val="110494848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122485376"/>
+        <c:axId val="110411136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11130,7 +11119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122569088"/>
+        <c:crossAx val="110494848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11138,7 +11127,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122569088"/>
+        <c:axId val="110494848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11178,7 +11167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122485376"/>
+        <c:crossAx val="110411136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11191,7 +11180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11747,11 +11735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122787328"/>
-        <c:axId val="122788864"/>
+        <c:axId val="110860160"/>
+        <c:axId val="110861696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122787328"/>
+        <c:axId val="110860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11794,7 +11782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122788864"/>
+        <c:crossAx val="110861696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11802,7 +11790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122788864"/>
+        <c:axId val="110861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11853,7 +11841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122787328"/>
+        <c:crossAx val="110860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12449,11 +12437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122830208"/>
-        <c:axId val="122836096"/>
+        <c:axId val="110909312"/>
+        <c:axId val="110910848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122830208"/>
+        <c:axId val="110909312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12496,7 +12484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122836096"/>
+        <c:crossAx val="110910848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12504,7 +12492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122836096"/>
+        <c:axId val="110910848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12555,7 +12543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122830208"/>
+        <c:crossAx val="110909312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13151,11 +13139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123012224"/>
-        <c:axId val="123013760"/>
+        <c:axId val="110567424"/>
+        <c:axId val="110568960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123012224"/>
+        <c:axId val="110567424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,7 +13186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123013760"/>
+        <c:crossAx val="110568960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13206,7 +13194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123013760"/>
+        <c:axId val="110568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13257,7 +13245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123012224"/>
+        <c:crossAx val="110567424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21704,7 +21692,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE1B5EAE-E130-4CBC-86B4-FF3A3F913FE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1B5EAE-E130-4CBC-86B4-FF3A3F913FE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21740,7 +21728,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BF16402-4E0B-4996-89D2-DCE269189E2F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF16402-4E0B-4996-89D2-DCE269189E2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21776,7 +21764,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC2D8F91-C8BB-4161-9C8C-6A30A3A15C51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2D8F91-C8BB-4161-9C8C-6A30A3A15C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21817,7 +21805,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21853,7 +21841,7 @@
         <xdr:cNvPr id="3" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21889,7 +21877,7 @@
         <xdr:cNvPr id="4" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21930,7 +21918,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EB01360-20F1-4886-A8FD-36DBDF5BEB1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB01360-20F1-4886-A8FD-36DBDF5BEB1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21966,7 +21954,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AE58140-CB29-40D3-9280-A6AE0D30BB23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE58140-CB29-40D3-9280-A6AE0D30BB23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22002,7 +21990,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DFC063E-3B9C-448E-96BD-B55CE9DC314B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFC063E-3B9C-448E-96BD-B55CE9DC314B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22043,7 +22031,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD131A82-4FF8-4194-8AB3-44F9F7A4ACF8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD131A82-4FF8-4194-8AB3-44F9F7A4ACF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22079,7 +22067,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDC7C4F-EF3C-4957-92F1-EE73C408236E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDC7C4F-EF3C-4957-92F1-EE73C408236E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22115,7 +22103,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04D42B55-965D-4A48-81CD-DAC2F782A5A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D42B55-965D-4A48-81CD-DAC2F782A5A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22156,7 +22144,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F64CDF6-90CD-41F7-AFD6-44E350140B3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F64CDF6-90CD-41F7-AFD6-44E350140B3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22192,7 +22180,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFFE9B63-4979-4C43-A77E-8E2D6DA3E227}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFE9B63-4979-4C43-A77E-8E2D6DA3E227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22228,7 +22216,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{626C2E71-3EEF-4222-A756-1603826DF508}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C2E71-3EEF-4222-A756-1603826DF508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22269,7 +22257,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C058B74D-475A-41CB-A2E2-823CFD39DABC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C058B74D-475A-41CB-A2E2-823CFD39DABC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22305,7 +22293,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3CF7457-AB40-4874-B966-692D7122F5B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CF7457-AB40-4874-B966-692D7122F5B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22341,7 +22329,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B3965EF-06FD-4F11-A293-319B51427315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3965EF-06FD-4F11-A293-319B51427315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22651,7 +22639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22661,8 +22649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22677,18 +22665,18 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -22725,150 +22713,150 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22886,7 +22874,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -22902,7 +22890,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -22918,7 +22906,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22936,7 +22924,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -22952,7 +22940,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -22968,7 +22956,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -22986,7 +22974,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -23002,7 +22990,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
@@ -23018,7 +23006,7 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -23036,7 +23024,7 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -23052,7 +23040,7 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23056,7 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -23086,7 +23074,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -23102,7 +23090,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -23118,7 +23106,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -23136,7 +23124,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -23152,7 +23140,7 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -23168,7 +23156,7 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -23186,7 +23174,7 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -23202,7 +23190,7 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -23218,7 +23206,7 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -23236,7 +23224,7 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -23252,7 +23240,7 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
@@ -23268,7 +23256,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -23286,7 +23274,7 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -23302,7 +23290,7 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -23324,18 +23312,18 @@
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -23372,7 +23360,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -23381,56 +23369,56 @@
       <c r="C43" s="4">
         <v>143</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
         <v>136</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="8">
         <v>144</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -23439,54 +23427,54 @@
       <c r="C46" s="4">
         <v>143</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="8">
         <v>158</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="8">
         <v>215</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -23495,54 +23483,54 @@
       <c r="C49" s="4">
         <v>910</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="8">
         <v>1013</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="8">
         <v>904</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -23580,7 +23568,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -23616,7 +23604,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
@@ -23652,7 +23640,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -23690,7 +23678,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -23726,7 +23714,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
@@ -23762,7 +23750,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -23800,7 +23788,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
@@ -23836,7 +23824,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
@@ -23872,7 +23860,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -23910,7 +23898,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -23946,7 +23934,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
@@ -23982,7 +23970,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -24020,7 +24008,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
@@ -24056,7 +24044,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -24092,7 +24080,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -24130,7 +24118,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
@@ -24166,7 +24154,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
@@ -24202,7 +24190,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -24240,7 +24228,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -24276,7 +24264,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -24312,7 +24300,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -24350,7 +24338,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
@@ -24386,7 +24374,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -24422,7 +24410,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -24460,7 +24448,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -24496,7 +24484,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="6" t="s">
         <v>7</v>
       </c>
@@ -24538,18 +24526,18 @@
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -24586,7 +24574,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -24595,56 +24583,56 @@
       <c r="C83" s="4">
         <v>198</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="4">
         <v>253</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="8">
         <v>313</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -24653,54 +24641,54 @@
       <c r="C86" s="4">
         <v>183</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="4">
         <v>187</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="4">
         <v>213</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -24709,54 +24697,54 @@
       <c r="C89" s="8">
         <v>792</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="8">
         <v>885</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="8">
         <v>781</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -24794,7 +24782,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="4" t="s">
         <v>6</v>
       </c>
@@ -24830,7 +24818,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
@@ -24866,7 +24854,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -24904,7 +24892,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="11"/>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
@@ -24940,7 +24928,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="11"/>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
@@ -24976,7 +24964,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -25014,7 +25002,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -25050,7 +25038,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
@@ -25086,7 +25074,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -25124,7 +25112,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="4" t="s">
         <v>6</v>
       </c>
@@ -25160,7 +25148,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
@@ -25196,7 +25184,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -25234,7 +25222,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="4" t="s">
         <v>6</v>
       </c>
@@ -25270,7 +25258,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
@@ -25306,7 +25294,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -25344,7 +25332,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="4" t="s">
         <v>6</v>
       </c>
@@ -25380,7 +25368,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
@@ -25416,7 +25404,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -25454,7 +25442,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
@@ -25490,7 +25478,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
@@ -25526,7 +25514,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -25564,7 +25552,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="4" t="s">
         <v>6</v>
       </c>
@@ -25600,7 +25588,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
@@ -25636,7 +25624,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -25674,7 +25662,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>6</v>
       </c>
@@ -25710,7 +25698,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="6" t="s">
         <v>7</v>
       </c>
@@ -25752,18 +25740,18 @@
       <c r="B121" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -25800,7 +25788,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -25809,56 +25797,56 @@
       <c r="C123" s="4">
         <v>155</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="4">
         <v>141</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4">
         <v>129</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -25867,54 +25855,54 @@
       <c r="C126" s="4">
         <v>189</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="4">
         <v>100</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="4">
         <v>106</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -25923,54 +25911,54 @@
       <c r="C129" s="4">
         <v>439</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="4">
         <v>396</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="4">
         <v>387</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -26008,7 +25996,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="4" t="s">
         <v>6</v>
       </c>
@@ -26044,7 +26032,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
@@ -26080,7 +26068,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -26118,7 +26106,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="4" t="s">
         <v>6</v>
       </c>
@@ -26154,7 +26142,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
@@ -26190,7 +26178,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -26228,7 +26216,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
@@ -26264,7 +26252,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
@@ -26300,7 +26288,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -26338,7 +26326,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
@@ -26374,7 +26362,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
@@ -26410,7 +26398,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -26448,7 +26436,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
@@ -26484,7 +26472,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
@@ -26520,7 +26508,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -26558,7 +26546,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
@@ -26594,7 +26582,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
@@ -26630,7 +26618,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -26668,7 +26656,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
@@ -26704,7 +26692,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
@@ -26740,7 +26728,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -26778,7 +26766,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
@@ -26814,7 +26802,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
@@ -26850,7 +26838,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -26888,7 +26876,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
@@ -26924,7 +26912,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="12"/>
       <c r="B158" s="6" t="s">
         <v>7</v>
       </c>
@@ -26966,18 +26954,18 @@
       <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="16"/>
-      <c r="L161" s="17"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="14"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -27014,7 +27002,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -27023,56 +27011,56 @@
       <c r="C163" s="4">
         <v>830</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="4">
         <v>839</v>
       </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="8">
         <v>819</v>
       </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -27081,54 +27069,54 @@
       <c r="C166" s="4">
         <v>2289</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="13"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="4">
         <v>2308</v>
       </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="13"/>
-      <c r="L167" s="13"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="4">
         <v>2209</v>
       </c>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="13"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -27137,54 +27125,54 @@
       <c r="C169" s="8">
         <v>680</v>
       </c>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="13"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="8">
         <v>610</v>
       </c>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="13"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="8">
         <v>600</v>
       </c>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="13"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -27222,7 +27210,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="11"/>
       <c r="B173" s="4" t="s">
         <v>6</v>
       </c>
@@ -27258,7 +27246,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+      <c r="A174" s="11"/>
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
@@ -27294,7 +27282,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -27332,7 +27320,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
+      <c r="A176" s="11"/>
       <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
@@ -27368,7 +27356,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+      <c r="A177" s="11"/>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
@@ -27404,7 +27392,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -27442,7 +27430,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="4" t="s">
         <v>6</v>
       </c>
@@ -27478,7 +27466,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
@@ -27514,7 +27502,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -27552,7 +27540,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="4" t="s">
         <v>6</v>
       </c>
@@ -27588,7 +27576,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
@@ -27624,7 +27612,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
+      <c r="A184" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -27662,7 +27650,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
+      <c r="A185" s="11"/>
       <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
@@ -27698,7 +27686,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+      <c r="A186" s="11"/>
       <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
@@ -27734,7 +27722,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -27772,7 +27760,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="4" t="s">
         <v>6</v>
       </c>
@@ -27808,7 +27796,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+      <c r="A189" s="11"/>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
@@ -27844,7 +27832,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -27882,7 +27870,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
@@ -27918,7 +27906,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="4" t="s">
         <v>7</v>
       </c>
@@ -27954,7 +27942,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -27992,7 +27980,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="4" t="s">
         <v>6</v>
       </c>
@@ -28028,7 +28016,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
@@ -28064,7 +28052,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -28102,7 +28090,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="4" t="s">
         <v>6</v>
       </c>
@@ -28138,7 +28126,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="12"/>
       <c r="B198" s="6" t="s">
         <v>7</v>
       </c>
@@ -28180,18 +28168,18 @@
       <c r="B201" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="16" t="s">
+      <c r="C201" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D201" s="16"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16"/>
-      <c r="K201" s="16"/>
-      <c r="L201" s="17"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
+      <c r="L201" s="14"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
@@ -28228,867 +28216,947 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C203">
-        <v>139</v>
-      </c>
-      <c r="D203" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D203" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="19"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="16"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
+      <c r="A204" s="11"/>
       <c r="B204" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C204">
-        <v>138</v>
-      </c>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="16"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
+      <c r="A205" s="11"/>
       <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C205">
-        <v>136</v>
-      </c>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="16"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C206">
-        <v>136</v>
-      </c>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="16"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
+      <c r="A207" s="11"/>
       <c r="B207" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C207">
-        <v>134</v>
-      </c>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="18"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="18"/>
-      <c r="L207" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="16"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
+      <c r="A208" s="11"/>
       <c r="B208" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C208">
-        <v>132</v>
-      </c>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
-      <c r="I208" s="18"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="18"/>
-      <c r="L208" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="16"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C209">
-        <v>432</v>
-      </c>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="18"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="19"/>
+        <v>264</v>
+      </c>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="16"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
+      <c r="A210" s="11"/>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>419</v>
-      </c>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
-      <c r="I210" s="18"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="18"/>
-      <c r="L210" s="19"/>
+        <v>276</v>
+      </c>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="16"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C211">
-        <v>425</v>
-      </c>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="18"/>
-      <c r="J211" s="18"/>
-      <c r="K211" s="18"/>
-      <c r="L211" s="19"/>
+        <v>278</v>
+      </c>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="16"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C212">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="D212">
-        <v>470</v>
+        <v>335</v>
       </c>
       <c r="E212">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="F212">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="G212">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="H212">
-        <v>650</v>
+        <v>477</v>
+      </c>
+      <c r="I212">
+        <v>361</v>
       </c>
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
+      <c r="A213" s="11"/>
       <c r="B213" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C213">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="D213">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="E213">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="F213">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="G213">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H213">
-        <v>435</v>
+        <v>311</v>
+      </c>
+      <c r="I213">
+        <v>856</v>
       </c>
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
+      <c r="A214" s="11"/>
       <c r="B214" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C214">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="D214">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="E214">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="F214">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G214">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="H214">
-        <v>413</v>
+        <v>391</v>
+      </c>
+      <c r="I214">
+        <v>420</v>
       </c>
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C215">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="D215">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="E215">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F215">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G215">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H215">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="I215">
+        <v>279</v>
       </c>
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
+      <c r="A216" s="11"/>
       <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C216">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="D216">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E216">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F216">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G216">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H216">
         <v>66</v>
       </c>
+      <c r="I216">
+        <v>254</v>
+      </c>
       <c r="L216" s="5"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
+      <c r="A217" s="11"/>
       <c r="B217" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C217">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="D217">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E217">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F217">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G217">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H217">
-        <v>68</v>
+        <v>89</v>
+      </c>
+      <c r="I217">
+        <v>318</v>
       </c>
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C218">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="D218">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="E218">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="F218">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G218">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="H218">
-        <v>449</v>
+        <v>310</v>
+      </c>
+      <c r="I218">
+        <v>377</v>
       </c>
       <c r="L218" s="5"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
+      <c r="A219" s="11"/>
       <c r="B219" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C219">
-        <v>446</v>
+        <v>693</v>
       </c>
       <c r="D219">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="E219">
-        <v>163</v>
+        <v>334</v>
       </c>
       <c r="F219">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="G219">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="H219">
-        <v>271</v>
+        <v>308</v>
+      </c>
+      <c r="I219">
+        <v>326</v>
       </c>
       <c r="L219" s="5"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
+      <c r="A220" s="11"/>
       <c r="B220" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C220">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="D220">
-        <v>283</v>
+        <v>552</v>
       </c>
       <c r="E220">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="F220">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="G220">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="H220">
-        <v>453</v>
+        <v>345</v>
+      </c>
+      <c r="I220">
+        <v>338</v>
       </c>
       <c r="L220" s="5"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C221">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D221">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="E221">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F221">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="G221">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="H221">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="I221">
+        <v>344</v>
       </c>
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
+      <c r="A222" s="11"/>
       <c r="B222" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C222">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="D222">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="E222">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="F222">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="G222">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H222">
-        <v>219</v>
+        <v>153</v>
+      </c>
+      <c r="I222">
+        <v>258</v>
       </c>
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
+      <c r="A223" s="11"/>
       <c r="B223" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C223">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D223">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="E223">
-        <v>187</v>
+        <v>308</v>
       </c>
       <c r="F223">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G223">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="H223">
-        <v>219</v>
+        <v>166</v>
+      </c>
+      <c r="I223">
+        <v>494</v>
       </c>
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C224">
-        <v>558</v>
+        <v>237</v>
       </c>
       <c r="D224">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="E224">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="F224">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="G224">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="H224">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="I224">
+        <v>217</v>
       </c>
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
+      <c r="A225" s="11"/>
       <c r="B225" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>545</v>
+        <v>238</v>
       </c>
       <c r="D225">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="E225">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="F225">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="G225">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H225">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="I225">
+        <v>181</v>
       </c>
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
+      <c r="A226" s="11"/>
       <c r="B226" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C226">
-        <v>531</v>
+        <v>261</v>
       </c>
       <c r="D226">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="E226">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="F226">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="G226">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <v>120</v>
+        <v>26</v>
+      </c>
+      <c r="I226">
+        <v>283</v>
       </c>
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C227">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="D227">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E227">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F227">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="G227">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="H227">
-        <v>133</v>
+        <v>233</v>
+      </c>
+      <c r="I227">
+        <v>158</v>
       </c>
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
+      <c r="A228" s="11"/>
       <c r="B228" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="D228">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E228">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F228">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="G228">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="H228">
-        <v>138</v>
+        <v>194</v>
+      </c>
+      <c r="I228">
+        <v>308</v>
       </c>
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
+      <c r="A229" s="11"/>
       <c r="B229" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C229">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="D229">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E229">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F229">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="G229">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="H229">
-        <v>126</v>
+        <v>202</v>
+      </c>
+      <c r="I229">
+        <v>154</v>
       </c>
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C230">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D230">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E230">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="F230">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="G230">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H230">
-        <v>325</v>
+        <v>310</v>
+      </c>
+      <c r="I230">
+        <v>351</v>
       </c>
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
+      <c r="A231" s="11"/>
       <c r="B231" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C231">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D231">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E231">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="F231">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G231">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="H231">
-        <v>272</v>
+        <v>369</v>
+      </c>
+      <c r="I231">
+        <v>386</v>
       </c>
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
+      <c r="A232" s="11"/>
       <c r="B232" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C232">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="D232">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E232">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="F232">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="G232">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H232">
-        <v>276</v>
+        <v>239</v>
+      </c>
+      <c r="I232">
+        <v>387</v>
       </c>
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+      <c r="A233" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C233">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D233">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E233">
+        <v>51</v>
+      </c>
+      <c r="F233">
+        <v>39</v>
+      </c>
+      <c r="G233">
+        <v>58</v>
+      </c>
+      <c r="H233">
         <v>52</v>
       </c>
-      <c r="F233">
-        <v>43</v>
-      </c>
-      <c r="G233">
-        <v>55</v>
-      </c>
-      <c r="H233">
-        <v>41</v>
+      <c r="I233">
+        <v>209</v>
       </c>
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
+      <c r="A234" s="11"/>
       <c r="B234" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C234">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D234">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E234">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F234">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G234">
         <v>62</v>
       </c>
       <c r="H234">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I234">
+        <v>222</v>
       </c>
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
+      <c r="A235" s="11"/>
       <c r="B235" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C235">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D235">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E235">
         <v>51</v>
       </c>
       <c r="F235">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G235">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H235">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I235">
+        <v>233</v>
       </c>
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C236">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D236">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="E236">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="F236">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="G236">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="H236">
-        <v>347</v>
+        <v>13</v>
+      </c>
+      <c r="I236">
+        <v>143</v>
       </c>
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
+      <c r="A237" s="12"/>
       <c r="B237" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C237">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D237">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="E237">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="F237">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G237">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="H237">
-        <v>309</v>
+        <v>16</v>
+      </c>
+      <c r="I237">
+        <v>162</v>
       </c>
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="12"/>
       <c r="B238" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C238" s="10">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="D238" s="10">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E238" s="10">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="F238" s="10">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="G238" s="10">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="H238" s="10">
-        <v>277</v>
-      </c>
-      <c r="I238" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="I238" s="10">
+        <v>156</v>
+      </c>
       <c r="J238" s="10"/>
       <c r="K238" s="10"/>
       <c r="L238" s="7"/>
@@ -29100,18 +29168,18 @@
       <c r="B241" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C241" s="16" t="s">
+      <c r="C241" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="16"/>
-      <c r="J241" s="16"/>
-      <c r="K241" s="16"/>
-      <c r="L241" s="17"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="13"/>
+      <c r="L241" s="14"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -29148,7 +29216,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
+      <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -29157,56 +29225,56 @@
       <c r="C243">
         <v>118</v>
       </c>
-      <c r="D243" s="18" t="s">
+      <c r="D243" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E243" s="18"/>
-      <c r="F243" s="18"/>
-      <c r="G243" s="18"/>
-      <c r="H243" s="18"/>
-      <c r="I243" s="18"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="18"/>
-      <c r="L243" s="19"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="15"/>
+      <c r="L243" s="16"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
+      <c r="A244" s="11"/>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C244">
         <v>108</v>
       </c>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
-      <c r="H244" s="18"/>
-      <c r="I244" s="18"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="19"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="16"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
+      <c r="A245" s="11"/>
       <c r="B245" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C245">
         <v>119</v>
       </c>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
-      <c r="I245" s="18"/>
-      <c r="J245" s="18"/>
-      <c r="K245" s="18"/>
-      <c r="L245" s="19"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="15"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15"/>
+      <c r="L245" s="16"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -29215,54 +29283,54 @@
       <c r="C246">
         <v>95</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18"/>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
-      <c r="J246" s="18"/>
-      <c r="K246" s="18"/>
-      <c r="L246" s="19"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="15"/>
+      <c r="I246" s="15"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="15"/>
+      <c r="L246" s="16"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
+      <c r="A247" s="11"/>
       <c r="B247" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C247">
         <v>86</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
-      <c r="J247" s="18"/>
-      <c r="K247" s="18"/>
-      <c r="L247" s="19"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="15"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="16"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
+      <c r="A248" s="11"/>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C248">
         <v>94</v>
       </c>
-      <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
-      <c r="F248" s="18"/>
-      <c r="G248" s="18"/>
-      <c r="H248" s="18"/>
-      <c r="I248" s="18"/>
-      <c r="J248" s="18"/>
-      <c r="K248" s="18"/>
-      <c r="L248" s="19"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="16"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
+      <c r="A249" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -29271,54 +29339,54 @@
       <c r="C249">
         <v>443</v>
       </c>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
-      <c r="H249" s="18"/>
-      <c r="I249" s="18"/>
-      <c r="J249" s="18"/>
-      <c r="K249" s="18"/>
-      <c r="L249" s="19"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="15"/>
+      <c r="L249" s="16"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
+      <c r="A250" s="11"/>
       <c r="B250" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C250">
         <v>438</v>
       </c>
-      <c r="D250" s="18"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="18"/>
-      <c r="G250" s="18"/>
-      <c r="H250" s="18"/>
-      <c r="I250" s="18"/>
-      <c r="J250" s="18"/>
-      <c r="K250" s="18"/>
-      <c r="L250" s="19"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="15"/>
+      <c r="I250" s="15"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="15"/>
+      <c r="L250" s="16"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
+      <c r="A251" s="11"/>
       <c r="B251" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C251">
         <v>416</v>
       </c>
-      <c r="D251" s="18"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="18"/>
-      <c r="G251" s="18"/>
-      <c r="H251" s="18"/>
-      <c r="I251" s="18"/>
-      <c r="J251" s="18"/>
-      <c r="K251" s="18"/>
-      <c r="L251" s="19"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
+      <c r="I251" s="15"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="15"/>
+      <c r="L251" s="16"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
+      <c r="A252" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -29356,7 +29424,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
+      <c r="A253" s="11"/>
       <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
@@ -29392,7 +29460,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
+      <c r="A254" s="11"/>
       <c r="B254" s="4" t="s">
         <v>7</v>
       </c>
@@ -29428,7 +29496,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -29466,7 +29534,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
+      <c r="A256" s="11"/>
       <c r="B256" s="4" t="s">
         <v>6</v>
       </c>
@@ -29502,7 +29570,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="12"/>
+      <c r="A257" s="11"/>
       <c r="B257" s="4" t="s">
         <v>7</v>
       </c>
@@ -29538,7 +29606,7 @@
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+      <c r="A258" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -29576,7 +29644,7 @@
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
+      <c r="A259" s="11"/>
       <c r="B259" s="4" t="s">
         <v>6</v>
       </c>
@@ -29612,7 +29680,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
+      <c r="A260" s="11"/>
       <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
@@ -29648,7 +29716,7 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -29686,7 +29754,7 @@
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
+      <c r="A262" s="11"/>
       <c r="B262" s="4" t="s">
         <v>6</v>
       </c>
@@ -29722,7 +29790,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
+      <c r="A263" s="11"/>
       <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
@@ -29758,7 +29826,7 @@
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
+      <c r="A264" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -29796,7 +29864,7 @@
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
+      <c r="A265" s="11"/>
       <c r="B265" s="4" t="s">
         <v>6</v>
       </c>
@@ -29832,7 +29900,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
+      <c r="A266" s="11"/>
       <c r="B266" s="4" t="s">
         <v>7</v>
       </c>
@@ -29868,7 +29936,7 @@
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
+      <c r="A267" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -29906,7 +29974,7 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
+      <c r="A268" s="11"/>
       <c r="B268" s="4" t="s">
         <v>6</v>
       </c>
@@ -29942,7 +30010,7 @@
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="12"/>
+      <c r="A269" s="11"/>
       <c r="B269" s="4" t="s">
         <v>7</v>
       </c>
@@ -29978,7 +30046,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
+      <c r="A270" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -30016,7 +30084,7 @@
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
+      <c r="A271" s="11"/>
       <c r="B271" s="4" t="s">
         <v>6</v>
       </c>
@@ -30052,7 +30120,7 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="12"/>
+      <c r="A272" s="11"/>
       <c r="B272" s="4" t="s">
         <v>7</v>
       </c>
@@ -30088,7 +30156,7 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
+      <c r="A273" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -30126,7 +30194,7 @@
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
+      <c r="A274" s="11"/>
       <c r="B274" s="4" t="s">
         <v>6</v>
       </c>
@@ -30162,7 +30230,7 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="12"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="4" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30266,7 @@
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -30236,7 +30304,7 @@
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="12"/>
       <c r="B277" s="4" t="s">
         <v>6</v>
       </c>
@@ -30272,7 +30340,7 @@
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="12"/>
       <c r="B278" s="6" t="s">
         <v>7</v>
       </c>
@@ -30309,6 +30377,95 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:L11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="D43:L51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D83:L91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C121:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D123:L131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="D163:L171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="D203:L211"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="C241:L241"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="D243:L251"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
     <mergeCell ref="A267:A269"/>
     <mergeCell ref="A270:A272"/>
     <mergeCell ref="A273:A275"/>
@@ -30318,95 +30475,6 @@
     <mergeCell ref="A258:A260"/>
     <mergeCell ref="A261:A263"/>
     <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="D243:L251"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="D203:L211"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="D163:L171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="D123:L131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C121:L121"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="D83:L91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="D43:L51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D3:L11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -33316,43 +33384,43 @@
       </c>
       <c r="B3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="C3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="D3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="E3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="F3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="G3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="H3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="I3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="J3" s="4">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
       <c r="K3" s="5">
         <f>(SUM(DataEntry!C209:C211))/3</f>
-        <v>425.33333333333331</v>
+        <v>272.66666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -33361,31 +33429,31 @@
       </c>
       <c r="B4" s="4">
         <f>(SUM(DataEntry!C218:C220))/3</f>
-        <v>440.33333333333331</v>
+        <v>555</v>
       </c>
       <c r="C4" s="4">
         <f>(SUM(DataEntry!D218:D220))/3</f>
-        <v>296.33333333333331</v>
+        <v>486.33333333333331</v>
       </c>
       <c r="D4" s="4">
         <f>(SUM(DataEntry!E218:E220))/3</f>
-        <v>180.33333333333334</v>
+        <v>349</v>
       </c>
       <c r="E4" s="4">
         <f>(SUM(DataEntry!F218:F220))/3</f>
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="F4" s="4">
         <f>(SUM(DataEntry!G218:G220))/3</f>
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="G4" s="4">
         <f>(SUM(DataEntry!H218:H220))/3</f>
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="H4" s="4">
         <f>(SUM(DataEntry!I218:I220))/3</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="I4" s="4">
         <f>(SUM(DataEntry!J218:J220))/3</f>
@@ -33406,31 +33474,31 @@
       </c>
       <c r="B5" s="4">
         <f>(SUM(DataEntry!C227:C229))/3</f>
-        <v>307.66666666666669</v>
+        <v>358</v>
       </c>
       <c r="C5" s="4">
         <f>(SUM(DataEntry!D227:D229))/3</f>
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D5" s="4">
         <f>(SUM(DataEntry!E227:E229))/3</f>
-        <v>147.66666666666666</v>
+        <v>172.66666666666666</v>
       </c>
       <c r="E5" s="4">
         <f>(SUM(DataEntry!F227:F229))/3</f>
-        <v>137.66666666666666</v>
+        <v>303.33333333333331</v>
       </c>
       <c r="F5" s="4">
         <f>(SUM(DataEntry!G227:G229))/3</f>
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="G5" s="4">
         <f>(SUM(DataEntry!H227:H229))/3</f>
-        <v>132.33333333333334</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="H5" s="4">
         <f>(SUM(DataEntry!I227:I229))/3</f>
-        <v>0</v>
+        <v>206.66666666666666</v>
       </c>
       <c r="I5" s="4">
         <f>(SUM(DataEntry!J227:J229))/3</f>
@@ -33451,31 +33519,31 @@
       </c>
       <c r="B6" s="6">
         <f>(SUM(DataEntry!C236:C238))/3</f>
-        <v>190.66666666666666</v>
+        <v>143.33333333333334</v>
       </c>
       <c r="C6" s="6">
         <f>(SUM(DataEntry!D236:D238))/3</f>
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6">
         <f>(SUM(DataEntry!E236:E238))/3</f>
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6">
         <f>(SUM(DataEntry!F236:F238))/3</f>
-        <v>177</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F6" s="6">
         <f>(SUM(DataEntry!G236:G238))/3</f>
-        <v>234.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6">
         <f>(SUM(DataEntry!H236:H238))/3</f>
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6">
         <f>(SUM(DataEntry!I236:I238))/3</f>
-        <v>0</v>
+        <v>153.66666666666666</v>
       </c>
       <c r="I6" s="6">
         <f>(SUM(DataEntry!J236:J238))/3</f>
@@ -33544,43 +33612,43 @@
       </c>
       <c r="B10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="F10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="G10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="H10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="I10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="J10" s="4">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
       <c r="K10" s="5">
         <f>(SUM(DataEntry!C203:C205))/3</f>
-        <v>137.66666666666666</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -33589,31 +33657,31 @@
       </c>
       <c r="B11" s="4">
         <f>(SUM(DataEntry!C212:C214))/3</f>
-        <v>572.33333333333337</v>
+        <v>499.66666666666669</v>
       </c>
       <c r="C11" s="4">
         <f>(SUM(DataEntry!D212:D214))/3</f>
-        <v>464</v>
+        <v>354.33333333333331</v>
       </c>
       <c r="D11" s="4">
         <f>(SUM(DataEntry!E212:E214))/3</f>
-        <v>346</v>
+        <v>283.66666666666669</v>
       </c>
       <c r="E11" s="4">
         <f>(SUM(DataEntry!F212:F214))/3</f>
-        <v>312.33333333333331</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="F11" s="4">
         <f>(SUM(DataEntry!G212:G214))/3</f>
-        <v>357</v>
+        <v>289.33333333333331</v>
       </c>
       <c r="G11" s="4">
         <f>(SUM(DataEntry!H212:H214))/3</f>
-        <v>499.33333333333331</v>
+        <v>393</v>
       </c>
       <c r="H11" s="4">
         <f>(SUM(DataEntry!I212:I214))/3</f>
-        <v>0</v>
+        <v>545.66666666666663</v>
       </c>
       <c r="I11" s="4">
         <f>(SUM(DataEntry!J212:J214))/3</f>
@@ -33634,31 +33702,31 @@
       </c>
       <c r="B12" s="4">
         <f>(SUM(DataEntry!C221:C223))/3</f>
-        <v>273.66666666666669</v>
+        <v>292</v>
       </c>
       <c r="C12" s="4">
         <f>(SUM(DataEntry!D221:D223))/3</f>
-        <v>325.33333333333331</v>
+        <v>400.33333333333331</v>
       </c>
       <c r="D12" s="4">
         <f>(SUM(DataEntry!E221:E223))/3</f>
-        <v>242.66666666666666</v>
+        <v>318</v>
       </c>
       <c r="E12" s="4">
         <f>(SUM(DataEntry!F221:F223))/3</f>
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="F12" s="4">
         <f>(SUM(DataEntry!G221:G223))/3</f>
-        <v>197.66666666666666</v>
+        <v>208.66666666666666</v>
       </c>
       <c r="G12" s="4">
         <f>(SUM(DataEntry!H221:H223))/3</f>
-        <v>231.66666666666666</v>
+        <v>169</v>
       </c>
       <c r="H12" s="4">
         <f>(SUM(DataEntry!I221:I223))/3</f>
-        <v>0</v>
+        <v>365.33333333333331</v>
       </c>
       <c r="I12" s="4">
         <f>(SUM(DataEntry!J221:J223))/3</f>
@@ -33679,31 +33747,31 @@
       </c>
       <c r="B13" s="6">
         <f>(SUM(DataEntry!C230:C232))/3</f>
-        <v>184.33333333333334</v>
+        <v>145.66666666666666</v>
       </c>
       <c r="C13" s="6">
         <f>(SUM(DataEntry!D230:D232))/3</f>
-        <v>147.33333333333334</v>
+        <v>149.66666666666666</v>
       </c>
       <c r="D13" s="6">
         <f>(SUM(DataEntry!E230:E232))/3</f>
-        <v>140</v>
+        <v>211.66666666666666</v>
       </c>
       <c r="E13" s="6">
         <f>(SUM(DataEntry!F230:F232))/3</f>
-        <v>140</v>
+        <v>201.33333333333334</v>
       </c>
       <c r="F13" s="6">
         <f>(SUM(DataEntry!G230:G232))/3</f>
-        <v>219.33333333333334</v>
+        <v>233.66666666666666</v>
       </c>
       <c r="G13" s="6">
         <f>(SUM(DataEntry!H230:H232))/3</f>
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H13" s="6">
         <f>(SUM(DataEntry!I230:I232))/3</f>
-        <v>0</v>
+        <v>374.66666666666669</v>
       </c>
       <c r="I13" s="6">
         <f>(SUM(DataEntry!J230:J232))/3</f>
@@ -33772,43 +33840,43 @@
       </c>
       <c r="B17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="C17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="D17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="E17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="F17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="G17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="H17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="I17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="J17" s="4">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
       <c r="K17" s="5">
         <f>(SUM(DataEntry!C206:C208))/3</f>
-        <v>134</v>
+        <v>118.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -33817,31 +33885,31 @@
       </c>
       <c r="B18" s="4">
         <f>(SUM(DataEntry!C215:C217))/3</f>
-        <v>305.33333333333331</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="C18" s="4">
         <f>(SUM(DataEntry!D215:D217))/3</f>
-        <v>169.33333333333334</v>
+        <v>200.66666666666666</v>
       </c>
       <c r="D18" s="4">
         <f>(SUM(DataEntry!E215:E217))/3</f>
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E18" s="4">
         <f>(SUM(DataEntry!F215:F217))/3</f>
-        <v>67.666666666666671</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4">
         <f>(SUM(DataEntry!G215:G217))/3</f>
-        <v>54.666666666666664</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="G18" s="4">
         <f>(SUM(DataEntry!H215:H217))/3</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H18" s="4">
         <f>(SUM(DataEntry!I215:I217))/3</f>
-        <v>0</v>
+        <v>283.66666666666669</v>
       </c>
       <c r="I18" s="4">
         <f>(SUM(DataEntry!J215:J217))/3</f>
@@ -33862,31 +33930,31 @@
       </c>
       <c r="B19" s="4">
         <f>(SUM(DataEntry!C224:C226))/3</f>
-        <v>544.66666666666663</v>
+        <v>245.33333333333334</v>
       </c>
       <c r="C19" s="4">
         <f>(SUM(DataEntry!D224:D226))/3</f>
-        <v>326.66666666666669</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="D19" s="4">
         <f>(SUM(DataEntry!E224:E226))/3</f>
-        <v>211.33333333333334</v>
+        <v>77.333333333333329</v>
       </c>
       <c r="E19" s="4">
         <f>(SUM(DataEntry!F224:F226))/3</f>
-        <v>155.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
         <f>(SUM(DataEntry!G224:G226))/3</f>
-        <v>127</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="G19" s="4">
         <f>(SUM(DataEntry!H224:H226))/3</f>
-        <v>129.33333333333334</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="H19" s="4">
         <f>(SUM(DataEntry!I224:I226))/3</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="I19" s="4">
         <f>(SUM(DataEntry!J224:J226))/3</f>
@@ -33907,11 +33975,11 @@
       </c>
       <c r="B20" s="6">
         <f>(SUM(DataEntry!C233:C235))/3</f>
-        <v>136</v>
+        <v>127.66666666666667</v>
       </c>
       <c r="C20" s="6">
         <f>(SUM(DataEntry!D233:D235))/3</f>
-        <v>84</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="D20" s="6">
         <f>(SUM(DataEntry!E233:E235))/3</f>
@@ -33919,19 +33987,19 @@
       </c>
       <c r="E20" s="6">
         <f>(SUM(DataEntry!F233:F235))/3</f>
-        <v>41</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="F20" s="6">
         <f>(SUM(DataEntry!G233:G235))/3</f>
-        <v>58.333333333333336</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="G20" s="6">
         <f>(SUM(DataEntry!H233:H235))/3</f>
-        <v>47</v>
+        <v>51.333333333333336</v>
       </c>
       <c r="H20" s="6">
         <f>(SUM(DataEntry!I233:I235))/3</f>
-        <v>0</v>
+        <v>221.33333333333334</v>
       </c>
       <c r="I20" s="6">
         <f>(SUM(DataEntry!J233:J235))/3</f>

--- a/TestingTiming.xlsx
+++ b/TestingTiming.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Concurrent-SkipList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4AC622-FB33-48CC-B4CB-B7A8185FEECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" tabRatio="500"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="TACC" sheetId="6" r:id="rId6"/>
     <sheet name="Clara Desktop" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,11 +293,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,15 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,7 +409,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -450,6 +456,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -562,7 +588,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-64AE-45D1-B18B-515F863B48C7}"/>
             </c:ext>
@@ -673,7 +699,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-64AE-45D1-B18B-515F863B48C7}"/>
             </c:ext>
@@ -784,7 +810,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-64AE-45D1-B18B-515F863B48C7}"/>
             </c:ext>
@@ -895,7 +921,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-64AE-45D1-B18B-515F863B48C7}"/>
             </c:ext>
@@ -909,7 +935,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="110037248"/>
         <c:axId val="110039040"/>
@@ -1062,14 +1087,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1105,7 +1130,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1152,6 +1177,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1264,7 +1309,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-619C-40A3-B766-BBF6C0B1015F}"/>
             </c:ext>
@@ -1375,7 +1420,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-619C-40A3-B766-BBF6C0B1015F}"/>
             </c:ext>
@@ -1486,7 +1531,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-619C-40A3-B766-BBF6C0B1015F}"/>
             </c:ext>
@@ -1597,7 +1642,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-619C-40A3-B766-BBF6C0B1015F}"/>
             </c:ext>
@@ -1611,7 +1656,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="110622976"/>
         <c:axId val="110694400"/>
@@ -1764,14 +1808,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1807,7 +1851,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1854,6 +1898,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1966,7 +2030,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01B3-4045-8AEB-2E872C7A8806}"/>
             </c:ext>
@@ -2077,7 +2141,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-01B3-4045-8AEB-2E872C7A8806}"/>
             </c:ext>
@@ -2188,7 +2252,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-01B3-4045-8AEB-2E872C7A8806}"/>
             </c:ext>
@@ -2299,7 +2363,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-01B3-4045-8AEB-2E872C7A8806}"/>
             </c:ext>
@@ -2313,7 +2377,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="110743936"/>
         <c:axId val="110745472"/>
@@ -2466,14 +2529,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2509,7 +2572,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2556,6 +2619,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2668,7 +2751,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6716-4A08-9AD7-1AF3281EC9E6}"/>
             </c:ext>
@@ -2779,7 +2862,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6716-4A08-9AD7-1AF3281EC9E6}"/>
             </c:ext>
@@ -2890,7 +2973,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6716-4A08-9AD7-1AF3281EC9E6}"/>
             </c:ext>
@@ -3001,7 +3084,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6716-4A08-9AD7-1AF3281EC9E6}"/>
             </c:ext>
@@ -3015,7 +3098,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="110799104"/>
         <c:axId val="110804992"/>
@@ -3168,14 +3250,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3211,7 +3293,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3258,6 +3340,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3293,10 +3395,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$2:$K$2</c:f>
+              <c:f>TACC!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3317,25 +3419,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$3:$K$3</c:f>
+              <c:f>TACC!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>272.66666666666669</c:v>
                 </c:pt>
@@ -3355,24 +3448,15 @@
                   <c:v>272.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>272.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>272.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>272.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B320-4E2E-B1BA-526344DBC809}"/>
+              <c16:uniqueId val="{00000000-B086-4EF0-9F8A-06B80DD212FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3404,10 +3488,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$2:$K$2</c:f>
+              <c:f>TACC!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3428,25 +3512,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$4:$K$4</c:f>
+              <c:f>TACC!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>555</c:v>
                 </c:pt>
@@ -3467,23 +3542,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B320-4E2E-B1BA-526344DBC809}"/>
+              <c16:uniqueId val="{00000001-B086-4EF0-9F8A-06B80DD212FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3515,10 +3581,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$2:$K$2</c:f>
+              <c:f>TACC!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3539,25 +3605,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$5:$K$5</c:f>
+              <c:f>TACC!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>358</c:v>
                 </c:pt>
@@ -3578,23 +3635,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>206.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B320-4E2E-B1BA-526344DBC809}"/>
+              <c16:uniqueId val="{00000002-B086-4EF0-9F8A-06B80DD212FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3626,10 +3674,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$2:$K$2</c:f>
+              <c:f>TACC!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3650,25 +3698,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$6:$K$6</c:f>
+              <c:f>TACC!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>143.33333333333334</c:v>
                 </c:pt>
@@ -3689,23 +3728,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>153.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B320-4E2E-B1BA-526344DBC809}"/>
+              <c16:uniqueId val="{00000003-B086-4EF0-9F8A-06B80DD212FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3717,13 +3747,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111301376"/>
-        <c:axId val="111302912"/>
+        <c:axId val="677573135"/>
+        <c:axId val="576512255"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111301376"/>
+        <c:axId val="677573135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111302912"/>
+        <c:crossAx val="576512255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,7 +3803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111302912"/>
+        <c:axId val="576512255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111301376"/>
+        <c:crossAx val="677573135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3870,14 +3899,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3913,7 +3942,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3960,6 +3989,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3995,10 +4044,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$9:$K$9</c:f>
+              <c:f>TACC!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4019,25 +4068,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$10:$K$10</c:f>
+              <c:f>TACC!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4057,24 +4097,15 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F9E-4162-8701-E4B09DC174C3}"/>
+              <c16:uniqueId val="{00000000-EAB6-48E2-8364-6CCC399F8703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4106,10 +4137,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$9:$K$9</c:f>
+              <c:f>TACC!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4130,25 +4161,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$11:$K$11</c:f>
+              <c:f>TACC!$B$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>499.66666666666669</c:v>
                 </c:pt>
@@ -4169,23 +4191,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>545.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F9E-4162-8701-E4B09DC174C3}"/>
+              <c16:uniqueId val="{00000001-EAB6-48E2-8364-6CCC399F8703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4217,10 +4230,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$9:$K$9</c:f>
+              <c:f>TACC!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4241,25 +4254,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$12:$K$12</c:f>
+              <c:f>TACC!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>292</c:v>
                 </c:pt>
@@ -4280,23 +4284,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>365.33333333333331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F9E-4162-8701-E4B09DC174C3}"/>
+              <c16:uniqueId val="{00000002-EAB6-48E2-8364-6CCC399F8703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4328,10 +4323,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$9:$K$9</c:f>
+              <c:f>TACC!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4352,25 +4347,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$13:$K$13</c:f>
+              <c:f>TACC!$B$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>145.66666666666666</c:v>
                 </c:pt>
@@ -4391,23 +4377,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>374.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7F9E-4162-8701-E4B09DC174C3}"/>
+              <c16:uniqueId val="{00000003-EAB6-48E2-8364-6CCC399F8703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4419,13 +4396,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111340544"/>
-        <c:axId val="111084288"/>
+        <c:axId val="685082399"/>
+        <c:axId val="576505183"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111340544"/>
+        <c:axId val="685082399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111084288"/>
+        <c:crossAx val="576505183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4476,7 +4452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111084288"/>
+        <c:axId val="576505183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111340544"/>
+        <c:crossAx val="685082399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4572,14 +4548,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4615,7 +4591,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4662,6 +4638,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4697,10 +4693,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$16:$K$16</c:f>
+              <c:f>TACC!$B$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4721,25 +4717,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$17:$K$17</c:f>
+              <c:f>TACC!$B$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>118.66666666666667</c:v>
                 </c:pt>
@@ -4759,24 +4746,15 @@
                   <c:v>118.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>118.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>118.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>118.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01C1-4A9C-B330-C32120305325}"/>
+              <c16:uniqueId val="{00000000-1927-452D-B493-EFBB2AAAB3EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4808,10 +4786,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$16:$K$16</c:f>
+              <c:f>TACC!$B$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4832,25 +4810,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TACC!$B$18:$K$18</c:f>
+              <c:f>TACC!$B$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>341.33333333333331</c:v>
                 </c:pt>
@@ -4871,23 +4840,14 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>283.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01C1-4A9C-B330-C32120305325}"/>
+              <c16:uniqueId val="{00000001-1927-452D-B493-EFBB2AAAB3EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4919,10 +4879,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TACC!$B$16:$K$16</c:f>
+              <c:f>TACC!$B$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4943,25 +4903,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>